--- a/Strumenti/Schede_DnD_BX91.xlsx
+++ b/Strumenti/Schede_DnD_BX91.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Public\_Clienti\Maruga\Giochi\Vampiri\Vault\Vampiri\Strumenti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F1BB29-6195-4398-A4CF-A9CAC48240E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013DDF17-F549-4497-AA7E-F72404D1C496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20676" yWindow="0" windowWidth="20424" windowHeight="16656" xr2:uid="{FC328CB3-F1C2-4520-956D-C4D288DB9EEB}"/>
+    <workbookView xWindow="10152" yWindow="0" windowWidth="18816" windowHeight="16656" xr2:uid="{FC328CB3-F1C2-4520-956D-C4D288DB9EEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="90">
   <si>
     <t>Giocatore</t>
   </si>
@@ -306,6 +306,9 @@
   </si>
   <si>
     <t>Banca</t>
+  </si>
+  <si>
+    <t>THAC0 - CA avversario = Tiro necessario</t>
   </si>
 </sst>
 </file>
@@ -490,7 +493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -573,48 +576,49 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -952,7 +956,7 @@
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1038,13 +1042,13 @@
       <c r="B4" s="20">
         <v>4</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="29" t="s">
         <v>80</v>
       </c>
       <c r="K4" s="20">
@@ -1077,20 +1081,20 @@
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="K6" s="40" t="s">
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="K6" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
       <c r="N6" s="6">
         <v>10</v>
       </c>
@@ -1102,20 +1106,20 @@
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="K7" s="40" t="s">
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="K7" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
       <c r="N7" s="6">
         <v>10</v>
       </c>
@@ -1127,20 +1131,20 @@
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="K8" s="40" t="s">
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="K8" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
       <c r="N8" s="6">
         <v>10</v>
       </c>
@@ -1152,20 +1156,20 @@
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="K9" s="40" t="s">
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="K9" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
       <c r="N9" s="6">
         <v>13</v>
       </c>
@@ -1177,20 +1181,20 @@
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="K10" s="40" t="s">
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="K10" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
       <c r="N10" s="6">
         <v>11</v>
       </c>
@@ -1202,15 +1206,15 @@
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
     </row>
     <row r="12" spans="1:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:15" s="8" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1236,34 +1240,34 @@
       <c r="O13" s="7"/>
     </row>
     <row r="14" spans="1:15" s="8" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="30"/>
+      <c r="B14" s="36"/>
       <c r="E14" s="7" t="s">
         <v>33</v>
       </c>
       <c r="F14" s="7"/>
-      <c r="H14" s="32" t="s">
+      <c r="H14" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="I14" s="32"/>
+      <c r="I14" s="40"/>
       <c r="L14" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="8" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="36"/>
       <c r="E15" s="27" t="s">
         <v>79</v>
       </c>
       <c r="F15" s="27"/>
       <c r="G15" s="26"/>
-      <c r="H15" s="33" t="s">
+      <c r="H15" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="I15" s="33">
+      <c r="I15" s="37">
         <v>11</v>
       </c>
       <c r="L15" s="8" t="s">
@@ -1271,16 +1275,16 @@
       </c>
     </row>
     <row r="16" spans="1:15" s="8" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
       <c r="E16" s="7" t="s">
         <v>28</v>
       </c>
       <c r="F16" s="7"/>
-      <c r="H16" s="32" t="s">
+      <c r="H16" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="I16" s="32">
+      <c r="I16" s="40">
         <v>12</v>
       </c>
       <c r="L16" s="8" t="s">
@@ -1288,17 +1292,17 @@
       </c>
     </row>
     <row r="17" spans="1:14" s="8" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
       <c r="E17" s="27" t="s">
         <v>72</v>
       </c>
       <c r="F17" s="27"/>
       <c r="G17" s="26"/>
-      <c r="H17" s="33" t="s">
+      <c r="H17" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="I17" s="33" t="s">
+      <c r="I17" s="37" t="s">
         <v>29</v>
       </c>
       <c r="L17" s="8" t="s">
@@ -1310,10 +1314,10 @@
         <v>73</v>
       </c>
       <c r="F18" s="7"/>
-      <c r="H18" s="32" t="s">
+      <c r="H18" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="I18" s="32" t="s">
+      <c r="I18" s="40" t="s">
         <v>29</v>
       </c>
       <c r="L18" s="8" t="s">
@@ -1332,10 +1336,10 @@
       </c>
       <c r="F19" s="27"/>
       <c r="G19" s="26"/>
-      <c r="H19" s="33" t="s">
+      <c r="H19" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="I19" s="33"/>
+      <c r="I19" s="37"/>
       <c r="L19" s="8" t="s">
         <v>48</v>
       </c>
@@ -1355,14 +1359,17 @@
       <c r="A21" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
+      <c r="E21" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
     </row>
     <row r="22" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
     </row>
     <row r="23" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
@@ -1382,10 +1389,10 @@
       <c r="B24" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
       <c r="L24" s="3" t="s">
         <v>58</v>
       </c>
@@ -1397,10 +1404,10 @@
       <c r="B25" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
       <c r="L25" s="3" t="s">
         <v>59</v>
       </c>
@@ -1409,10 +1416,10 @@
       <c r="A26" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
       <c r="L26" s="3" t="s">
         <v>60</v>
       </c>
@@ -1426,7 +1433,7 @@
       <c r="A28" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="37">
+      <c r="B28" s="32">
         <v>20</v>
       </c>
       <c r="C28" s="11"/>
@@ -1434,7 +1441,7 @@
       <c r="E28" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H28" s="36">
+      <c r="H28" s="31">
         <v>3</v>
       </c>
       <c r="L28" s="3" t="s">
@@ -1445,11 +1452,11 @@
       <c r="A29" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="38">
+      <c r="B29" s="33">
         <v>5</v>
       </c>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
@@ -1459,15 +1466,15 @@
       <c r="A30" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="38">
+      <c r="B30" s="33">
         <v>10</v>
       </c>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
     </row>
     <row r="31" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -1679,11 +1686,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A14:B17"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="L21:N21"/>
     <mergeCell ref="L22:N22"/>
     <mergeCell ref="C11:I11"/>
     <mergeCell ref="H18:I18"/>
@@ -1699,6 +1701,11 @@
     <mergeCell ref="C8:I8"/>
     <mergeCell ref="C9:I9"/>
     <mergeCell ref="C10:I10"/>
+    <mergeCell ref="A14:B17"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="L21:N21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Strumenti/Schede_DnD_BX91.xlsx
+++ b/Strumenti/Schede_DnD_BX91.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Public\_Clienti\Maruga\Giochi\Vampiri\Vault\Vampiri\Strumenti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5849A470-A00D-4085-B724-713879FA7E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841928C8-8922-41A7-92FC-49D550C8426B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10572" yWindow="0" windowWidth="23244" windowHeight="16656" activeTab="1" xr2:uid="{FC328CB3-F1C2-4520-956D-C4D288DB9EEB}"/>
+    <workbookView xWindow="10572" yWindow="0" windowWidth="23244" windowHeight="16656" xr2:uid="{FC328CB3-F1C2-4520-956D-C4D288DB9EEB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Scheda" sheetId="1" r:id="rId1"/>
+    <sheet name="Cleric" sheetId="1" r:id="rId1"/>
     <sheet name="Oggetti" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="117">
   <si>
     <t>Giocatore</t>
   </si>
@@ -79,24 +79,6 @@
   </si>
   <si>
     <t>Soffio Drago</t>
-  </si>
-  <si>
-    <t>EQUIPAGGIAMENTO</t>
-  </si>
-  <si>
-    <t>cotta di maglia e scudo</t>
-  </si>
-  <si>
-    <t>spada</t>
-  </si>
-  <si>
-    <t>2 pugnali</t>
-  </si>
-  <si>
-    <t>arco lungo</t>
-  </si>
-  <si>
-    <t>libro incantesimi</t>
   </si>
   <si>
     <t>open stuck doors on
@@ -109,9 +91,6 @@
     <t>Pietrificazione Paralisi</t>
   </si>
   <si>
-    <t>Veleno, Raggio della Morte</t>
-  </si>
-  <si>
     <t>Arma</t>
   </si>
   <si>
@@ -124,9 +103,6 @@
     <t>Correre</t>
   </si>
   <si>
-    <t>11km</t>
-  </si>
-  <si>
     <t>Spada</t>
   </si>
   <si>
@@ -137,9 +113,6 @@
   </si>
   <si>
     <t>Combattimento</t>
-  </si>
-  <si>
-    <t>Elf, Common, Chaotic, Orc, Hobgoblin, Gnoll, Gnome.</t>
   </si>
   <si>
     <t>Giornaliero</t>
@@ -183,12 +156,6 @@
     <t>1d6</t>
   </si>
   <si>
-    <t>cintura, stivali</t>
-  </si>
-  <si>
-    <t>abiti standard</t>
-  </si>
-  <si>
     <t>-1 on NPC reactions, max. 3 retainers, retainer morale 6</t>
   </si>
   <si>
@@ -198,36 +165,15 @@
     <t>1 Livello</t>
   </si>
   <si>
-    <t>Leggere magico, Scudo</t>
-  </si>
-  <si>
     <t>2 Livello</t>
   </si>
   <si>
-    <t>Invisibilità, Ragnatela</t>
-  </si>
-  <si>
-    <t>Infravisione 60piedi</t>
-  </si>
-  <si>
-    <t>2/6 trovare porte segrete</t>
-  </si>
-  <si>
     <t>1/6 Ascoltare rumori</t>
   </si>
   <si>
-    <t>1/6 ascoltare att. Porte</t>
-  </si>
-  <si>
-    <t>Immune paralisi Ghoul</t>
-  </si>
-  <si>
     <t>5 / 1/0/-1</t>
   </si>
   <si>
-    <t>Fast Character</t>
-  </si>
-  <si>
     <t>4th</t>
   </si>
   <si>
@@ -237,39 +183,18 @@
     <t>Elfo</t>
   </si>
   <si>
-    <t>Caotico</t>
-  </si>
-  <si>
-    <t>30.000/32,000</t>
-  </si>
-  <si>
     <t>Esperienza</t>
   </si>
   <si>
-    <t>6m / 4q</t>
-  </si>
-  <si>
     <t>Arrampicarsi</t>
   </si>
   <si>
     <t>Nuotare</t>
   </si>
   <si>
-    <t>18m / 12q</t>
-  </si>
-  <si>
-    <t>3m / 2q</t>
-  </si>
-  <si>
-    <t>19 km</t>
-  </si>
-  <si>
     <t>Peso</t>
   </si>
   <si>
-    <t>Pesante</t>
-  </si>
-  <si>
     <t>Esplorazione</t>
   </si>
   <si>
@@ -291,9 +216,6 @@
     <t>Incantesimi Scelti</t>
   </si>
   <si>
-    <t>Monete</t>
-  </si>
-  <si>
     <t>pp</t>
   </si>
   <si>
@@ -309,9 +231,6 @@
     <t>Slot</t>
   </si>
   <si>
-    <t>Anelli, amuleti, pergamene singole, chiavi</t>
-  </si>
-  <si>
     <t>Forza</t>
   </si>
   <si>
@@ -354,32 +273,135 @@
     <t>36+</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>Esempio</t>
   </si>
   <si>
-    <t>Formula: 20 + (modificatore FOR × 2)</t>
-  </si>
-  <si>
     <t>Note/Usi/Cariche</t>
   </si>
   <si>
-    <t>Armi medie, armatura leggera, scudo , arco corto, balestra l.</t>
-  </si>
-  <si>
     <t>Armi grandi, armatura pesante, scudo grande, arco l., balestra p.</t>
   </si>
   <si>
-    <t>Ogni 100 mo</t>
-  </si>
-  <si>
-    <t>Armi piccole, torce, pozioni, corda, faretra</t>
+    <t>Armi piccole, torce, pozioni, corda, faretra, acqua s., bacchette</t>
+  </si>
+  <si>
+    <t>Armi m., armature l., scudo , arco c., balestra l., stivali, mantello</t>
+  </si>
+  <si>
+    <t>Anelli, amuleti, pergamene (10), chiavi, gemme</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Sutan Ambermoor</t>
+  </si>
+  <si>
+    <t>30000</t>
+  </si>
+  <si>
+    <t>Neutrale</t>
+  </si>
+  <si>
+    <t>Veleno, Raggio della Morte, +1 mg</t>
+  </si>
+  <si>
+    <t>Common</t>
+  </si>
+  <si>
+    <t>1/6 trovare porte segrete</t>
+  </si>
+  <si>
+    <t>1/6 ascoltare attr. Porte</t>
+  </si>
+  <si>
+    <t>Slot/Equipaggiamento</t>
+  </si>
+  <si>
+    <t>3/Armatura a piastre</t>
+  </si>
+  <si>
+    <t>1/Mazza</t>
+  </si>
+  <si>
+    <t>1/Fionda</t>
+  </si>
+  <si>
+    <t>0/Vestiti, Cintura, Stivali</t>
+  </si>
+  <si>
+    <t>0/Simbolo sacro</t>
+  </si>
+  <si>
+    <t>0/Fiale Acqua santa (2)</t>
+  </si>
+  <si>
+    <t>2/Scudo +1</t>
+  </si>
+  <si>
+    <t>Ogni 100 mo 1 Slot, Borsa Conservante +5 slot, fiale 1 slot ogni 5</t>
+  </si>
+  <si>
+    <t>Monete. 100=1slot</t>
+  </si>
+  <si>
+    <t>+6</t>
+  </si>
+  <si>
+    <t>4 Livello</t>
+  </si>
+  <si>
+    <t>Arma Potenziata +1d6</t>
+  </si>
+  <si>
+    <t>Benedizione +1TxC, Silenzio 5m</t>
+  </si>
+  <si>
+    <t>Cura Ferite Leggere 1d6+1, Protezione dal Male -1TxC</t>
+  </si>
+  <si>
+    <t>Cura Ferite Gravi  2d6+2</t>
+  </si>
+  <si>
+    <t>Piedi</t>
+  </si>
+  <si>
+    <t>Metri</t>
+  </si>
+  <si>
+    <t>Quad.</t>
+  </si>
+  <si>
+    <t>19km</t>
+  </si>
+  <si>
+    <t>12 mi</t>
+  </si>
+  <si>
+    <t>1R</t>
+  </si>
+  <si>
+    <t>1T</t>
+  </si>
+  <si>
+    <t>1G</t>
+  </si>
+  <si>
+    <t>Scacciare 2d6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -490,6 +512,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
@@ -519,6 +548,20 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="6"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -562,7 +605,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -582,21 +625,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -742,10 +770,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -834,25 +863,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -860,78 +883,126 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Migliaia" xfId="1" builtinId="3"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
@@ -1027,6 +1098,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/featurePropertyBag/featurePropertyBag.xml><?xml version="1.0" encoding="utf-8"?>
+<FeaturePropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag">
+  <bag type="Checkbox"/>
+  <bag type="XFControls">
+    <bagId k="CellControl">0</bagId>
+  </bag>
+  <bag type="XFComplement">
+    <bagId k="XFControls">1</bagId>
+  </bag>
+  <bag type="XFComplements" extRef="XFComplementsMapperExtRef">
+    <a k="MappedFeaturePropertyBags">
+      <bagId>2</bagId>
+    </a>
+  </bag>
+</FeaturePropertyBags>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1374,8 +1462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{263CECC3-3302-44DA-8376-3DD3643BBD45}">
   <dimension ref="A1:AA36"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1391,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -1400,12 +1488,12 @@
       <c r="G1" s="10"/>
       <c r="H1" s="8"/>
       <c r="I1" s="7" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
-      <c r="L1" s="10" t="s">
-        <v>66</v>
+      <c r="L1" s="68" t="s">
+        <v>86</v>
       </c>
       <c r="M1" s="10"/>
       <c r="N1" s="10"/>
@@ -1415,15 +1503,15 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="9" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="8"/>
@@ -1433,7 +1521,7 @@
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="15" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="M2" s="15"/>
       <c r="N2" s="15"/>
@@ -1459,22 +1547,25 @@
         <v>9</v>
       </c>
       <c r="B4" s="20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>75</v>
+        <v>50</v>
+      </c>
+      <c r="F4" s="30">
+        <v>20</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>102</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="K4" s="20">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="K4" s="69">
+        <v>-1</v>
       </c>
       <c r="M4" s="16">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="N4" s="12" t="s">
         <v>10</v>
@@ -1483,7 +1574,7 @@
     </row>
     <row r="5" spans="1:15" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B5" s="14"/>
       <c r="K5" s="14" t="s">
@@ -1495,102 +1586,102 @@
     </row>
     <row r="6" spans="1:15" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="K6" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="C6" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="K6" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
       <c r="N6" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="K7" s="40" t="s">
+      <c r="C7" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="K7" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
       <c r="N7" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="K8" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
+      <c r="C8" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="K8" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
       <c r="N8" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="K9" s="40" t="s">
+      <c r="C9" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="K9" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
       <c r="N9" s="6">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1600,283 +1691,353 @@
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="K10" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
+      <c r="C10" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="K10" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
       <c r="N10" s="6">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
+      <c r="C11" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
     </row>
     <row r="12" spans="1:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:15" s="8" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="7"/>
-      <c r="E13" s="9" t="s">
-        <v>26</v>
-      </c>
+      <c r="D13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="9"/>
       <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="75" t="s">
+        <v>108</v>
+      </c>
+      <c r="I13" s="75" t="s">
+        <v>109</v>
+      </c>
+      <c r="J13" s="75" t="s">
+        <v>110</v>
+      </c>
       <c r="K13" s="7"/>
       <c r="L13" s="9" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="M13" s="10"/>
       <c r="N13" s="9"/>
       <c r="O13" s="7"/>
     </row>
     <row r="14" spans="1:15" s="8" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="35"/>
-      <c r="E14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="H14" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="I14" s="39"/>
+      <c r="A14" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="70"/>
+      <c r="D14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="G14" s="72" t="s">
+        <v>113</v>
+      </c>
+      <c r="H14" s="76">
+        <v>20</v>
+      </c>
+      <c r="I14" s="77">
+        <v>6</v>
+      </c>
+      <c r="J14" s="77">
+        <f>H14/5</f>
+        <v>4</v>
+      </c>
       <c r="L14" s="8" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="8" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
-      <c r="E15" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="I15" s="36">
-        <v>11</v>
+      <c r="A15" s="70"/>
+      <c r="B15" s="70"/>
+      <c r="D15" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="27"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="79" t="s">
+        <v>114</v>
+      </c>
+      <c r="H15" s="80">
+        <v>60</v>
+      </c>
+      <c r="I15" s="80">
+        <v>18</v>
+      </c>
+      <c r="J15" s="80">
+        <f t="shared" ref="J15:J18" si="0">H15/5</f>
+        <v>12</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="8" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="E16" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="H16" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="I16" s="39">
+      <c r="A16" s="70"/>
+      <c r="B16" s="70"/>
+      <c r="D16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="G16" s="72" t="s">
+        <v>113</v>
+      </c>
+      <c r="H16" s="76">
+        <v>60</v>
+      </c>
+      <c r="I16" s="77">
+        <v>18</v>
+      </c>
+      <c r="J16" s="77">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="8" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="E17" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="F17" s="27"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="I17" s="36" t="s">
-        <v>28</v>
+      <c r="A17" s="70"/>
+      <c r="B17" s="70"/>
+      <c r="D17" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="27"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="79" t="s">
+        <v>113</v>
+      </c>
+      <c r="H17" s="80">
+        <v>10</v>
+      </c>
+      <c r="I17" s="80">
+        <v>3</v>
+      </c>
+      <c r="J17" s="80">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="8" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E18" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="H18" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="I18" s="39" t="s">
-        <v>28</v>
+      <c r="D18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="G18" s="72" t="s">
+        <v>113</v>
+      </c>
+      <c r="H18" s="76">
+        <v>10</v>
+      </c>
+      <c r="I18" s="77">
+        <v>3</v>
+      </c>
+      <c r="J18" s="77">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:14" s="8" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="B19" s="9"/>
-      <c r="E19" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="I19" s="36"/>
+      <c r="D19" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="27"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="H19" s="78" t="s">
+        <v>112</v>
+      </c>
+      <c r="I19" s="78" t="s">
+        <v>111</v>
+      </c>
+      <c r="J19" s="78"/>
       <c r="L19" s="8" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:14" s="8" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" s="1">
+        <v>58</v>
+      </c>
+      <c r="B20" s="71">
         <v>0</v>
       </c>
-      <c r="L20" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="L20" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
     </row>
     <row r="21" spans="1:14" s="8" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B21" s="1">
-        <v>100</v>
-      </c>
-      <c r="E21" t="s">
-        <v>79</v>
-      </c>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
+        <v>55</v>
+      </c>
+      <c r="B21" s="71">
+        <v>500</v>
+      </c>
+      <c r="D21" t="s">
+        <v>54</v>
+      </c>
+      <c r="M21" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="N21" s="72">
+        <v>7</v>
+      </c>
     </row>
     <row r="22" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" s="1">
+        <v>59</v>
+      </c>
+      <c r="B22" s="71">
         <v>0</v>
       </c>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="N22" s="72">
+        <v>5</v>
+      </c>
     </row>
     <row r="23" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B23" s="1">
+        <v>56</v>
+      </c>
+      <c r="B23" s="71">
         <v>0</v>
       </c>
-      <c r="L23" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
+      <c r="M23" s="73"/>
+      <c r="N23" s="81"/>
     </row>
     <row r="24" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L24" s="3" t="s">
-        <v>55</v>
-      </c>
+      <c r="M24" s="73"/>
+      <c r="N24" s="73"/>
     </row>
     <row r="25" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="B25" s="9"/>
-      <c r="L25" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="L25" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
     </row>
     <row r="26" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
+        <v>106</v>
+      </c>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="74"/>
       <c r="L26" s="3" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
+        <v>105</v>
+      </c>
+      <c r="G27" s="74"/>
+      <c r="H27" s="74"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
       <c r="L27" s="3" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
+        <v>53</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="74"/>
       <c r="L28" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
     <row r="31" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="18" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D32" s="22">
         <v>8</v>
@@ -1886,46 +2047,46 @@
         <v>7</v>
       </c>
       <c r="F32" s="22">
-        <f t="shared" ref="F32:L32" si="0">E32-1</f>
+        <f t="shared" ref="F32:L32" si="1">E32-1</f>
         <v>6</v>
       </c>
       <c r="G32" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="H32" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I32" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="J32" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K32" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L32" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M32" s="19" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="N32" s="19" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:27" ht="18" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="17" t="s">
         <v>29</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>38</v>
       </c>
       <c r="C33" s="24">
         <v>7</v>
@@ -1935,172 +2096,166 @@
         <v>8</v>
       </c>
       <c r="E33" s="24">
-        <f t="shared" ref="E33:L33" si="1">D33+1</f>
+        <f t="shared" ref="E33:L33" si="2">D33+1</f>
         <v>9</v>
       </c>
       <c r="F33" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="G33" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="H33" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="I33" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="J33" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="K33" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="L33" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="M33" s="21" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="N33" s="1"/>
     </row>
     <row r="34" spans="1:27" ht="18" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C34" s="24">
         <v>8</v>
       </c>
       <c r="D34" s="4">
-        <f t="shared" ref="D34:L34" si="2">C34+1</f>
+        <f t="shared" ref="D34:L34" si="3">C34+1</f>
         <v>9</v>
       </c>
       <c r="E34" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="F34" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="G34" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="H34" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="I34" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="J34" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="K34" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="L34" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="M34" s="21" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="N34" s="1"/>
     </row>
     <row r="35" spans="1:27" ht="18" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C35" s="24">
         <v>9</v>
       </c>
       <c r="D35" s="4">
-        <f t="shared" ref="D35:L35" si="3">C35+1</f>
+        <f t="shared" ref="D35:L35" si="4">C35+1</f>
         <v>10</v>
       </c>
       <c r="E35" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F35" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="G35" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="H35" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="I35" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="J35" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="K35" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="L35" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="M35" s="21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="AA36"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="L22:N22"/>
+  <mergeCells count="13">
     <mergeCell ref="C11:I11"/>
-    <mergeCell ref="H18:I18"/>
     <mergeCell ref="K6:M6"/>
     <mergeCell ref="K7:M7"/>
     <mergeCell ref="K8:M8"/>
     <mergeCell ref="K9:M9"/>
     <mergeCell ref="K10:M10"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H16:I16"/>
     <mergeCell ref="C6:I6"/>
     <mergeCell ref="C7:I7"/>
     <mergeCell ref="C8:I8"/>
     <mergeCell ref="C9:I9"/>
     <mergeCell ref="C10:I10"/>
     <mergeCell ref="A14:B17"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="L20:N20"/>
   </mergeCells>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
@@ -2110,8 +2265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7F733B-4F29-4CC7-8875-78DA591CD6C7}">
   <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView topLeftCell="A18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2124,57 +2279,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="58" t="s">
-        <v>86</v>
-      </c>
-      <c r="F1" s="58" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1" s="59" t="s">
-        <v>106</v>
-      </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
+      <c r="A1" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
     </row>
     <row r="2" spans="1:10" ht="4.2" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="60">
+      <c r="A3" s="57">
         <v>1</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
     </row>
     <row r="4" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="61">
+      <c r="A4" s="58">
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
     </row>
     <row r="5" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="62">
+      <c r="A5" s="59">
         <v>3</v>
       </c>
       <c r="B5"/>
@@ -2183,21 +2338,21 @@
       <c r="G5" s="34"/>
     </row>
     <row r="6" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="61">
+      <c r="A6" s="58">
         <v>4</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="62">
+      <c r="A7" s="59">
         <v>5</v>
       </c>
       <c r="B7"/>
@@ -2206,21 +2361,21 @@
       <c r="G7" s="34"/>
     </row>
     <row r="8" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="61">
+      <c r="A8" s="58">
         <v>6</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
     </row>
     <row r="9" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="62">
+      <c r="A9" s="59">
         <v>7</v>
       </c>
       <c r="B9"/>
@@ -2229,21 +2384,21 @@
       <c r="G9" s="34"/>
     </row>
     <row r="10" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="61">
+      <c r="A10" s="58">
         <v>8</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="62">
+      <c r="A11" s="59">
         <v>9</v>
       </c>
       <c r="B11"/>
@@ -2252,49 +2407,49 @@
       <c r="G11" s="34"/>
     </row>
     <row r="12" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="63">
+      <c r="A12" s="60">
         <v>10</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
     </row>
     <row r="13" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="64">
+      <c r="A13" s="61">
         <v>11</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
       <c r="E13" s="33"/>
       <c r="F13" s="34"/>
       <c r="G13" s="34"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
     </row>
     <row r="14" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="65">
+      <c r="A14" s="62">
         <v>12</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
     </row>
     <row r="15" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="66">
+      <c r="A15" s="63">
         <v>13</v>
       </c>
       <c r="B15"/>
@@ -2303,21 +2458,21 @@
       <c r="G15" s="34"/>
     </row>
     <row r="16" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="61">
+      <c r="A16" s="58">
         <v>14</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
     </row>
     <row r="17" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="66">
+      <c r="A17" s="63">
         <v>15</v>
       </c>
       <c r="B17"/>
@@ -2326,21 +2481,21 @@
       <c r="G17" s="34"/>
     </row>
     <row r="18" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="61">
+      <c r="A18" s="58">
         <v>16</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
     </row>
     <row r="19" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="66">
+      <c r="A19" s="63">
         <v>17</v>
       </c>
       <c r="B19"/>
@@ -2349,21 +2504,21 @@
       <c r="G19" s="34"/>
     </row>
     <row r="20" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="61">
+      <c r="A20" s="58">
         <v>18</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
     </row>
     <row r="21" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="66">
+      <c r="A21" s="63">
         <v>19</v>
       </c>
       <c r="B21"/>
@@ -2372,49 +2527,49 @@
       <c r="G21" s="34"/>
     </row>
     <row r="22" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="63">
+      <c r="A22" s="60">
         <v>20</v>
       </c>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
     </row>
     <row r="23" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="66">
+      <c r="A23" s="63">
         <v>21</v>
       </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
       <c r="E23" s="33"/>
       <c r="F23" s="34"/>
       <c r="G23" s="34"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
     </row>
     <row r="24" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="65">
+      <c r="A24" s="62">
         <v>22</v>
       </c>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
     </row>
     <row r="25" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="66">
+      <c r="A25" s="63">
         <v>23</v>
       </c>
       <c r="B25"/>
@@ -2423,21 +2578,21 @@
       <c r="G25" s="34"/>
     </row>
     <row r="26" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="61">
+      <c r="A26" s="58">
         <v>24</v>
       </c>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
     </row>
     <row r="27" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="66">
+      <c r="A27" s="63">
         <v>25</v>
       </c>
       <c r="B27"/>
@@ -2446,21 +2601,21 @@
       <c r="G27" s="34"/>
     </row>
     <row r="28" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="61">
+      <c r="A28" s="58">
         <v>26</v>
       </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
     </row>
     <row r="29" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="66">
+      <c r="A29" s="63">
         <v>27</v>
       </c>
       <c r="B29"/>
@@ -2469,71 +2624,71 @@
       <c r="G29" s="34"/>
     </row>
     <row r="30" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="61">
+      <c r="A30" s="58">
         <v>28</v>
       </c>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
     </row>
     <row r="31" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="67">
+      <c r="A31" s="64">
         <v>29</v>
       </c>
-      <c r="B31" s="55"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="55"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
     </row>
     <row r="32" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="53" t="s">
-        <v>88</v>
-      </c>
-      <c r="B33" s="53" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="H33" s="54" t="s">
-        <v>88</v>
-      </c>
-      <c r="I33" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="J33" s="54" t="s">
-        <v>92</v>
+      <c r="A33" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="J33" s="51" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>0</v>
       </c>
-      <c r="B34" s="68" t="s">
-        <v>89</v>
-      </c>
-      <c r="C34" s="69"/>
+      <c r="B34" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="66"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="52">
-        <v>3</v>
+      <c r="G34" s="67" t="s">
+        <v>84</v>
       </c>
       <c r="H34" s="1">
         <v>14</v>
@@ -2542,22 +2697,22 @@
         <v>4</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>1</v>
       </c>
-      <c r="B35" s="68" t="s">
-        <v>110</v>
-      </c>
-      <c r="C35" s="69"/>
+      <c r="B35" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="66"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="52" t="s">
-        <v>93</v>
+      <c r="G35" s="49" t="s">
+        <v>66</v>
       </c>
       <c r="H35" s="1">
         <v>18</v>
@@ -2566,22 +2721,22 @@
         <v>5</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>2</v>
       </c>
-      <c r="B36" s="68" t="s">
-        <v>107</v>
-      </c>
-      <c r="C36" s="69"/>
+      <c r="B36" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="66"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
-      <c r="G36" s="52" t="s">
-        <v>94</v>
+      <c r="G36" s="49" t="s">
+        <v>67</v>
       </c>
       <c r="H36" s="1">
         <v>20</v>
@@ -2590,22 +2745,22 @@
         <v>6</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>3</v>
       </c>
-      <c r="B37" s="68" t="s">
-        <v>108</v>
-      </c>
-      <c r="C37" s="69"/>
+      <c r="B37" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="66"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="52" t="s">
-        <v>95</v>
+      <c r="G37" s="49" t="s">
+        <v>68</v>
       </c>
       <c r="H37" s="1">
         <v>22</v>
@@ -2614,22 +2769,22 @@
         <v>7</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
-        <v>1</v>
-      </c>
-      <c r="B38" s="68" t="s">
-        <v>109</v>
-      </c>
-      <c r="C38" s="69"/>
+      <c r="A38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" s="66"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="52" t="s">
-        <v>96</v>
+      <c r="G38" s="49" t="s">
+        <v>69</v>
       </c>
       <c r="H38" s="1">
         <v>24</v>
@@ -2638,20 +2793,18 @@
         <v>8</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>105</v>
-      </c>
+      <c r="A39" s="3"/>
       <c r="B39" s="1"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="52" t="s">
-        <v>97</v>
+      <c r="G39" s="49" t="s">
+        <v>70</v>
       </c>
       <c r="H39" s="1">
         <v>26</v>
@@ -2660,7 +2813,7 @@
         <v>9</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Strumenti/Schede_DnD_BX91.xlsx
+++ b/Strumenti/Schede_DnD_BX91.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Public\_Clienti\Maruga\Giochi\Vampiri\Vault\Vampiri\Strumenti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841928C8-8922-41A7-92FC-49D550C8426B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85817E7B-6F3E-446A-ACF8-043E2659429B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10572" yWindow="0" windowWidth="23244" windowHeight="16656" xr2:uid="{FC328CB3-F1C2-4520-956D-C4D288DB9EEB}"/>
+    <workbookView xWindow="10644" yWindow="0" windowWidth="25152" windowHeight="16656" xr2:uid="{FC328CB3-F1C2-4520-956D-C4D288DB9EEB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Cleric" sheetId="1" r:id="rId1"/>
-    <sheet name="Oggetti" sheetId="2" r:id="rId2"/>
+    <sheet name="Fighter A" sheetId="3" r:id="rId1"/>
+    <sheet name="Cleric A" sheetId="1" r:id="rId2"/>
+    <sheet name="Oggetti" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,14 +38,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="151">
   <si>
     <t>Giocatore</t>
   </si>
   <si>
-    <t>Livello</t>
-  </si>
-  <si>
     <t>Allineamento</t>
   </si>
   <si>
@@ -81,10 +79,6 @@
     <t>Soffio Drago</t>
   </si>
   <si>
-    <t>open stuck doors on
-roll of 1-3 on 1d6</t>
-  </si>
-  <si>
     <t>Incantesimi Bastone Magico</t>
   </si>
   <si>
@@ -103,9 +97,6 @@
     <t>Correre</t>
   </si>
   <si>
-    <t>Spada</t>
-  </si>
-  <si>
     <t>Range</t>
   </si>
   <si>
@@ -118,17 +109,6 @@
     <t>Giornaliero</t>
   </si>
   <si>
-    <t>no adjustments</t>
-  </si>
-  <si>
-    <t>reads and writes in
-multiple languages</t>
-  </si>
-  <si>
-    <t>bonus to magic-based
-saving throws</t>
-  </si>
-  <si>
     <t>melee</t>
   </si>
   <si>
@@ -138,27 +118,15 @@
     <t>Arco Lungo</t>
   </si>
   <si>
-    <t>70/140/210</t>
-  </si>
-  <si>
     <t>Danno</t>
   </si>
   <si>
     <t>Note</t>
   </si>
   <si>
-    <t>1d8+1</t>
-  </si>
-  <si>
-    <t>1d4+1</t>
-  </si>
-  <si>
     <t>1d6</t>
   </si>
   <si>
-    <t>-1 on NPC reactions, max. 3 retainers, retainer morale 6</t>
-  </si>
-  <si>
     <t>Abilità</t>
   </si>
   <si>
@@ -171,18 +139,9 @@
     <t>1/6 Ascoltare rumori</t>
   </si>
   <si>
-    <t>5 / 1/0/-1</t>
-  </si>
-  <si>
-    <t>4th</t>
-  </si>
-  <si>
     <t>Classe</t>
   </si>
   <si>
-    <t>Elfo</t>
-  </si>
-  <si>
     <t>Esperienza</t>
   </si>
   <si>
@@ -198,9 +157,6 @@
     <t>Esplorazione</t>
   </si>
   <si>
-    <t>Iniziat.</t>
-  </si>
-  <si>
     <t>3 Livello</t>
   </si>
   <si>
@@ -300,9 +256,6 @@
     <t>Sutan Ambermoor</t>
   </si>
   <si>
-    <t>30000</t>
-  </si>
-  <si>
     <t>Neutrale</t>
   </si>
   <si>
@@ -312,6 +265,12 @@
     <t>Common</t>
   </si>
   <si>
+    <t>Mazza</t>
+  </si>
+  <si>
+    <t>Fionda</t>
+  </si>
+  <si>
     <t>1/6 trovare porte segrete</t>
   </si>
   <si>
@@ -336,9 +295,6 @@
     <t>0/Simbolo sacro</t>
   </si>
   <si>
-    <t>0/Fiale Acqua santa (2)</t>
-  </si>
-  <si>
     <t>2/Scudo +1</t>
   </si>
   <si>
@@ -354,15 +310,6 @@
     <t>4 Livello</t>
   </si>
   <si>
-    <t>Arma Potenziata +1d6</t>
-  </si>
-  <si>
-    <t>Benedizione +1TxC, Silenzio 5m</t>
-  </si>
-  <si>
-    <t>Cura Ferite Leggere 1d6+1, Protezione dal Male -1TxC</t>
-  </si>
-  <si>
     <t>Cura Ferite Gravi  2d6+2</t>
   </si>
   <si>
@@ -391,6 +338,159 @@
   </si>
   <si>
     <t>Scacciare 2d6</t>
+  </si>
+  <si>
+    <t>Umano</t>
+  </si>
+  <si>
+    <t>Cura Ferite Leggere 1d6+1, Protezione dal Male -1TxC 12T</t>
+  </si>
+  <si>
+    <t>Arma Potenziata +1d6 1T</t>
+  </si>
+  <si>
+    <t>Benedizione +1TxC 6R, Trovare Trap./Segr. 2T 30'</t>
+  </si>
+  <si>
+    <t>Acqua Santa</t>
+  </si>
+  <si>
+    <t>40/80/160'</t>
+  </si>
+  <si>
+    <t>10/30/50'</t>
+  </si>
+  <si>
+    <t>1d8</t>
+  </si>
+  <si>
+    <t>20 Pietre</t>
+  </si>
+  <si>
+    <t>Lancio</t>
+  </si>
+  <si>
+    <t>1d4</t>
+  </si>
+  <si>
+    <t>Apre porte bloccate con 1-2 su 1d6</t>
+  </si>
+  <si>
+    <t>Penalità a attacchi a distanza -1, CA +1, iniziativa -1</t>
+  </si>
+  <si>
+    <t>Nessun modificatore</t>
+  </si>
+  <si>
+    <t>Sa scrivere parole semplici</t>
+  </si>
+  <si>
+    <t>+1 ai TS contro magia</t>
+  </si>
+  <si>
+    <t>Reazioni PNG +0, massimo 4 seguaci, morale seguaci 7</t>
+  </si>
+  <si>
+    <t>1/Fiale Acqua santa (2)</t>
+  </si>
+  <si>
+    <t>Mod.</t>
+  </si>
+  <si>
+    <t>Iniziativa</t>
+  </si>
+  <si>
+    <t>Razza</t>
+  </si>
+  <si>
+    <t>30.000</t>
+  </si>
+  <si>
+    <t>1R = 10 Sec. | 1T = 10 Min.</t>
+  </si>
+  <si>
+    <t>Carica: +2 TxC, -2 CA</t>
+  </si>
+  <si>
+    <t>Copertura: Parziale -2 | Quasi totale -4 TxC nemico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       vs area: Parziale +2 TS | Quasi totale +4 TS</t>
+  </si>
+  <si>
+    <t>1°/2</t>
+  </si>
+  <si>
+    <t>2°/2</t>
+  </si>
+  <si>
+    <t>3°/1</t>
+  </si>
+  <si>
+    <t>4°/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chierico </t>
+  </si>
+  <si>
+    <t>6°</t>
+  </si>
+  <si>
+    <t>Corazzato Lento Curatore</t>
+  </si>
+  <si>
+    <t>Melisizwe Jeighmoor</t>
+  </si>
+  <si>
+    <t>Guerriero</t>
+  </si>
+  <si>
+    <t>Ascia da B.</t>
+  </si>
+  <si>
+    <t>1d8+3</t>
+  </si>
+  <si>
+    <t>1d4+2</t>
+  </si>
+  <si>
+    <t>70/140/210'</t>
+  </si>
+  <si>
+    <t>+8</t>
+  </si>
+  <si>
+    <t>1 mano 1d6+3</t>
+  </si>
+  <si>
+    <t>1/Pugnali</t>
+  </si>
+  <si>
+    <t>3/Arco Lungo</t>
+  </si>
+  <si>
+    <t>2/Ascia da Battaglia +1</t>
+  </si>
+  <si>
+    <t>Apre porte bloccate con 1-4 su 1d6</t>
+  </si>
+  <si>
+    <t>Bonus a attacchi a distanza, CA, iniziativa</t>
+  </si>
+  <si>
+    <t>Penalità ai TS contro magia</t>
+  </si>
+  <si>
+    <t>lanciabile 10/20/30'</t>
+  </si>
+  <si>
+    <t>12 freccie</t>
+  </si>
+  <si>
+    <t>1/Faretra</t>
+  </si>
+  <si>
+    <t>Guerriero Corazzato Arciere</t>
   </si>
 </sst>
 </file>
@@ -451,14 +551,6 @@
     <font>
       <b/>
       <sz val="26"/>
-      <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="26"/>
       <color theme="8" tint="-0.249977111117893"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -467,14 +559,6 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="26"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -492,13 +576,6 @@
       <b/>
       <sz val="26"/>
       <color theme="6"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="5"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -566,8 +643,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color rgb="FFC00000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFC00000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -583,6 +685,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -604,8 +712,14 @@
         <bgColor theme="8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -769,34 +883,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="mediumDashDot">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="mediumDashDot">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="mediumDashDot">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="mediumDashDot">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashDot">
+        <color auto="1"/>
+      </right>
+      <top style="mediumDashDot">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashDot">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashDot">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashDot">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashDot">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashDot">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashDot">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashDot">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="mediumDashDot">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="mediumDashDot">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashDot">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="mediumDashDot">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -809,66 +1051,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -876,37 +1070,28 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
@@ -914,40 +1099,40 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -958,46 +1143,238 @@
         </ext>
       </extLst>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1459,809 +1836,2213 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{263CECC3-3302-44DA-8376-3DD3643BBD45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D6BBBE-C9DF-4D21-98BF-29E96594E7D0}">
   <dimension ref="A1:AA36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" style="3" customWidth="1"/>
-    <col min="3" max="12" width="4.77734375" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="10.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" style="2" customWidth="1"/>
+    <col min="3" max="12" width="4.77734375" style="2" customWidth="1"/>
+    <col min="13" max="14" width="4.6640625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:16" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-    </row>
-    <row r="2" spans="1:15" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="B1" s="99" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="99"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="118" t="s">
+        <v>150</v>
+      </c>
+      <c r="H1" s="99"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="103" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="104" t="s">
+        <v>121</v>
+      </c>
+      <c r="O1" s="99"/>
+      <c r="P1" s="105"/>
+    </row>
+    <row r="2" spans="1:16" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="106" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="107" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="107"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="109" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110" t="s">
+        <v>134</v>
+      </c>
+      <c r="H2" s="110"/>
+      <c r="I2" s="117" t="s">
+        <v>131</v>
+      </c>
+      <c r="J2" s="108"/>
+      <c r="K2" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="7" t="s">
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="107" t="s">
+        <v>72</v>
+      </c>
+      <c r="O2" s="107"/>
+      <c r="P2" s="113"/>
+    </row>
+    <row r="3" spans="1:16" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="50"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="51"/>
+    </row>
+    <row r="4" spans="1:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="53">
+        <v>0</v>
+      </c>
+      <c r="C4" s="54"/>
+      <c r="D4" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="54"/>
+      <c r="F4" s="56">
+        <v>24</v>
+      </c>
+      <c r="G4" s="121" t="s">
+        <v>139</v>
+      </c>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="L4" s="54"/>
+      <c r="M4" s="58">
+        <v>1</v>
+      </c>
+      <c r="N4" s="54"/>
+      <c r="O4" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="115">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="60"/>
+    </row>
+    <row r="6" spans="1:16" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="94">
+        <v>17</v>
+      </c>
+      <c r="B6" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-    </row>
-    <row r="3" spans="1:15" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-    </row>
-    <row r="4" spans="1:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="20">
+      <c r="C6" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="56">
         <v>2</v>
       </c>
-      <c r="D4" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="30">
+      <c r="K6" s="56"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="63">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="94">
+        <v>14</v>
+      </c>
+      <c r="B7" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="61" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="56">
+        <v>1</v>
+      </c>
+      <c r="K7" s="56"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="62"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="63">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="94">
+        <v>11</v>
+      </c>
+      <c r="B8" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="56">
+        <v>0</v>
+      </c>
+      <c r="K8" s="56"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="N8" s="62"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="63">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="94">
+        <v>7</v>
+      </c>
+      <c r="B9" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="56">
+        <v>-1</v>
+      </c>
+      <c r="K9" s="56"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="63">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="94">
+        <v>4</v>
+      </c>
+      <c r="B10" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="61" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="56">
+        <v>-2</v>
+      </c>
+      <c r="K10" s="56"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="63">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="94">
+        <v>10</v>
+      </c>
+      <c r="B11" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="56">
+        <v>0</v>
+      </c>
+      <c r="K11" s="56"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="64"/>
+    </row>
+    <row r="12" spans="1:16" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="65"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="64"/>
+    </row>
+    <row r="13" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="67" t="s">
+        <v>91</v>
+      </c>
+      <c r="J13" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="K13" s="67" t="s">
+        <v>93</v>
+      </c>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="O13" s="5"/>
+      <c r="P13" s="68"/>
+    </row>
+    <row r="14" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="70"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="44"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="71" t="s">
+        <v>96</v>
+      </c>
+      <c r="I14" s="72">
         <v>20</v>
       </c>
-      <c r="G4" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="I4" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="K4" s="69">
-        <v>-1</v>
-      </c>
-      <c r="M4" s="16">
-        <v>31</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="13"/>
-    </row>
-    <row r="5" spans="1:15" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="K5" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-    </row>
-    <row r="6" spans="1:15" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+      <c r="J14" s="73">
+        <v>6</v>
+      </c>
+      <c r="K14" s="73">
+        <f>I14/5</f>
+        <v>4</v>
+      </c>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="O14" s="48"/>
+      <c r="P14" s="51"/>
+    </row>
+    <row r="15" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="69"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="74" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="74"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="76" t="s">
+        <v>97</v>
+      </c>
+      <c r="I15" s="77">
+        <v>60</v>
+      </c>
+      <c r="J15" s="77">
+        <v>18</v>
+      </c>
+      <c r="K15" s="77">
+        <f t="shared" ref="K15:K18" si="0">I15/5</f>
         <v>12</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="K6" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="K7" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="K8" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="6">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="K9" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="6">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
-        <v>13</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="K10" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="6">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-    </row>
-    <row r="12" spans="1:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:15" s="8" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="O15" s="48"/>
+      <c r="P15" s="51"/>
+    </row>
+    <row r="16" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="69"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="75" t="s">
-        <v>108</v>
-      </c>
-      <c r="I13" s="75" t="s">
-        <v>109</v>
-      </c>
-      <c r="J13" s="75" t="s">
-        <v>110</v>
-      </c>
-      <c r="K13" s="7"/>
-      <c r="L13" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="M13" s="10"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="7"/>
-    </row>
-    <row r="14" spans="1:15" s="8" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="70" t="s">
-        <v>89</v>
-      </c>
-      <c r="B14" s="70"/>
-      <c r="D14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="G14" s="72" t="s">
-        <v>113</v>
-      </c>
-      <c r="H14" s="76">
-        <v>20</v>
-      </c>
-      <c r="I14" s="77">
-        <v>6</v>
-      </c>
-      <c r="J14" s="77">
-        <f>H14/5</f>
-        <v>4</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="8" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="70"/>
-      <c r="B15" s="70"/>
-      <c r="D15" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="79" t="s">
-        <v>114</v>
-      </c>
-      <c r="H15" s="80">
+      <c r="F16" s="44"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="71" t="s">
+        <v>96</v>
+      </c>
+      <c r="I16" s="72">
         <v>60</v>
       </c>
-      <c r="I15" s="80">
+      <c r="J16" s="73">
         <v>18</v>
       </c>
-      <c r="J15" s="80">
-        <f t="shared" ref="J15:J18" si="0">H15/5</f>
-        <v>12</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="8" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="70"/>
-      <c r="B16" s="70"/>
-      <c r="D16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="G16" s="72" t="s">
-        <v>113</v>
-      </c>
-      <c r="H16" s="76">
-        <v>60</v>
-      </c>
-      <c r="I16" s="77">
-        <v>18</v>
-      </c>
-      <c r="J16" s="77">
+      <c r="K16" s="73">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="L16" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" s="8" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="70"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="O16" s="48"/>
+      <c r="P16" s="51"/>
+    </row>
+    <row r="17" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="69"/>
       <c r="B17" s="70"/>
-      <c r="D17" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="27"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="79" t="s">
-        <v>113</v>
-      </c>
-      <c r="H17" s="80">
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="74"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="76" t="s">
+        <v>96</v>
+      </c>
+      <c r="I17" s="77">
         <v>10</v>
       </c>
-      <c r="I17" s="80">
+      <c r="J17" s="77">
         <v>3</v>
       </c>
-      <c r="J17" s="80">
+      <c r="K17" s="77">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="L17" s="8" t="s">
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="O17" s="48"/>
+      <c r="P17" s="51"/>
+    </row>
+    <row r="18" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="50"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="44"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="71" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" s="8" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="G18" s="72" t="s">
-        <v>113</v>
-      </c>
-      <c r="H18" s="76">
+      <c r="I18" s="72">
         <v>10</v>
       </c>
-      <c r="I18" s="77">
+      <c r="J18" s="73">
         <v>3</v>
       </c>
-      <c r="J18" s="77">
+      <c r="K18" s="73">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="L18" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" s="8" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="D19" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="27"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="79" t="s">
-        <v>115</v>
-      </c>
-      <c r="H19" s="78" t="s">
-        <v>112</v>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="O18" s="48"/>
+      <c r="P18" s="51"/>
+    </row>
+    <row r="19" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="74"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="76" t="s">
+        <v>98</v>
       </c>
       <c r="I19" s="78" t="s">
-        <v>111</v>
-      </c>
-      <c r="J19" s="78"/>
-      <c r="L19" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" s="8" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="71">
+        <v>95</v>
+      </c>
+      <c r="J19" s="78" t="s">
+        <v>94</v>
+      </c>
+      <c r="K19" s="78"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="O19" s="48"/>
+      <c r="P19" s="51"/>
+    </row>
+    <row r="20" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="79">
         <v>0</v>
       </c>
-      <c r="L20" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-    </row>
-    <row r="21" spans="1:14" s="8" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="71">
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="80" t="s">
+        <v>149</v>
+      </c>
+      <c r="O20" s="80"/>
+      <c r="P20" s="81"/>
+    </row>
+    <row r="21" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="79">
         <v>500</v>
       </c>
-      <c r="D21" t="s">
-        <v>54</v>
-      </c>
-      <c r="M21" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="N21" s="72">
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="P21" s="83">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="79">
+        <v>0</v>
+      </c>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="P22" s="83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="79">
+        <v>0</v>
+      </c>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="64"/>
+    </row>
+    <row r="24" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="65"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="64"/>
+    </row>
+    <row r="25" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="65"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="64"/>
+    </row>
+    <row r="26" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="65"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="64"/>
+    </row>
+    <row r="27" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="44"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O27" s="6"/>
+      <c r="P27" s="60"/>
+    </row>
+    <row r="28" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="120"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="O28" s="45"/>
+      <c r="P28" s="64"/>
+    </row>
+    <row r="29" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="119"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="O29" s="45"/>
+      <c r="P29" s="64"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="119"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="45"/>
+      <c r="N30" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="O30" s="45"/>
+      <c r="P30" s="64"/>
+    </row>
+    <row r="31" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="119"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="45"/>
+      <c r="P31" s="64"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="65"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="64"/>
+    </row>
+    <row r="33" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="84" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="9">
+        <v>8</v>
+      </c>
+      <c r="E33" s="10">
+        <f>D33-1</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="71">
-        <v>0</v>
-      </c>
-      <c r="L22" s="8"/>
-      <c r="M22" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="N22" s="72">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="71">
-        <v>0</v>
-      </c>
-      <c r="M23" s="73"/>
-      <c r="N23" s="81"/>
-    </row>
-    <row r="24" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M24" s="73"/>
-      <c r="N24" s="73"/>
-    </row>
-    <row r="25" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="9"/>
-      <c r="L25" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-    </row>
-    <row r="26" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="74"/>
-      <c r="L26" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G27" s="74"/>
-      <c r="H27" s="74"/>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
-      <c r="L27" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="74"/>
-      <c r="J28" s="74"/>
-      <c r="L28" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32" s="22">
-        <v>8</v>
-      </c>
-      <c r="E32" s="23">
-        <f>D32-1</f>
-        <v>7</v>
-      </c>
-      <c r="F32" s="22">
-        <f t="shared" ref="F32:L32" si="1">E32-1</f>
+      <c r="F33" s="9">
+        <f t="shared" ref="F33:L33" si="1">E33-1</f>
         <v>6</v>
       </c>
-      <c r="G32" s="23">
+      <c r="G33" s="10">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="H32" s="22">
+      <c r="H33" s="9">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I32" s="23">
+      <c r="I33" s="10">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="J32" s="22">
+      <c r="J33" s="9">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K32" s="23">
+      <c r="K33" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L32" s="22">
+      <c r="L33" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M32" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="N32" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27" ht="18" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="24">
+      <c r="M33" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="N33" s="47"/>
+      <c r="O33" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P33" s="60"/>
+    </row>
+    <row r="34" spans="1:27" ht="18" x14ac:dyDescent="0.3">
+      <c r="A34" s="85" t="s">
+        <v>135</v>
+      </c>
+      <c r="B34" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="86">
+        <v>5</v>
+      </c>
+      <c r="D34" s="87">
+        <f>C34+1</f>
+        <v>6</v>
+      </c>
+      <c r="E34" s="86">
+        <f t="shared" ref="E34:L34" si="2">D34+1</f>
         <v>7</v>
       </c>
-      <c r="D33" s="4">
-        <f>C33+1</f>
+      <c r="F34" s="87">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="E33" s="24">
-        <f t="shared" ref="E33:L33" si="2">D33+1</f>
+      <c r="G34" s="86">
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="F33" s="4">
+      <c r="H34" s="87">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="G33" s="24">
+      <c r="I34" s="86">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="H33" s="4">
+      <c r="J34" s="87">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="I33" s="24">
+      <c r="K34" s="86">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="J33" s="4">
+      <c r="L34" s="87">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="K33" s="24">
+      <c r="M34" s="95" t="s">
+        <v>136</v>
+      </c>
+      <c r="N34" s="95"/>
+      <c r="O34" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="P34" s="64"/>
+    </row>
+    <row r="35" spans="1:27" ht="18" x14ac:dyDescent="0.3">
+      <c r="A35" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="86">
+        <v>6</v>
+      </c>
+      <c r="D35" s="87">
+        <f t="shared" ref="D35:L36" si="3">C35+1</f>
+        <v>7</v>
+      </c>
+      <c r="E35" s="86">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F35" s="87">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="G35" s="86">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="H35" s="87">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="I35" s="86">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="J35" s="87">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="K35" s="86">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="L35" s="87">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="M35" s="96" t="s">
+        <v>137</v>
+      </c>
+      <c r="N35" s="96"/>
+      <c r="O35" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="P35" s="64"/>
+    </row>
+    <row r="36" spans="1:27" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="88" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="89" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" s="90">
+        <v>7</v>
+      </c>
+      <c r="D36" s="91">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="E36" s="90">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="F36" s="91">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="G36" s="90">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="H36" s="91">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="I36" s="90">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="J36" s="91">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="K36" s="90">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="L36" s="91">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="M36" s="97" t="s">
+        <v>28</v>
+      </c>
+      <c r="N36" s="97"/>
+      <c r="O36" s="92" t="s">
+        <v>148</v>
+      </c>
+      <c r="P36" s="93"/>
+      <c r="AA36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="A14:B17"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="M8:O8"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{263CECC3-3302-44DA-8376-3DD3643BBD45}">
+  <dimension ref="A1:AA36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" style="2" customWidth="1"/>
+    <col min="3" max="12" width="4.77734375" style="2" customWidth="1"/>
+    <col min="13" max="14" width="4.6640625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="99" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="99"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="118" t="s">
+        <v>132</v>
+      </c>
+      <c r="H1" s="99"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="103" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="104" t="s">
+        <v>121</v>
+      </c>
+      <c r="O1" s="99"/>
+      <c r="P1" s="105"/>
+    </row>
+    <row r="2" spans="1:16" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="106" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="107" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="107"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="109" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110" t="s">
+        <v>130</v>
+      </c>
+      <c r="H2" s="110"/>
+      <c r="I2" s="117" t="s">
+        <v>131</v>
+      </c>
+      <c r="J2" s="108"/>
+      <c r="K2" s="111" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="107" t="s">
+        <v>72</v>
+      </c>
+      <c r="O2" s="107"/>
+      <c r="P2" s="113"/>
+    </row>
+    <row r="3" spans="1:16" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="50"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="51"/>
+    </row>
+    <row r="4" spans="1:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="53">
+        <v>2</v>
+      </c>
+      <c r="C4" s="54"/>
+      <c r="D4" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="54"/>
+      <c r="F4" s="56">
+        <v>20</v>
+      </c>
+      <c r="G4" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="L4" s="54"/>
+      <c r="M4" s="58">
+        <v>-1</v>
+      </c>
+      <c r="N4" s="54"/>
+      <c r="O4" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="115">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="60"/>
+    </row>
+    <row r="6" spans="1:16" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="94">
+        <v>12</v>
+      </c>
+      <c r="B6" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="56">
+        <v>0</v>
+      </c>
+      <c r="K6" s="56"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="63">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="94">
+        <v>6</v>
+      </c>
+      <c r="B7" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="61" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="56">
+        <v>-1</v>
+      </c>
+      <c r="K7" s="56"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="62"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="63">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="94">
+        <v>12</v>
+      </c>
+      <c r="B8" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="56">
+        <v>0</v>
+      </c>
+      <c r="K8" s="56"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="N8" s="62"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="63">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="94">
+        <v>7</v>
+      </c>
+      <c r="B9" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="56">
+        <v>-1</v>
+      </c>
+      <c r="K9" s="56"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="63">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="94">
+        <v>13</v>
+      </c>
+      <c r="B10" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="61" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="56">
+        <v>1</v>
+      </c>
+      <c r="K10" s="56"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="63">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="94">
+        <v>9</v>
+      </c>
+      <c r="B11" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="56">
+        <v>0</v>
+      </c>
+      <c r="K11" s="56"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="64"/>
+    </row>
+    <row r="12" spans="1:16" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="65"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="64"/>
+    </row>
+    <row r="13" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="67" t="s">
+        <v>91</v>
+      </c>
+      <c r="J13" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="K13" s="67" t="s">
+        <v>93</v>
+      </c>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="O13" s="5"/>
+      <c r="P13" s="68"/>
+    </row>
+    <row r="14" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="70"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="44"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="71" t="s">
+        <v>96</v>
+      </c>
+      <c r="I14" s="72">
+        <v>20</v>
+      </c>
+      <c r="J14" s="73">
+        <v>6</v>
+      </c>
+      <c r="K14" s="73">
+        <f>I14/5</f>
+        <v>4</v>
+      </c>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="O14" s="48"/>
+      <c r="P14" s="51"/>
+    </row>
+    <row r="15" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="69"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="74" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="74"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="76" t="s">
+        <v>97</v>
+      </c>
+      <c r="I15" s="77">
+        <v>60</v>
+      </c>
+      <c r="J15" s="77">
+        <v>18</v>
+      </c>
+      <c r="K15" s="77">
+        <f t="shared" ref="K15:K18" si="0">I15/5</f>
+        <v>12</v>
+      </c>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="O15" s="48"/>
+      <c r="P15" s="51"/>
+    </row>
+    <row r="16" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="69"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="44"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="71" t="s">
+        <v>96</v>
+      </c>
+      <c r="I16" s="72">
+        <v>60</v>
+      </c>
+      <c r="J16" s="73">
+        <v>18</v>
+      </c>
+      <c r="K16" s="73">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="O16" s="48"/>
+      <c r="P16" s="51"/>
+    </row>
+    <row r="17" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="69"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="74"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="76" t="s">
+        <v>96</v>
+      </c>
+      <c r="I17" s="77">
+        <v>10</v>
+      </c>
+      <c r="J17" s="77">
+        <v>3</v>
+      </c>
+      <c r="K17" s="77">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="O17" s="48"/>
+      <c r="P17" s="51"/>
+    </row>
+    <row r="18" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="50"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="44"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="71" t="s">
+        <v>96</v>
+      </c>
+      <c r="I18" s="72">
+        <v>10</v>
+      </c>
+      <c r="J18" s="73">
+        <v>3</v>
+      </c>
+      <c r="K18" s="73">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="O18" s="48"/>
+      <c r="P18" s="51"/>
+    </row>
+    <row r="19" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="74"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="76" t="s">
+        <v>98</v>
+      </c>
+      <c r="I19" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="J19" s="78" t="s">
+        <v>94</v>
+      </c>
+      <c r="K19" s="78"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="O19" s="48"/>
+      <c r="P19" s="51"/>
+    </row>
+    <row r="20" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="79">
+        <v>0</v>
+      </c>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="80" t="s">
+        <v>85</v>
+      </c>
+      <c r="O20" s="80"/>
+      <c r="P20" s="81"/>
+    </row>
+    <row r="21" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="79">
+        <v>500</v>
+      </c>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="P21" s="83">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="79">
+        <v>0</v>
+      </c>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="P22" s="83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="79">
+        <v>0</v>
+      </c>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="64"/>
+    </row>
+    <row r="24" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="65"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="64"/>
+    </row>
+    <row r="25" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="65"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="64"/>
+    </row>
+    <row r="26" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="65"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="64"/>
+    </row>
+    <row r="27" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="H27" s="6"/>
+      <c r="I27" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O27" s="6"/>
+      <c r="P27" s="60"/>
+    </row>
+    <row r="28" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="114" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="O28" s="45"/>
+      <c r="P28" s="64"/>
+    </row>
+    <row r="29" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="114" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="O29" s="45"/>
+      <c r="P29" s="64"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="114" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="45"/>
+      <c r="N30" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="O30" s="45"/>
+      <c r="P30" s="64"/>
+    </row>
+    <row r="31" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="114" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="O31" s="45"/>
+      <c r="P31" s="64"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="65"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="64"/>
+    </row>
+    <row r="33" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="84" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="9">
+        <v>8</v>
+      </c>
+      <c r="E33" s="10">
+        <f>D33-1</f>
+        <v>7</v>
+      </c>
+      <c r="F33" s="9">
+        <f t="shared" ref="F33:L33" si="1">E33-1</f>
+        <v>6</v>
+      </c>
+      <c r="G33" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H33" s="9">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I33" s="10">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J33" s="9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K33" s="10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L33" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="N33" s="47"/>
+      <c r="O33" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P33" s="60"/>
+    </row>
+    <row r="34" spans="1:27" ht="18" x14ac:dyDescent="0.3">
+      <c r="A34" s="85" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="86">
+        <v>8</v>
+      </c>
+      <c r="D34" s="87">
+        <f>C34+1</f>
+        <v>9</v>
+      </c>
+      <c r="E34" s="86">
+        <f t="shared" ref="E34:L34" si="2">D34+1</f>
+        <v>10</v>
+      </c>
+      <c r="F34" s="87">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="G34" s="86">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="H34" s="87">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="I34" s="86">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="J34" s="87">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="L33" s="4">
+      <c r="K34" s="86">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="M33" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="N33" s="1"/>
-    </row>
-    <row r="34" spans="1:27" ht="18" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="24">
+      <c r="L34" s="87">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="M34" s="95" t="s">
+        <v>28</v>
+      </c>
+      <c r="N34" s="95"/>
+      <c r="O34" s="45"/>
+      <c r="P34" s="64"/>
+    </row>
+    <row r="35" spans="1:27" ht="18" x14ac:dyDescent="0.3">
+      <c r="A35" s="85" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="73" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="86">
         <v>8</v>
       </c>
-      <c r="D34" s="4">
-        <f t="shared" ref="D34:L34" si="3">C34+1</f>
+      <c r="D35" s="87">
+        <f t="shared" ref="D35:L35" si="3">C35+1</f>
         <v>9</v>
       </c>
-      <c r="E34" s="24">
+      <c r="E35" s="86">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F35" s="87">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="G34" s="24">
+      <c r="G35" s="86">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H35" s="87">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="I34" s="24">
+      <c r="I35" s="86">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="J34" s="4">
+      <c r="J35" s="87">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="K34" s="24">
+      <c r="K35" s="86">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="L34" s="4">
+      <c r="L35" s="87">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="M34" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="N34" s="1"/>
-    </row>
-    <row r="35" spans="1:27" ht="18" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" s="24">
+      <c r="M35" s="96" t="s">
+        <v>110</v>
+      </c>
+      <c r="N35" s="96"/>
+      <c r="O35" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="P35" s="64"/>
+    </row>
+    <row r="36" spans="1:27" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" s="89" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="90">
         <v>9</v>
       </c>
-      <c r="D35" s="4">
-        <f t="shared" ref="D35:L35" si="4">C35+1</f>
+      <c r="D36" s="91">
+        <f t="shared" ref="D36:L36" si="4">C36+1</f>
         <v>10</v>
       </c>
-      <c r="E35" s="24">
+      <c r="E36" s="90">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F36" s="91">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="G35" s="24">
+      <c r="G36" s="90">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H36" s="91">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="I35" s="24">
+      <c r="I36" s="90">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="J35" s="4">
+      <c r="J36" s="91">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="K35" s="24">
+      <c r="K36" s="90">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="L35" s="4">
+      <c r="L36" s="91">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="M35" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="N35" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="M36" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="N36" s="97"/>
+      <c r="O36" s="92" t="s">
+        <v>109</v>
+      </c>
+      <c r="P36" s="93"/>
       <c r="AA36"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="17">
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M36:N36"/>
     <mergeCell ref="C11:I11"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M10:O10"/>
     <mergeCell ref="C6:I6"/>
     <mergeCell ref="C7:I7"/>
     <mergeCell ref="C8:I8"/>
     <mergeCell ref="C9:I9"/>
     <mergeCell ref="C10:I10"/>
     <mergeCell ref="A14:B17"/>
-    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="N20:P20"/>
   </mergeCells>
-  <phoneticPr fontId="21" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7F733B-4F29-4CC7-8875-78DA591CD6C7}">
   <dimension ref="A1:J76"/>
   <sheetViews>
@@ -2272,423 +4053,423 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="32" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="11" customWidth="1"/>
     <col min="3" max="6" width="10.6640625" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
     <col min="10" max="10" width="9.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="55" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
+      <c r="A1" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
     </row>
     <row r="2" spans="1:10" ht="4.2" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="57">
+      <c r="A3" s="33">
         <v>1</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="58">
+      <c r="A4" s="34">
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="59">
+      <c r="A5" s="35">
         <v>3</v>
       </c>
       <c r="B5"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="58">
+      <c r="A6" s="34">
         <v>4</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
     </row>
     <row r="7" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="59">
+      <c r="A7" s="35">
         <v>5</v>
       </c>
       <c r="B7"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="58">
+      <c r="A8" s="34">
         <v>6</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
     </row>
     <row r="9" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="59">
+      <c r="A9" s="35">
         <v>7</v>
       </c>
       <c r="B9"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="58">
+      <c r="A10" s="34">
         <v>8</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
     </row>
     <row r="11" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="59">
+      <c r="A11" s="35">
         <v>9</v>
       </c>
       <c r="B11"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="60">
+      <c r="A12" s="36">
         <v>10</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
     </row>
     <row r="13" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="61">
+      <c r="A13" s="37">
         <v>11</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
     </row>
     <row r="14" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="62">
+      <c r="A14" s="38">
         <v>12</v>
       </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="63">
+      <c r="A15" s="39">
         <v>13</v>
       </c>
       <c r="B15"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="58">
+      <c r="A16" s="34">
         <v>14</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
     </row>
     <row r="17" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="63">
+      <c r="A17" s="39">
         <v>15</v>
       </c>
       <c r="B17"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="58">
+      <c r="A18" s="34">
         <v>16</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
     </row>
     <row r="19" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="63">
+      <c r="A19" s="39">
         <v>17</v>
       </c>
       <c r="B19"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="58">
+      <c r="A20" s="34">
         <v>18</v>
       </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
     </row>
     <row r="21" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="63">
+      <c r="A21" s="39">
         <v>19</v>
       </c>
       <c r="B21"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="60">
+      <c r="A22" s="36">
         <v>20</v>
       </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
     </row>
     <row r="23" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="63">
+      <c r="A23" s="39">
         <v>21</v>
       </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
     </row>
     <row r="24" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62">
+      <c r="A24" s="38">
         <v>22</v>
       </c>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
     </row>
     <row r="25" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="63">
+      <c r="A25" s="39">
         <v>23</v>
       </c>
       <c r="B25"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="58">
+      <c r="A26" s="34">
         <v>24</v>
       </c>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
     </row>
     <row r="27" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="63">
+      <c r="A27" s="39">
         <v>25</v>
       </c>
       <c r="B27"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="58">
+      <c r="A28" s="34">
         <v>26</v>
       </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
     </row>
     <row r="29" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="63">
+      <c r="A29" s="39">
         <v>27</v>
       </c>
       <c r="B29"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
     </row>
     <row r="30" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="58">
+      <c r="A30" s="34">
         <v>28</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
     </row>
     <row r="31" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="64">
+      <c r="A31" s="40">
         <v>29</v>
       </c>
-      <c r="B31" s="52"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="52"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
     </row>
     <row r="32" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="H33" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="I33" s="51" t="s">
+      <c r="A33" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="J33" s="51" t="s">
-        <v>65</v>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H33" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="I33" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="J33" s="27" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>0</v>
       </c>
-      <c r="B34" s="65" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34" s="66"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="67" t="s">
-        <v>84</v>
+      <c r="B34" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="42"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="43" t="s">
+        <v>70</v>
       </c>
       <c r="H34" s="1">
         <v>14</v>
@@ -2697,22 +4478,22 @@
         <v>4</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>1</v>
       </c>
-      <c r="B35" s="65" t="s">
-        <v>81</v>
-      </c>
-      <c r="C35" s="66"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="49" t="s">
-        <v>66</v>
+      <c r="B35" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="42"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="25" t="s">
+        <v>52</v>
       </c>
       <c r="H35" s="1">
         <v>18</v>
@@ -2721,22 +4502,22 @@
         <v>5</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>2</v>
       </c>
-      <c r="B36" s="65" t="s">
-        <v>82</v>
-      </c>
-      <c r="C36" s="66"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="49" t="s">
-        <v>67</v>
+      <c r="B36" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="42"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="25" t="s">
+        <v>53</v>
       </c>
       <c r="H36" s="1">
         <v>20</v>
@@ -2745,22 +4526,22 @@
         <v>6</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>3</v>
       </c>
-      <c r="B37" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="C37" s="66"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="49" t="s">
-        <v>68</v>
+      <c r="B37" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="42"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="25" t="s">
+        <v>54</v>
       </c>
       <c r="H37" s="1">
         <v>22</v>
@@ -2769,22 +4550,22 @@
         <v>7</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B38" s="65" t="s">
-        <v>100</v>
-      </c>
-      <c r="C38" s="66"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="49" t="s">
-        <v>69</v>
+        <v>63</v>
+      </c>
+      <c r="B38" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="42"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="25" t="s">
+        <v>55</v>
       </c>
       <c r="H38" s="1">
         <v>24</v>
@@ -2793,18 +4574,18 @@
         <v>8</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="3"/>
+      <c r="A39" s="2"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="49" t="s">
-        <v>70</v>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="25" t="s">
+        <v>56</v>
       </c>
       <c r="H39" s="1">
         <v>26</v>
@@ -2813,7 +4594,7 @@
         <v>9</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Strumenti/Schede_DnD_BX91.xlsx
+++ b/Strumenti/Schede_DnD_BX91.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Public\_Clienti\Maruga\Giochi\Vampiri\Vault\Vampiri\Strumenti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5217A6D9-5C94-4D62-885A-B5AA8A96D60E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32723F3-4F33-48C4-9129-96958424EB97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24504" yWindow="0" windowWidth="17868" windowHeight="16656" xr2:uid="{FC328CB3-F1C2-4520-956D-C4D288DB9EEB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Elfo A" sheetId="7" r:id="rId1"/>
-    <sheet name="Nano A" sheetId="6" r:id="rId2"/>
-    <sheet name="Ladro A" sheetId="5" r:id="rId3"/>
-    <sheet name="Magic A" sheetId="4" r:id="rId4"/>
-    <sheet name="Fighter A" sheetId="3" r:id="rId5"/>
-    <sheet name="Cleric A" sheetId="1" r:id="rId6"/>
-    <sheet name="Oggetti" sheetId="2" r:id="rId7"/>
+    <sheet name="Halfling A" sheetId="8" r:id="rId1"/>
+    <sheet name="Elfo A" sheetId="7" r:id="rId2"/>
+    <sheet name="Nano A" sheetId="6" r:id="rId3"/>
+    <sheet name="Ladro A" sheetId="5" r:id="rId4"/>
+    <sheet name="Magic A" sheetId="4" r:id="rId5"/>
+    <sheet name="Fighter A" sheetId="3" r:id="rId6"/>
+    <sheet name="Cleric A" sheetId="1" r:id="rId7"/>
+    <sheet name="Oggetti" sheetId="2" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="241">
   <si>
     <t>Giocatore</t>
   </si>
@@ -711,6 +712,60 @@
   </si>
   <si>
     <t>Immagine Speculare 1d4 6T, Scassinare 60'</t>
+  </si>
+  <si>
+    <t>2/Cotta di maglia</t>
+  </si>
+  <si>
+    <t>Guerriero Arcano Versatile</t>
+  </si>
+  <si>
+    <t>2/6 ascoltare attr. Porte</t>
+  </si>
+  <si>
+    <t>18mi</t>
+  </si>
+  <si>
+    <t>29km</t>
+  </si>
+  <si>
+    <t>Azzeil Summerhill</t>
+  </si>
+  <si>
+    <t>Halfling</t>
+  </si>
+  <si>
+    <t>1/Spada Corta</t>
+  </si>
+  <si>
+    <t>1/Sacchetto Pietre</t>
+  </si>
+  <si>
+    <t>Spada Corta</t>
+  </si>
+  <si>
+    <t>1d6+1</t>
+  </si>
+  <si>
+    <t>12 pietre</t>
+  </si>
+  <si>
+    <t>All'aperto (boschi/sottobosco): 90% di non essere individuato</t>
+  </si>
+  <si>
+    <t>In dungeon (ombre, fermo e silenzioso): 1-2 su 1d6 di non essere visto</t>
+  </si>
+  <si>
+    <t>Halfling vs Nemici Grandi: +2 CA contro creature più grandi di un umano</t>
+  </si>
+  <si>
+    <t>2/6 Ascoltare rumori</t>
+  </si>
+  <si>
+    <t>21km</t>
+  </si>
+  <si>
+    <t>Common, Uomini Lucertola</t>
   </si>
 </sst>
 </file>
@@ -2164,11 +2219,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF42BED5-6492-4A4B-BB83-28F0C7345C12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C9E096D-79DA-41F6-8B7D-BDB9F86329A6}">
   <dimension ref="A1:AA36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2186,14 +2241,14 @@
         <v>0</v>
       </c>
       <c r="B1" s="82" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="C1" s="82"/>
       <c r="D1" s="83"/>
       <c r="E1" s="99"/>
       <c r="F1" s="84"/>
       <c r="G1" s="101" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="H1" s="82"/>
       <c r="I1" s="84"/>
@@ -2204,7 +2259,7 @@
       <c r="L1" s="83"/>
       <c r="M1" s="83"/>
       <c r="N1" s="87" t="s">
-        <v>215</v>
+        <v>121</v>
       </c>
       <c r="O1" s="82"/>
       <c r="P1" s="88"/>
@@ -2214,7 +2269,7 @@
         <v>120</v>
       </c>
       <c r="B2" s="90" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="C2" s="90"/>
       <c r="D2" s="91"/>
@@ -2223,7 +2278,7 @@
       </c>
       <c r="F2" s="93"/>
       <c r="G2" s="93" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="H2" s="93"/>
       <c r="I2" s="100" t="s">
@@ -2262,7 +2317,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="48" t="s">
@@ -2270,10 +2325,10 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="49">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G4" s="102" t="s">
-        <v>139</v>
+        <v>88</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -2283,14 +2338,14 @@
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="48" t="s">
         <v>9</v>
       </c>
       <c r="P4" s="98">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2310,13 +2365,13 @@
     </row>
     <row r="6" spans="1:16" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="80">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="50" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="109" t="s">
-        <v>144</v>
+        <v>201</v>
       </c>
       <c r="D6" s="109"/>
       <c r="E6" s="109"/>
@@ -2325,7 +2380,7 @@
       <c r="H6" s="109"/>
       <c r="I6" s="109"/>
       <c r="J6" s="49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K6" s="49"/>
       <c r="M6" s="110" t="s">
@@ -2334,18 +2389,18 @@
       <c r="N6" s="110"/>
       <c r="O6" s="110"/>
       <c r="P6" s="54">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="80">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" s="50" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="109" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="D7" s="109"/>
       <c r="E7" s="109"/>
@@ -2354,7 +2409,7 @@
       <c r="H7" s="109"/>
       <c r="I7" s="109"/>
       <c r="J7" s="49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="49"/>
       <c r="M7" s="110" t="s">
@@ -2363,18 +2418,18 @@
       <c r="N7" s="110"/>
       <c r="O7" s="110"/>
       <c r="P7" s="54">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="80">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B8" s="50" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="109" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
       <c r="D8" s="109"/>
       <c r="E8" s="109"/>
@@ -2383,7 +2438,7 @@
       <c r="H8" s="109"/>
       <c r="I8" s="109"/>
       <c r="J8" s="49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="49"/>
       <c r="M8" s="110" t="s">
@@ -2392,12 +2447,12 @@
       <c r="N8" s="110"/>
       <c r="O8" s="110"/>
       <c r="P8" s="54">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="80">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B9" s="50" t="s">
         <v>5</v>
@@ -2412,7 +2467,7 @@
       <c r="H9" s="109"/>
       <c r="I9" s="109"/>
       <c r="J9" s="49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K9" s="49"/>
       <c r="M9" s="110" t="s">
@@ -2421,12 +2476,12 @@
       <c r="N9" s="110"/>
       <c r="O9" s="110"/>
       <c r="P9" s="54">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="80">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" s="50" t="s">
         <v>6</v>
@@ -2450,12 +2505,12 @@
       <c r="N10" s="110"/>
       <c r="O10" s="110"/>
       <c r="P10" s="54">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="80">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="50" t="s">
         <v>7</v>
@@ -2508,7 +2563,7 @@
     </row>
     <row r="14" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="111" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="B14" s="112"/>
       <c r="E14" s="41" t="s">
@@ -2530,7 +2585,7 @@
         <v>4</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>166</v>
+        <v>223</v>
       </c>
       <c r="P14" s="45"/>
     </row>
@@ -2585,7 +2640,7 @@
         <v>12</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>83</v>
+        <v>231</v>
       </c>
       <c r="P16" s="45"/>
     </row>
@@ -2613,7 +2668,7 @@
         <v>2</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>168</v>
+        <v>83</v>
       </c>
       <c r="P17" s="45"/>
     </row>
@@ -2638,6 +2693,9 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
+      <c r="N18" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="P18" s="45"/>
     </row>
     <row r="19" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2654,12 +2712,15 @@
         <v>98</v>
       </c>
       <c r="I19" s="66" t="s">
-        <v>165</v>
+        <v>226</v>
       </c>
       <c r="J19" s="66" t="s">
-        <v>164</v>
+        <v>239</v>
       </c>
       <c r="K19" s="66"/>
+      <c r="N19" s="3" t="s">
+        <v>230</v>
+      </c>
       <c r="P19" s="45"/>
     </row>
     <row r="20" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2669,7 +2730,9 @@
       <c r="B20" s="67">
         <v>0</v>
       </c>
-      <c r="N20" s="103"/>
+      <c r="N20" s="103" t="s">
+        <v>211</v>
+      </c>
       <c r="O20" s="103"/>
       <c r="P20" s="104"/>
     </row>
@@ -2687,7 +2750,7 @@
         <v>48</v>
       </c>
       <c r="P21" s="69">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2732,36 +2795,28 @@
       <c r="P24" s="55"/>
     </row>
     <row r="25" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="56"/>
+      <c r="A25" s="121"/>
+      <c r="C25" s="123"/>
       <c r="E25" s="2" t="s">
         <v>123</v>
       </c>
       <c r="P25" s="55"/>
     </row>
     <row r="26" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="56"/>
+      <c r="A26" s="122"/>
+      <c r="C26" s="123"/>
+      <c r="E26" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="P26" s="55"/>
     </row>
     <row r="27" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="43" t="s">
-        <v>126</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="H27" s="6"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
+      <c r="A27" s="118"/>
+      <c r="B27" s="114"/>
+      <c r="C27" s="123"/>
+      <c r="E27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="I27" s="61"/>
       <c r="N27" s="4" t="s">
         <v>29</v>
       </c>
@@ -2769,46 +2824,42 @@
       <c r="P27" s="53"/>
     </row>
     <row r="28" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="97" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>221</v>
-      </c>
+      <c r="A28" s="120" t="s">
+        <v>237</v>
+      </c>
+      <c r="B28" s="117"/>
+      <c r="C28" s="123"/>
       <c r="N28" s="2" t="s">
-        <v>217</v>
+        <v>77</v>
       </c>
       <c r="P28" s="55"/>
     </row>
     <row r="29" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="97" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>222</v>
-      </c>
+      <c r="A29" s="120" t="s">
+        <v>235</v>
+      </c>
+      <c r="B29" s="117"/>
+      <c r="C29" s="123"/>
       <c r="N29" s="2" t="s">
-        <v>32</v>
+        <v>238</v>
       </c>
       <c r="P29" s="55"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="97" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>220</v>
-      </c>
+      <c r="A30" s="120" t="s">
+        <v>236</v>
+      </c>
+      <c r="B30" s="117"/>
+      <c r="C30" s="123"/>
       <c r="N30" s="2" t="s">
         <v>78</v>
       </c>
       <c r="P30" s="55"/>
     </row>
     <row r="31" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="119"/>
-      <c r="N31" s="2" t="s">
-        <v>218</v>
-      </c>
+      <c r="A31" s="118"/>
+      <c r="B31" s="117"/>
+      <c r="C31" s="123"/>
       <c r="P31" s="55"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
@@ -2871,52 +2922,52 @@
     </row>
     <row r="34" spans="1:27" ht="18" x14ac:dyDescent="0.3">
       <c r="A34" s="71" t="s">
-        <v>180</v>
+        <v>232</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C34" s="72">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D34" s="73">
         <f>C34+1</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E34" s="72">
         <f t="shared" ref="E34:L34" si="2">D34+1</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F34" s="73">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G34" s="72">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H34" s="73">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I34" s="72">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J34" s="73">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K34" s="72">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L34" s="73">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M34" s="106" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="N34" s="106"/>
       <c r="P34" s="55"/>
@@ -2929,102 +2980,106 @@
         <v>23</v>
       </c>
       <c r="C35" s="72">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D35" s="73">
         <f t="shared" ref="D35:L36" si="3">C35+1</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E35" s="72">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F35" s="73">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G35" s="72">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H35" s="73">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I35" s="72">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J35" s="73">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K35" s="72">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L35" s="73">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M35" s="107" t="s">
-        <v>137</v>
+        <v>208</v>
       </c>
       <c r="N35" s="107"/>
-      <c r="O35" s="3"/>
+      <c r="O35" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="P35" s="55"/>
     </row>
     <row r="36" spans="1:27" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="74" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="B36" s="75" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="C36" s="76">
+        <v>6</v>
+      </c>
+      <c r="D36" s="77">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="E36" s="76">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="D36" s="77">
+      <c r="F36" s="77">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="E36" s="76">
+      <c r="G36" s="76">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="F36" s="77">
+      <c r="H36" s="77">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="G36" s="76">
+      <c r="I36" s="76">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="H36" s="77">
+      <c r="J36" s="77">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="I36" s="76">
+      <c r="K36" s="76">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="J36" s="77">
+      <c r="L36" s="77">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="K36" s="76">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="L36" s="77">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
       <c r="M36" s="108" t="s">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="N36" s="108"/>
-      <c r="O36" s="78"/>
+      <c r="O36" s="78" t="s">
+        <v>234</v>
+      </c>
       <c r="P36" s="79"/>
       <c r="AA36"/>
     </row>
@@ -3054,11 +3109,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06982626-440A-421A-816A-4B07BD0E71A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF42BED5-6492-4A4B-BB83-28F0C7345C12}">
   <dimension ref="A1:AA36"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView topLeftCell="A9" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3076,14 +3131,14 @@
         <v>0</v>
       </c>
       <c r="B1" s="82" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C1" s="82"/>
       <c r="D1" s="83"/>
       <c r="E1" s="99"/>
       <c r="F1" s="84"/>
       <c r="G1" s="101" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="H1" s="82"/>
       <c r="I1" s="84"/>
@@ -3094,7 +3149,7 @@
       <c r="L1" s="83"/>
       <c r="M1" s="83"/>
       <c r="N1" s="87" t="s">
-        <v>121</v>
+        <v>215</v>
       </c>
       <c r="O1" s="82"/>
       <c r="P1" s="88"/>
@@ -3104,27 +3159,27 @@
         <v>120</v>
       </c>
       <c r="B2" s="90" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="C2" s="90"/>
-      <c r="D2" s="124"/>
+      <c r="D2" s="91"/>
       <c r="E2" s="92" t="s">
         <v>33</v>
       </c>
       <c r="F2" s="93"/>
       <c r="G2" s="93" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="H2" s="93"/>
       <c r="I2" s="100" t="s">
         <v>158</v>
       </c>
-      <c r="J2" s="124"/>
-      <c r="K2" s="125" t="s">
+      <c r="J2" s="91"/>
+      <c r="K2" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
       <c r="N2" s="90" t="s">
         <v>72</v>
       </c>
@@ -3133,56 +3188,54 @@
     </row>
     <row r="3" spans="1:16" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="44"/>
-      <c r="B3" s="127"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="127"/>
-      <c r="O3" s="127"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
       <c r="P3" s="45"/>
     </row>
     <row r="4" spans="1:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="129">
-        <v>2</v>
-      </c>
-      <c r="C4" s="130"/>
-      <c r="D4" s="131" t="s">
+      <c r="B4" s="47">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="130"/>
-      <c r="F4" s="132">
-        <v>22</v>
-      </c>
-      <c r="G4" s="133" t="s">
-        <v>200</v>
-      </c>
-      <c r="H4" s="130"/>
-      <c r="I4" s="130"/>
-      <c r="J4" s="130"/>
-      <c r="K4" s="134" t="s">
+      <c r="E4" s="1"/>
+      <c r="F4" s="49">
+        <v>24</v>
+      </c>
+      <c r="G4" s="102" t="s">
+        <v>139</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="L4" s="130"/>
-      <c r="M4" s="135">
+      <c r="L4" s="1"/>
+      <c r="M4" s="51">
         <v>0</v>
       </c>
-      <c r="N4" s="130"/>
-      <c r="O4" s="131" t="s">
+      <c r="N4" s="1"/>
+      <c r="O4" s="48" t="s">
         <v>9</v>
       </c>
       <c r="P4" s="98">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3190,18 +3243,9 @@
         <v>29</v>
       </c>
       <c r="B5" s="7"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="128"/>
-      <c r="G5" s="128"/>
-      <c r="H5" s="128"/>
-      <c r="I5" s="128"/>
-      <c r="J5" s="128" t="s">
+      <c r="J5" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="K5" s="128"/>
-      <c r="L5" s="128"/>
       <c r="M5" s="7" t="s">
         <v>10</v>
       </c>
@@ -3211,196 +3255,173 @@
     </row>
     <row r="6" spans="1:16" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="80">
-        <v>13</v>
-      </c>
-      <c r="B6" s="134" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="136" t="s">
-        <v>201</v>
-      </c>
-      <c r="D6" s="136"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136"/>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
-      <c r="I6" s="136"/>
-      <c r="J6" s="132">
-        <v>1</v>
-      </c>
-      <c r="K6" s="132"/>
-      <c r="L6" s="128"/>
-      <c r="M6" s="137" t="s">
+      <c r="C6" s="109" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="49">
+        <v>2</v>
+      </c>
+      <c r="K6" s="49"/>
+      <c r="M6" s="110" t="s">
         <v>73</v>
       </c>
-      <c r="N6" s="137"/>
-      <c r="O6" s="137"/>
+      <c r="N6" s="110"/>
+      <c r="O6" s="110"/>
       <c r="P6" s="54">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="80">
-        <v>10</v>
-      </c>
-      <c r="B7" s="134" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="136" t="s">
+      <c r="C7" s="109" t="s">
         <v>113</v>
       </c>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
-      <c r="H7" s="136"/>
-      <c r="I7" s="136"/>
-      <c r="J7" s="132">
+      <c r="D7" s="109"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="49">
         <v>0</v>
       </c>
-      <c r="K7" s="132"/>
-      <c r="L7" s="128"/>
-      <c r="M7" s="137" t="s">
+      <c r="K7" s="49"/>
+      <c r="M7" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="137"/>
-      <c r="O7" s="137"/>
+      <c r="N7" s="110"/>
+      <c r="O7" s="110"/>
       <c r="P7" s="54">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="80">
-        <v>16</v>
-      </c>
-      <c r="B8" s="134" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="136" t="s">
+      <c r="C8" s="109" t="s">
         <v>161</v>
       </c>
-      <c r="D8" s="136"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="136"/>
-      <c r="G8" s="136"/>
-      <c r="H8" s="136"/>
-      <c r="I8" s="136"/>
-      <c r="J8" s="132">
-        <v>2</v>
-      </c>
-      <c r="K8" s="132"/>
-      <c r="L8" s="128"/>
-      <c r="M8" s="137" t="s">
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="49">
+        <v>1</v>
+      </c>
+      <c r="K8" s="49"/>
+      <c r="M8" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="137"/>
-      <c r="O8" s="137"/>
+      <c r="N8" s="110"/>
+      <c r="O8" s="110"/>
       <c r="P8" s="54">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="80">
-        <v>10</v>
-      </c>
-      <c r="B9" s="134" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="136" t="s">
-        <v>202</v>
-      </c>
-      <c r="D9" s="136"/>
-      <c r="E9" s="136"/>
-      <c r="F9" s="136"/>
-      <c r="G9" s="136"/>
-      <c r="H9" s="136"/>
-      <c r="I9" s="136"/>
-      <c r="J9" s="132">
-        <v>0</v>
-      </c>
-      <c r="K9" s="132"/>
-      <c r="L9" s="128"/>
-      <c r="M9" s="137" t="s">
+      <c r="C9" s="109" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" s="109"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="109"/>
+      <c r="J9" s="49">
+        <v>2</v>
+      </c>
+      <c r="K9" s="49"/>
+      <c r="M9" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="N9" s="137"/>
-      <c r="O9" s="137"/>
+      <c r="N9" s="110"/>
+      <c r="O9" s="110"/>
       <c r="P9" s="54">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="80">
+        <v>11</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="109" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="49">
+        <v>0</v>
+      </c>
+      <c r="K10" s="49"/>
+      <c r="M10" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="134" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="136" t="s">
-        <v>203</v>
-      </c>
-      <c r="D10" s="136"/>
-      <c r="E10" s="136"/>
-      <c r="F10" s="136"/>
-      <c r="G10" s="136"/>
-      <c r="H10" s="136"/>
-      <c r="I10" s="136"/>
-      <c r="J10" s="132">
-        <v>1</v>
-      </c>
-      <c r="K10" s="132"/>
-      <c r="L10" s="128"/>
-      <c r="M10" s="137" t="s">
-        <v>13</v>
-      </c>
-      <c r="N10" s="137"/>
-      <c r="O10" s="137"/>
+      <c r="N10" s="110"/>
+      <c r="O10" s="110"/>
       <c r="P10" s="54">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="80">
-        <v>11</v>
-      </c>
-      <c r="B11" s="134" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="136" t="s">
+      <c r="C11" s="109" t="s">
         <v>116</v>
       </c>
-      <c r="D11" s="136"/>
-      <c r="E11" s="136"/>
-      <c r="F11" s="136"/>
-      <c r="G11" s="136"/>
-      <c r="H11" s="136"/>
-      <c r="I11" s="136"/>
-      <c r="J11" s="132">
+      <c r="D11" s="109"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="49">
         <v>0</v>
       </c>
-      <c r="K11" s="132"/>
-      <c r="L11" s="128"/>
-      <c r="M11" s="128"/>
-      <c r="N11" s="128"/>
-      <c r="O11" s="128"/>
+      <c r="K11" s="49"/>
       <c r="P11" s="55"/>
     </row>
     <row r="12" spans="1:16" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="56"/>
-      <c r="B12" s="128"/>
-      <c r="C12" s="128"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
-      <c r="F12" s="128"/>
-      <c r="G12" s="128"/>
-      <c r="H12" s="128"/>
-      <c r="I12" s="128"/>
-      <c r="J12" s="128"/>
-      <c r="K12" s="128"/>
-      <c r="L12" s="128"/>
-      <c r="M12" s="128"/>
-      <c r="N12" s="128"/>
-      <c r="O12" s="128"/>
       <c r="P12" s="55"/>
     </row>
     <row r="13" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3408,25 +3429,22 @@
         <v>16</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="138"/>
-      <c r="D13" s="127"/>
+      <c r="C13" s="41"/>
       <c r="E13" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="138"/>
-      <c r="I13" s="139" t="s">
+      <c r="H13" s="41"/>
+      <c r="I13" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="J13" s="139" t="s">
+      <c r="J13" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="139" t="s">
+      <c r="K13" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="L13" s="127"/>
-      <c r="M13" s="127"/>
       <c r="N13" s="4" t="s">
         <v>79</v>
       </c>
@@ -3435,164 +3453,139 @@
     </row>
     <row r="14" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="111" t="s">
-        <v>204</v>
-      </c>
-      <c r="B14" s="140"/>
-      <c r="C14" s="127"/>
-      <c r="D14" s="127"/>
-      <c r="E14" s="138" t="s">
+        <v>216</v>
+      </c>
+      <c r="B14" s="112"/>
+      <c r="E14" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="138"/>
-      <c r="G14" s="127"/>
-      <c r="H14" s="141" t="s">
+      <c r="F14" s="41"/>
+      <c r="H14" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="I14" s="142">
-        <v>20</v>
-      </c>
-      <c r="J14" s="130">
+      <c r="I14" s="61">
+        <v>30</v>
+      </c>
+      <c r="J14" s="1">
         <f>K14*1.5</f>
+        <v>9</v>
+      </c>
+      <c r="K14" s="1">
+        <f>I14/5</f>
         <v>6</v>
       </c>
-      <c r="K14" s="130">
-        <f>I14/5</f>
-        <v>4</v>
-      </c>
-      <c r="L14" s="127"/>
-      <c r="M14" s="127"/>
-      <c r="N14" s="127" t="s">
-        <v>80</v>
-      </c>
-      <c r="O14" s="127"/>
+      <c r="N14" s="3" t="s">
+        <v>223</v>
+      </c>
       <c r="P14" s="45"/>
     </row>
     <row r="15" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="111"/>
-      <c r="B15" s="140"/>
-      <c r="C15" s="127"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="143" t="s">
+      <c r="B15" s="112"/>
+      <c r="E15" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="143"/>
-      <c r="G15" s="144"/>
-      <c r="H15" s="145" t="s">
+      <c r="F15" s="62"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="I15" s="146">
-        <v>60</v>
-      </c>
-      <c r="J15" s="146">
+      <c r="I15" s="65">
+        <f>I14*3</f>
+        <v>90</v>
+      </c>
+      <c r="J15" s="65">
         <f>K15*1.5</f>
+        <v>27</v>
+      </c>
+      <c r="K15" s="65">
+        <f t="shared" ref="K15:K18" si="0">I15/5</f>
         <v>18</v>
       </c>
-      <c r="K15" s="146">
-        <f t="shared" ref="K15:K18" si="0">I15/5</f>
-        <v>12</v>
-      </c>
-      <c r="L15" s="127"/>
-      <c r="M15" s="127"/>
-      <c r="N15" s="127" t="s">
+      <c r="N15" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="O15" s="127"/>
       <c r="P15" s="45"/>
     </row>
     <row r="16" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="111"/>
-      <c r="B16" s="140"/>
-      <c r="C16" s="127"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="138" t="s">
+      <c r="B16" s="112"/>
+      <c r="E16" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="138"/>
-      <c r="G16" s="127"/>
-      <c r="H16" s="141" t="s">
+      <c r="F16" s="41"/>
+      <c r="H16" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="I16" s="142">
-        <v>60</v>
-      </c>
-      <c r="J16" s="130">
+      <c r="I16" s="61">
+        <f>I14*3</f>
+        <v>90</v>
+      </c>
+      <c r="J16" s="1">
         <f>K16*1.5</f>
+        <v>27</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="K16" s="130">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="L16" s="127"/>
-      <c r="M16" s="127"/>
-      <c r="N16" s="127" t="s">
-        <v>184</v>
-      </c>
-      <c r="O16" s="127"/>
+      <c r="N16" s="3" t="s">
+        <v>186</v>
+      </c>
       <c r="P16" s="45"/>
     </row>
     <row r="17" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="111"/>
-      <c r="B17" s="140"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="143" t="s">
+      <c r="B17" s="112"/>
+      <c r="E17" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="143"/>
-      <c r="G17" s="144"/>
-      <c r="H17" s="145" t="s">
+      <c r="F17" s="62"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="I17" s="146">
-        <v>10</v>
-      </c>
-      <c r="J17" s="146">
+      <c r="I17" s="65">
+        <f>I14/2</f>
+        <v>15</v>
+      </c>
+      <c r="J17" s="65">
         <f>K17*1.5</f>
+        <v>4.5</v>
+      </c>
+      <c r="K17" s="65">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="K17" s="146">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="L17" s="127"/>
-      <c r="M17" s="127"/>
-      <c r="N17" s="127" t="s">
-        <v>83</v>
-      </c>
-      <c r="O17" s="127"/>
+      <c r="N17" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="P17" s="45"/>
     </row>
     <row r="18" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="44"/>
-      <c r="B18" s="127"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="138" t="s">
+      <c r="E18" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="138"/>
-      <c r="G18" s="127"/>
-      <c r="H18" s="141" t="s">
+      <c r="F18" s="41"/>
+      <c r="H18" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="I18" s="142">
-        <v>10</v>
-      </c>
-      <c r="J18" s="130">
+      <c r="I18" s="61">
+        <f>I14/2</f>
+        <v>15</v>
+      </c>
+      <c r="J18" s="1">
         <f>K18*1.5</f>
+        <v>4.5</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="K18" s="130">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="L18" s="127"/>
-      <c r="M18" s="127"/>
-      <c r="N18" s="127" t="s">
-        <v>210</v>
-      </c>
-      <c r="O18" s="127"/>
+      <c r="N18" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="P18" s="45"/>
     </row>
     <row r="19" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3600,29 +3593,24 @@
         <v>87</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="127"/>
-      <c r="D19" s="127"/>
-      <c r="E19" s="143" t="s">
+      <c r="E19" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="143"/>
-      <c r="G19" s="144"/>
-      <c r="H19" s="145" t="s">
+      <c r="F19" s="62"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="I19" s="147" t="s">
-        <v>95</v>
-      </c>
-      <c r="J19" s="147" t="s">
-        <v>94</v>
-      </c>
-      <c r="K19" s="147"/>
-      <c r="L19" s="127"/>
-      <c r="M19" s="127"/>
-      <c r="N19" s="127" t="s">
-        <v>211</v>
-      </c>
-      <c r="O19" s="127"/>
+      <c r="I19" s="66" t="s">
+        <v>226</v>
+      </c>
+      <c r="J19" s="66" t="s">
+        <v>227</v>
+      </c>
+      <c r="K19" s="66"/>
+      <c r="N19" s="3" t="s">
+        <v>168</v>
+      </c>
       <c r="P19" s="45"/>
     </row>
     <row r="20" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3632,21 +3620,10 @@
       <c r="B20" s="67">
         <v>0</v>
       </c>
-      <c r="C20" s="127"/>
-      <c r="D20" s="127"/>
-      <c r="E20" s="127"/>
-      <c r="F20" s="127"/>
-      <c r="G20" s="127"/>
-      <c r="H20" s="127"/>
-      <c r="I20" s="127"/>
-      <c r="J20" s="127"/>
-      <c r="K20" s="127"/>
-      <c r="L20" s="127"/>
-      <c r="M20" s="127"/>
-      <c r="N20" s="148" t="s">
+      <c r="N20" s="103" t="s">
         <v>149</v>
       </c>
-      <c r="O20" s="148"/>
+      <c r="O20" s="103"/>
       <c r="P20" s="104"/>
     </row>
     <row r="21" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3656,26 +3633,13 @@
       <c r="B21" s="67">
         <v>500</v>
       </c>
-      <c r="C21" s="127"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="149" t="s">
+      <c r="E21" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="127"/>
-      <c r="G21" s="127"/>
-      <c r="H21" s="127"/>
-      <c r="I21" s="127"/>
-      <c r="J21" s="127"/>
-      <c r="K21" s="127"/>
-      <c r="L21" s="127"/>
-      <c r="M21" s="127"/>
-      <c r="N21" s="127"/>
-      <c r="O21" s="150" t="s">
-        <v>48</v>
-      </c>
-      <c r="P21" s="69">
-        <v>11</v>
-      </c>
+      <c r="N21" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="P21" s="69"/>
     </row>
     <row r="22" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="56" t="s">
@@ -3684,25 +3648,15 @@
       <c r="B22" s="67">
         <v>0</v>
       </c>
-      <c r="C22" s="128"/>
-      <c r="D22" s="128"/>
-      <c r="E22" s="128" t="s">
+      <c r="E22" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F22" s="128"/>
-      <c r="G22" s="128"/>
-      <c r="H22" s="128"/>
-      <c r="I22" s="128"/>
-      <c r="J22" s="128"/>
-      <c r="K22" s="128"/>
-      <c r="L22" s="128"/>
-      <c r="M22" s="128"/>
-      <c r="N22" s="127"/>
-      <c r="O22" s="150" t="s">
-        <v>41</v>
+      <c r="N22" s="3"/>
+      <c r="O22" s="68" t="s">
+        <v>48</v>
       </c>
       <c r="P22" s="69">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3712,101 +3666,58 @@
       <c r="B23" s="67">
         <v>0</v>
       </c>
-      <c r="C23" s="128"/>
-      <c r="D23" s="128"/>
-      <c r="E23" s="128" t="s">
+      <c r="E23" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F23" s="128"/>
-      <c r="G23" s="128"/>
-      <c r="H23" s="128"/>
-      <c r="I23" s="128"/>
-      <c r="J23" s="128"/>
-      <c r="K23" s="128"/>
-      <c r="L23" s="128"/>
-      <c r="M23" s="138"/>
-      <c r="N23" s="151"/>
-      <c r="O23" s="128"/>
-      <c r="P23" s="55"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="P23" s="69">
+        <v>5</v>
+      </c>
     </row>
     <row r="24" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="56"/>
-      <c r="B24" s="128"/>
-      <c r="C24" s="128"/>
-      <c r="D24" s="128"/>
-      <c r="E24" s="128" t="s">
+      <c r="E24" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F24" s="128"/>
-      <c r="G24" s="128"/>
-      <c r="H24" s="128"/>
-      <c r="I24" s="128"/>
-      <c r="J24" s="128"/>
-      <c r="K24" s="128"/>
-      <c r="L24" s="128"/>
-      <c r="M24" s="138"/>
-      <c r="N24" s="138"/>
-      <c r="O24" s="128"/>
-      <c r="P24" s="55"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="P24" s="69"/>
     </row>
     <row r="25" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="56"/>
-      <c r="B25" s="128"/>
-      <c r="C25" s="128"/>
-      <c r="D25" s="128"/>
-      <c r="E25" s="128" t="s">
+      <c r="E25" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F25" s="128"/>
-      <c r="G25" s="128"/>
-      <c r="H25" s="128"/>
-      <c r="I25" s="128"/>
-      <c r="J25" s="128"/>
-      <c r="K25" s="128"/>
-      <c r="L25" s="128"/>
-      <c r="M25" s="128"/>
-      <c r="N25" s="128"/>
-      <c r="O25" s="128"/>
       <c r="P25" s="55"/>
     </row>
     <row r="26" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="56"/>
-      <c r="B26" s="128"/>
-      <c r="C26" s="128"/>
-      <c r="D26" s="128"/>
-      <c r="E26" s="128" t="s">
-        <v>155</v>
-      </c>
-      <c r="F26" s="128"/>
-      <c r="G26" s="128"/>
-      <c r="H26" s="128"/>
-      <c r="I26" s="128"/>
-      <c r="J26" s="128"/>
-      <c r="K26" s="128"/>
-      <c r="L26" s="128"/>
-      <c r="M26" s="128"/>
-      <c r="N26" s="128"/>
-      <c r="O26" s="128"/>
       <c r="P26" s="55"/>
     </row>
     <row r="27" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="115" t="s">
-        <v>154</v>
-      </c>
-      <c r="B27" s="152"/>
-      <c r="C27" s="152" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="128"/>
-      <c r="E27" s="142"/>
-      <c r="F27" s="128"/>
-      <c r="G27" s="142"/>
-      <c r="H27" s="128"/>
-      <c r="I27" s="142"/>
-      <c r="J27" s="128"/>
-      <c r="K27" s="128"/>
-      <c r="L27" s="128"/>
-      <c r="M27" s="128"/>
+      <c r="A27" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="H27" s="6"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
       <c r="N27" s="4" t="s">
         <v>29</v>
       </c>
@@ -3814,117 +3725,50 @@
       <c r="P27" s="53"/>
     </row>
     <row r="28" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="118" t="s">
-        <v>153</v>
-      </c>
-      <c r="B28" s="153"/>
-      <c r="C28" s="154">
-        <v>2</v>
-      </c>
-      <c r="D28" s="128"/>
-      <c r="E28" s="128"/>
-      <c r="F28" s="128"/>
-      <c r="G28" s="128"/>
-      <c r="H28" s="128"/>
-      <c r="I28" s="128"/>
-      <c r="J28" s="128"/>
-      <c r="K28" s="128"/>
-      <c r="L28" s="128"/>
-      <c r="M28" s="128"/>
-      <c r="N28" s="128" t="s">
-        <v>77</v>
-      </c>
-      <c r="O28" s="128"/>
+      <c r="A28" s="97" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>217</v>
+      </c>
       <c r="P28" s="55"/>
     </row>
     <row r="29" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="118" t="s">
-        <v>151</v>
-      </c>
-      <c r="B29" s="153"/>
-      <c r="C29" s="153">
-        <v>3</v>
-      </c>
-      <c r="D29" s="128"/>
-      <c r="E29" s="128"/>
-      <c r="F29" s="128"/>
-      <c r="G29" s="128"/>
-      <c r="H29" s="128"/>
-      <c r="I29" s="128"/>
-      <c r="J29" s="128"/>
-      <c r="K29" s="128"/>
-      <c r="L29" s="128"/>
-      <c r="M29" s="128"/>
-      <c r="N29" s="128" t="s">
+      <c r="A29" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="N29" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O29" s="128"/>
       <c r="P29" s="55"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="118" t="s">
-        <v>181</v>
-      </c>
-      <c r="B30" s="153"/>
-      <c r="C30" s="153">
-        <v>3</v>
-      </c>
-      <c r="D30" s="128"/>
-      <c r="E30" s="128"/>
-      <c r="F30" s="128"/>
-      <c r="G30" s="128"/>
-      <c r="H30" s="128"/>
-      <c r="I30" s="128"/>
-      <c r="J30" s="128"/>
-      <c r="K30" s="128"/>
-      <c r="L30" s="128"/>
-      <c r="M30" s="128"/>
-      <c r="N30" s="128" t="s">
-        <v>78</v>
-      </c>
-      <c r="O30" s="128"/>
+      <c r="A30" s="97" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>225</v>
+      </c>
       <c r="P30" s="55"/>
     </row>
     <row r="31" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="118" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="153"/>
-      <c r="C31" s="153">
-        <v>3</v>
-      </c>
-      <c r="D31" s="128"/>
-      <c r="E31" s="128"/>
-      <c r="F31" s="128"/>
-      <c r="G31" s="128"/>
-      <c r="H31" s="128"/>
-      <c r="I31" s="128"/>
-      <c r="J31" s="128"/>
-      <c r="K31" s="128"/>
-      <c r="L31" s="128"/>
-      <c r="M31" s="128"/>
-      <c r="N31" s="128" t="s">
-        <v>205</v>
-      </c>
-      <c r="O31" s="128"/>
+      <c r="A31" s="119"/>
+      <c r="N31" s="2" t="s">
+        <v>218</v>
+      </c>
       <c r="P31" s="55"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="56"/>
-      <c r="B32" s="128"/>
-      <c r="C32" s="128"/>
-      <c r="D32" s="128"/>
-      <c r="E32" s="128"/>
-      <c r="F32" s="128"/>
-      <c r="G32" s="128"/>
-      <c r="H32" s="128"/>
-      <c r="I32" s="128"/>
-      <c r="J32" s="128"/>
-      <c r="K32" s="128"/>
-      <c r="L32" s="128"/>
-      <c r="M32" s="128"/>
-      <c r="N32" s="128"/>
-      <c r="O32" s="128"/>
       <c r="P32" s="55"/>
     </row>
     <row r="33" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
@@ -3983,120 +3827,115 @@
     </row>
     <row r="34" spans="1:27" ht="18" x14ac:dyDescent="0.3">
       <c r="A34" s="71" t="s">
-        <v>135</v>
-      </c>
-      <c r="B34" s="130" t="s">
+        <v>180</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="155">
+      <c r="C34" s="72">
+        <v>6</v>
+      </c>
+      <c r="D34" s="73">
+        <f>C34+1</f>
         <v>7</v>
       </c>
-      <c r="D34" s="156">
-        <f>C34+1</f>
+      <c r="E34" s="72">
+        <f t="shared" ref="E34:L34" si="2">D34+1</f>
         <v>8</v>
       </c>
-      <c r="E34" s="155">
-        <f t="shared" ref="E34:L34" si="2">D34+1</f>
+      <c r="F34" s="73">
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="F34" s="156">
+      <c r="G34" s="72">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="G34" s="155">
+      <c r="H34" s="73">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="H34" s="156">
+      <c r="I34" s="72">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="I34" s="155">
+      <c r="J34" s="73">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="J34" s="156">
+      <c r="K34" s="72">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="K34" s="155">
+      <c r="L34" s="73">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="L34" s="156">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
       <c r="M34" s="106" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="N34" s="106"/>
-      <c r="O34" s="128" t="s">
-        <v>209</v>
-      </c>
       <c r="P34" s="55"/>
     </row>
     <row r="35" spans="1:27" ht="18" x14ac:dyDescent="0.3">
       <c r="A35" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="130" t="s">
+      <c r="B35" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="155">
+      <c r="C35" s="72">
+        <v>6</v>
+      </c>
+      <c r="D35" s="73">
+        <f t="shared" ref="D35:L36" si="3">C35+1</f>
         <v>7</v>
       </c>
-      <c r="D35" s="156">
-        <f t="shared" ref="D35:L36" si="3">C35+1</f>
+      <c r="E35" s="72">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="E35" s="155">
+      <c r="F35" s="73">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="F35" s="156">
+      <c r="G35" s="72">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="G35" s="155">
+      <c r="H35" s="73">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="H35" s="156">
+      <c r="I35" s="72">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="I35" s="155">
+      <c r="J35" s="73">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="J35" s="156">
+      <c r="K35" s="72">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="K35" s="155">
+      <c r="L35" s="73">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="L35" s="156">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="M35" s="157" t="s">
-        <v>208</v>
-      </c>
-      <c r="N35" s="157"/>
-      <c r="O35" s="127" t="s">
-        <v>147</v>
-      </c>
+      <c r="M35" s="107" t="s">
+        <v>137</v>
+      </c>
+      <c r="N35" s="107"/>
+      <c r="O35" s="3"/>
       <c r="P35" s="55"/>
     </row>
     <row r="36" spans="1:27" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="74" t="s">
-        <v>181</v>
+        <v>25</v>
       </c>
       <c r="B36" s="75" t="s">
-        <v>207</v>
+        <v>138</v>
       </c>
       <c r="C36" s="76">
         <v>8</v>
@@ -4141,9 +3980,7 @@
         <v>28</v>
       </c>
       <c r="N36" s="108"/>
-      <c r="O36" s="78" t="s">
-        <v>148</v>
-      </c>
+      <c r="O36" s="78"/>
       <c r="P36" s="79"/>
       <c r="AA36"/>
     </row>
@@ -4173,11 +4010,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E67570B-E252-4754-963B-16F0C4F39BE1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06982626-440A-421A-816A-4B07BD0E71A6}">
   <dimension ref="A1:AA36"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="N20" sqref="N20:P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4195,14 +4032,14 @@
         <v>0</v>
       </c>
       <c r="B1" s="82" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="C1" s="82"/>
       <c r="D1" s="83"/>
       <c r="E1" s="99"/>
       <c r="F1" s="84"/>
       <c r="G1" s="101" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="H1" s="82"/>
       <c r="I1" s="84"/>
@@ -4223,27 +4060,27 @@
         <v>120</v>
       </c>
       <c r="B2" s="90" t="s">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="C2" s="90"/>
-      <c r="D2" s="91"/>
+      <c r="D2" s="124"/>
       <c r="E2" s="92" t="s">
         <v>33</v>
       </c>
       <c r="F2" s="93"/>
       <c r="G2" s="93" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="H2" s="93"/>
       <c r="I2" s="100" t="s">
-        <v>131</v>
-      </c>
-      <c r="J2" s="91"/>
-      <c r="K2" s="94" t="s">
+        <v>158</v>
+      </c>
+      <c r="J2" s="124"/>
+      <c r="K2" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
       <c r="N2" s="90" t="s">
         <v>72</v>
       </c>
@@ -4252,54 +4089,56 @@
     </row>
     <row r="3" spans="1:16" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="44"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="127"/>
+      <c r="O3" s="127"/>
       <c r="P3" s="45"/>
     </row>
     <row r="4" spans="1:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="47">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="48" t="s">
+      <c r="B4" s="129">
+        <v>2</v>
+      </c>
+      <c r="C4" s="130"/>
+      <c r="D4" s="131" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="49">
-        <v>20</v>
-      </c>
-      <c r="G4" s="102" t="s">
-        <v>88</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="50" t="s">
+      <c r="E4" s="130"/>
+      <c r="F4" s="132">
+        <v>22</v>
+      </c>
+      <c r="G4" s="133" t="s">
+        <v>200</v>
+      </c>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="130"/>
+      <c r="K4" s="134" t="s">
         <v>119</v>
       </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="51">
-        <v>2</v>
-      </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="48" t="s">
+      <c r="L4" s="130"/>
+      <c r="M4" s="135">
+        <v>0</v>
+      </c>
+      <c r="N4" s="130"/>
+      <c r="O4" s="131" t="s">
         <v>9</v>
       </c>
       <c r="P4" s="98">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4307,9 +4146,18 @@
         <v>29</v>
       </c>
       <c r="B5" s="7"/>
-      <c r="J5" s="2" t="s">
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="128" t="s">
         <v>118</v>
       </c>
+      <c r="K5" s="128"/>
+      <c r="L5" s="128"/>
       <c r="M5" s="7" t="s">
         <v>10</v>
       </c>
@@ -4319,173 +4167,196 @@
     </row>
     <row r="6" spans="1:16" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="80">
-        <v>9</v>
-      </c>
-      <c r="B6" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="109" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="109"/>
-      <c r="I6" s="109"/>
-      <c r="J6" s="49">
-        <v>0</v>
-      </c>
-      <c r="K6" s="49"/>
-      <c r="M6" s="110" t="s">
+      <c r="C6" s="136" t="s">
+        <v>201</v>
+      </c>
+      <c r="D6" s="136"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="136"/>
+      <c r="J6" s="132">
+        <v>1</v>
+      </c>
+      <c r="K6" s="132"/>
+      <c r="L6" s="128"/>
+      <c r="M6" s="137" t="s">
         <v>73</v>
       </c>
-      <c r="N6" s="110"/>
-      <c r="O6" s="110"/>
+      <c r="N6" s="137"/>
+      <c r="O6" s="137"/>
       <c r="P6" s="54">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="80">
-        <v>16</v>
-      </c>
-      <c r="B7" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="134" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="109" t="s">
-        <v>145</v>
-      </c>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
-      <c r="H7" s="109"/>
-      <c r="I7" s="109"/>
-      <c r="J7" s="49">
-        <v>2</v>
-      </c>
-      <c r="K7" s="49"/>
-      <c r="M7" s="110" t="s">
+      <c r="C7" s="136" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="132">
+        <v>0</v>
+      </c>
+      <c r="K7" s="132"/>
+      <c r="L7" s="128"/>
+      <c r="M7" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="110"/>
-      <c r="O7" s="110"/>
+      <c r="N7" s="137"/>
+      <c r="O7" s="137"/>
       <c r="P7" s="54">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="80">
-        <v>13</v>
-      </c>
-      <c r="B8" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="109" t="s">
+      <c r="C8" s="136" t="s">
         <v>161</v>
       </c>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="109"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="49">
-        <v>1</v>
-      </c>
-      <c r="K8" s="49"/>
-      <c r="M8" s="110" t="s">
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="136"/>
+      <c r="I8" s="136"/>
+      <c r="J8" s="132">
+        <v>2</v>
+      </c>
+      <c r="K8" s="132"/>
+      <c r="L8" s="128"/>
+      <c r="M8" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="110"/>
-      <c r="O8" s="110"/>
+      <c r="N8" s="137"/>
+      <c r="O8" s="137"/>
       <c r="P8" s="54">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="80">
-        <v>14</v>
-      </c>
-      <c r="B9" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="109" t="s">
-        <v>162</v>
-      </c>
-      <c r="D9" s="109"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="49">
-        <v>1</v>
-      </c>
-      <c r="K9" s="49"/>
-      <c r="M9" s="110" t="s">
+      <c r="C9" s="136" t="s">
+        <v>202</v>
+      </c>
+      <c r="D9" s="136"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="136"/>
+      <c r="G9" s="136"/>
+      <c r="H9" s="136"/>
+      <c r="I9" s="136"/>
+      <c r="J9" s="132">
+        <v>0</v>
+      </c>
+      <c r="K9" s="132"/>
+      <c r="L9" s="128"/>
+      <c r="M9" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="N9" s="110"/>
-      <c r="O9" s="110"/>
+      <c r="N9" s="137"/>
+      <c r="O9" s="137"/>
       <c r="P9" s="54">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="80">
+        <v>13</v>
+      </c>
+      <c r="B10" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="109" t="s">
-        <v>146</v>
-      </c>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="49">
-        <v>-1</v>
-      </c>
-      <c r="K10" s="49"/>
-      <c r="M10" s="110" t="s">
+      <c r="C10" s="136" t="s">
+        <v>203</v>
+      </c>
+      <c r="D10" s="136"/>
+      <c r="E10" s="136"/>
+      <c r="F10" s="136"/>
+      <c r="G10" s="136"/>
+      <c r="H10" s="136"/>
+      <c r="I10" s="136"/>
+      <c r="J10" s="132">
+        <v>1</v>
+      </c>
+      <c r="K10" s="132"/>
+      <c r="L10" s="128"/>
+      <c r="M10" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="N10" s="110"/>
-      <c r="O10" s="110"/>
+      <c r="N10" s="137"/>
+      <c r="O10" s="137"/>
       <c r="P10" s="54">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="80">
-        <v>10</v>
-      </c>
-      <c r="B11" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="109" t="s">
+      <c r="C11" s="136" t="s">
         <v>116</v>
       </c>
-      <c r="D11" s="109"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="109"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="49">
+      <c r="D11" s="136"/>
+      <c r="E11" s="136"/>
+      <c r="F11" s="136"/>
+      <c r="G11" s="136"/>
+      <c r="H11" s="136"/>
+      <c r="I11" s="136"/>
+      <c r="J11" s="132">
         <v>0</v>
       </c>
-      <c r="K11" s="49"/>
+      <c r="K11" s="132"/>
+      <c r="L11" s="128"/>
+      <c r="M11" s="128"/>
+      <c r="N11" s="128"/>
+      <c r="O11" s="128"/>
       <c r="P11" s="55"/>
     </row>
     <row r="12" spans="1:16" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="56"/>
+      <c r="B12" s="128"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
+      <c r="F12" s="128"/>
+      <c r="G12" s="128"/>
+      <c r="H12" s="128"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="128"/>
+      <c r="K12" s="128"/>
+      <c r="L12" s="128"/>
+      <c r="M12" s="128"/>
+      <c r="N12" s="128"/>
+      <c r="O12" s="128"/>
       <c r="P12" s="55"/>
     </row>
     <row r="13" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -4493,22 +4364,25 @@
         <v>16</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="41"/>
+      <c r="C13" s="138"/>
+      <c r="D13" s="127"/>
       <c r="E13" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="58" t="s">
+      <c r="H13" s="138"/>
+      <c r="I13" s="139" t="s">
         <v>91</v>
       </c>
-      <c r="J13" s="58" t="s">
+      <c r="J13" s="139" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="58" t="s">
+      <c r="K13" s="139" t="s">
         <v>93</v>
       </c>
+      <c r="L13" s="127"/>
+      <c r="M13" s="127"/>
       <c r="N13" s="4" t="s">
         <v>79</v>
       </c>
@@ -4517,139 +4391,164 @@
     </row>
     <row r="14" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="B14" s="112"/>
-      <c r="E14" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="B14" s="140"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="138" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="41"/>
-      <c r="H14" s="60" t="s">
+      <c r="F14" s="138"/>
+      <c r="G14" s="127"/>
+      <c r="H14" s="141" t="s">
         <v>96</v>
       </c>
-      <c r="I14" s="61">
-        <v>40</v>
-      </c>
-      <c r="J14" s="1">
+      <c r="I14" s="142">
+        <v>20</v>
+      </c>
+      <c r="J14" s="130">
         <f>K14*1.5</f>
-        <v>12</v>
-      </c>
-      <c r="K14" s="1">
+        <v>6</v>
+      </c>
+      <c r="K14" s="130">
         <f>I14/5</f>
-        <v>8</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>183</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="L14" s="127"/>
+      <c r="M14" s="127"/>
+      <c r="N14" s="127" t="s">
+        <v>80</v>
+      </c>
+      <c r="O14" s="127"/>
       <c r="P14" s="45"/>
     </row>
     <row r="15" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="111"/>
-      <c r="B15" s="112"/>
-      <c r="E15" s="62" t="s">
+      <c r="B15" s="140"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="143" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="62"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="64" t="s">
+      <c r="F15" s="143"/>
+      <c r="G15" s="144"/>
+      <c r="H15" s="145" t="s">
         <v>97</v>
       </c>
-      <c r="I15" s="65">
-        <f>I14*3</f>
-        <v>120</v>
-      </c>
-      <c r="J15" s="65">
+      <c r="I15" s="146">
+        <v>60</v>
+      </c>
+      <c r="J15" s="146">
         <f>K15*1.5</f>
-        <v>36</v>
-      </c>
-      <c r="K15" s="65">
+        <v>18</v>
+      </c>
+      <c r="K15" s="146">
         <f t="shared" ref="K15:K18" si="0">I15/5</f>
-        <v>24</v>
-      </c>
-      <c r="N15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" s="127"/>
+      <c r="M15" s="127"/>
+      <c r="N15" s="127" t="s">
         <v>167</v>
       </c>
+      <c r="O15" s="127"/>
       <c r="P15" s="45"/>
     </row>
     <row r="16" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="111"/>
-      <c r="B16" s="112"/>
-      <c r="E16" s="41" t="s">
+      <c r="B16" s="140"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="41"/>
-      <c r="H16" s="60" t="s">
+      <c r="F16" s="138"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="141" t="s">
         <v>96</v>
       </c>
-      <c r="I16" s="61">
-        <f>I14*3</f>
-        <v>120</v>
-      </c>
-      <c r="J16" s="1">
+      <c r="I16" s="142">
+        <v>60</v>
+      </c>
+      <c r="J16" s="130">
         <f>K16*1.5</f>
-        <v>36</v>
-      </c>
-      <c r="K16" s="1">
+        <v>18</v>
+      </c>
+      <c r="K16" s="130">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="N16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="127"/>
+      <c r="M16" s="127"/>
+      <c r="N16" s="127" t="s">
         <v>184</v>
       </c>
+      <c r="O16" s="127"/>
       <c r="P16" s="45"/>
     </row>
     <row r="17" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="111"/>
-      <c r="B17" s="112"/>
-      <c r="E17" s="62" t="s">
+      <c r="B17" s="140"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="143" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="62"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="64" t="s">
+      <c r="F17" s="143"/>
+      <c r="G17" s="144"/>
+      <c r="H17" s="145" t="s">
         <v>96</v>
       </c>
-      <c r="I17" s="65">
-        <f>I14/2</f>
-        <v>20</v>
-      </c>
-      <c r="J17" s="65">
+      <c r="I17" s="146">
+        <v>10</v>
+      </c>
+      <c r="J17" s="146">
         <f>K17*1.5</f>
-        <v>6</v>
-      </c>
-      <c r="K17" s="65">
+        <v>3</v>
+      </c>
+      <c r="K17" s="146">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="N17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L17" s="127"/>
+      <c r="M17" s="127"/>
+      <c r="N17" s="127" t="s">
         <v>83</v>
       </c>
+      <c r="O17" s="127"/>
       <c r="P17" s="45"/>
     </row>
     <row r="18" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="44"/>
-      <c r="E18" s="41" t="s">
+      <c r="B18" s="127"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="138" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="41"/>
-      <c r="H18" s="60" t="s">
+      <c r="F18" s="138"/>
+      <c r="G18" s="127"/>
+      <c r="H18" s="141" t="s">
         <v>96</v>
       </c>
-      <c r="I18" s="61">
-        <f>I14/2</f>
-        <v>20</v>
-      </c>
-      <c r="J18" s="1">
+      <c r="I18" s="142">
+        <v>10</v>
+      </c>
+      <c r="J18" s="130">
         <f>K18*1.5</f>
-        <v>6</v>
-      </c>
-      <c r="K18" s="1">
+        <v>3</v>
+      </c>
+      <c r="K18" s="130">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>185</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="L18" s="127"/>
+      <c r="M18" s="127"/>
+      <c r="N18" s="127" t="s">
+        <v>210</v>
+      </c>
+      <c r="O18" s="127"/>
       <c r="P18" s="45"/>
     </row>
     <row r="19" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -4657,24 +4556,29 @@
         <v>87</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="E19" s="62" t="s">
+      <c r="C19" s="127"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="143" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="62"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="64" t="s">
+      <c r="F19" s="143"/>
+      <c r="G19" s="144"/>
+      <c r="H19" s="145" t="s">
         <v>98</v>
       </c>
-      <c r="I19" s="66" t="s">
-        <v>165</v>
-      </c>
-      <c r="J19" s="66" t="s">
-        <v>164</v>
-      </c>
-      <c r="K19" s="66"/>
-      <c r="N19" s="3" t="s">
-        <v>186</v>
-      </c>
+      <c r="I19" s="147" t="s">
+        <v>95</v>
+      </c>
+      <c r="J19" s="147" t="s">
+        <v>94</v>
+      </c>
+      <c r="K19" s="147"/>
+      <c r="L19" s="127"/>
+      <c r="M19" s="127"/>
+      <c r="N19" s="127" t="s">
+        <v>211</v>
+      </c>
+      <c r="O19" s="127"/>
       <c r="P19" s="45"/>
     </row>
     <row r="20" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -4684,10 +4588,21 @@
       <c r="B20" s="67">
         <v>0</v>
       </c>
-      <c r="N20" s="103" t="s">
+      <c r="C20" s="127"/>
+      <c r="D20" s="127"/>
+      <c r="E20" s="127"/>
+      <c r="F20" s="127"/>
+      <c r="G20" s="127"/>
+      <c r="H20" s="127"/>
+      <c r="I20" s="127"/>
+      <c r="J20" s="127"/>
+      <c r="K20" s="127"/>
+      <c r="L20" s="127"/>
+      <c r="M20" s="127"/>
+      <c r="N20" s="148" t="s">
         <v>149</v>
       </c>
-      <c r="O20" s="103"/>
+      <c r="O20" s="148"/>
       <c r="P20" s="104"/>
     </row>
     <row r="21" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -4697,14 +4612,25 @@
       <c r="B21" s="67">
         <v>500</v>
       </c>
-      <c r="E21" t="s">
+      <c r="C21" s="127"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="O21" s="68" t="s">
+      <c r="F21" s="127"/>
+      <c r="G21" s="127"/>
+      <c r="H21" s="127"/>
+      <c r="I21" s="127"/>
+      <c r="J21" s="127"/>
+      <c r="K21" s="127"/>
+      <c r="L21" s="127"/>
+      <c r="M21" s="127"/>
+      <c r="N21" s="127"/>
+      <c r="O21" s="150" t="s">
         <v>48</v>
       </c>
       <c r="P21" s="69">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -4714,11 +4640,21 @@
       <c r="B22" s="67">
         <v>0</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="C22" s="128"/>
+      <c r="D22" s="128"/>
+      <c r="E22" s="128" t="s">
         <v>122</v>
       </c>
-      <c r="N22" s="3"/>
-      <c r="O22" s="68" t="s">
+      <c r="F22" s="128"/>
+      <c r="G22" s="128"/>
+      <c r="H22" s="128"/>
+      <c r="I22" s="128"/>
+      <c r="J22" s="128"/>
+      <c r="K22" s="128"/>
+      <c r="L22" s="128"/>
+      <c r="M22" s="128"/>
+      <c r="N22" s="127"/>
+      <c r="O22" s="150" t="s">
         <v>41</v>
       </c>
       <c r="P22" s="69">
@@ -4732,57 +4668,101 @@
       <c r="B23" s="67">
         <v>0</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="C23" s="128"/>
+      <c r="D23" s="128"/>
+      <c r="E23" s="128" t="s">
         <v>124</v>
       </c>
-      <c r="M23" s="41"/>
-      <c r="N23" s="42"/>
+      <c r="F23" s="128"/>
+      <c r="G23" s="128"/>
+      <c r="H23" s="128"/>
+      <c r="I23" s="128"/>
+      <c r="J23" s="128"/>
+      <c r="K23" s="128"/>
+      <c r="L23" s="128"/>
+      <c r="M23" s="138"/>
+      <c r="N23" s="151"/>
+      <c r="O23" s="128"/>
       <c r="P23" s="55"/>
     </row>
     <row r="24" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="56"/>
-      <c r="E24" s="2" t="s">
+      <c r="B24" s="128"/>
+      <c r="C24" s="128"/>
+      <c r="D24" s="128"/>
+      <c r="E24" s="128" t="s">
         <v>125</v>
       </c>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
+      <c r="F24" s="128"/>
+      <c r="G24" s="128"/>
+      <c r="H24" s="128"/>
+      <c r="I24" s="128"/>
+      <c r="J24" s="128"/>
+      <c r="K24" s="128"/>
+      <c r="L24" s="128"/>
+      <c r="M24" s="138"/>
+      <c r="N24" s="138"/>
+      <c r="O24" s="128"/>
       <c r="P24" s="55"/>
     </row>
     <row r="25" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="121" t="s">
-        <v>189</v>
-      </c>
-      <c r="C25" s="123">
-        <v>0.45</v>
-      </c>
-      <c r="E25" s="2" t="s">
+      <c r="A25" s="56"/>
+      <c r="B25" s="128"/>
+      <c r="C25" s="128"/>
+      <c r="D25" s="128"/>
+      <c r="E25" s="128" t="s">
         <v>123</v>
       </c>
+      <c r="F25" s="128"/>
+      <c r="G25" s="128"/>
+      <c r="H25" s="128"/>
+      <c r="I25" s="128"/>
+      <c r="J25" s="128"/>
+      <c r="K25" s="128"/>
+      <c r="L25" s="128"/>
+      <c r="M25" s="128"/>
+      <c r="N25" s="128"/>
+      <c r="O25" s="128"/>
       <c r="P25" s="55"/>
     </row>
     <row r="26" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="122" t="s">
-        <v>194</v>
-      </c>
-      <c r="C26" s="123">
-        <v>0.4</v>
-      </c>
-      <c r="E26" s="2" t="s">
+      <c r="A26" s="56"/>
+      <c r="B26" s="128"/>
+      <c r="C26" s="128"/>
+      <c r="D26" s="128"/>
+      <c r="E26" s="128" t="s">
         <v>155</v>
       </c>
+      <c r="F26" s="128"/>
+      <c r="G26" s="128"/>
+      <c r="H26" s="128"/>
+      <c r="I26" s="128"/>
+      <c r="J26" s="128"/>
+      <c r="K26" s="128"/>
+      <c r="L26" s="128"/>
+      <c r="M26" s="128"/>
+      <c r="N26" s="128"/>
+      <c r="O26" s="128"/>
       <c r="P26" s="55"/>
     </row>
     <row r="27" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="118" t="s">
-        <v>190</v>
-      </c>
-      <c r="B27" s="114"/>
-      <c r="C27" s="123">
-        <v>0.45</v>
-      </c>
-      <c r="E27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="I27" s="61"/>
+      <c r="A27" s="115" t="s">
+        <v>154</v>
+      </c>
+      <c r="B27" s="152"/>
+      <c r="C27" s="152" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="128"/>
+      <c r="E27" s="142"/>
+      <c r="F27" s="128"/>
+      <c r="G27" s="142"/>
+      <c r="H27" s="128"/>
+      <c r="I27" s="142"/>
+      <c r="J27" s="128"/>
+      <c r="K27" s="128"/>
+      <c r="L27" s="128"/>
+      <c r="M27" s="128"/>
       <c r="N27" s="4" t="s">
         <v>29</v>
       </c>
@@ -4790,59 +4770,117 @@
       <c r="P27" s="53"/>
     </row>
     <row r="28" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="116" t="s">
-        <v>191</v>
-      </c>
-      <c r="B28" s="117"/>
-      <c r="C28" s="123">
-        <v>0.45</v>
-      </c>
-      <c r="E28" s="120" t="s">
-        <v>196</v>
-      </c>
-      <c r="N28" s="2" t="s">
+      <c r="A28" s="118" t="s">
+        <v>153</v>
+      </c>
+      <c r="B28" s="153"/>
+      <c r="C28" s="154">
+        <v>2</v>
+      </c>
+      <c r="D28" s="128"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="128"/>
+      <c r="G28" s="128"/>
+      <c r="H28" s="128"/>
+      <c r="I28" s="128"/>
+      <c r="J28" s="128"/>
+      <c r="K28" s="128"/>
+      <c r="L28" s="128"/>
+      <c r="M28" s="128"/>
+      <c r="N28" s="128" t="s">
         <v>77</v>
       </c>
+      <c r="O28" s="128"/>
       <c r="P28" s="55"/>
     </row>
     <row r="29" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="116" t="s">
-        <v>192</v>
-      </c>
-      <c r="B29" s="117"/>
-      <c r="C29" s="123">
-        <v>0.92</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>187</v>
-      </c>
+      <c r="A29" s="118" t="s">
+        <v>151</v>
+      </c>
+      <c r="B29" s="153"/>
+      <c r="C29" s="153">
+        <v>3</v>
+      </c>
+      <c r="D29" s="128"/>
+      <c r="E29" s="128"/>
+      <c r="F29" s="128"/>
+      <c r="G29" s="128"/>
+      <c r="H29" s="128"/>
+      <c r="I29" s="128"/>
+      <c r="J29" s="128"/>
+      <c r="K29" s="128"/>
+      <c r="L29" s="128"/>
+      <c r="M29" s="128"/>
+      <c r="N29" s="128" t="s">
+        <v>32</v>
+      </c>
+      <c r="O29" s="128"/>
       <c r="P29" s="55"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="118" t="s">
-        <v>193</v>
-      </c>
-      <c r="B30" s="117"/>
-      <c r="C30" s="123">
-        <v>0.36</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>188</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="B30" s="153"/>
+      <c r="C30" s="153">
+        <v>3</v>
+      </c>
+      <c r="D30" s="128"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="128"/>
+      <c r="G30" s="128"/>
+      <c r="H30" s="128"/>
+      <c r="I30" s="128"/>
+      <c r="J30" s="128"/>
+      <c r="K30" s="128"/>
+      <c r="L30" s="128"/>
+      <c r="M30" s="128"/>
+      <c r="N30" s="128" t="s">
+        <v>78</v>
+      </c>
+      <c r="O30" s="128"/>
       <c r="P30" s="55"/>
     </row>
     <row r="31" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="118" t="s">
-        <v>195</v>
-      </c>
-      <c r="B31" s="117"/>
-      <c r="C31" s="123">
-        <v>0.8</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B31" s="153"/>
+      <c r="C31" s="153">
+        <v>3</v>
+      </c>
+      <c r="D31" s="128"/>
+      <c r="E31" s="128"/>
+      <c r="F31" s="128"/>
+      <c r="G31" s="128"/>
+      <c r="H31" s="128"/>
+      <c r="I31" s="128"/>
+      <c r="J31" s="128"/>
+      <c r="K31" s="128"/>
+      <c r="L31" s="128"/>
+      <c r="M31" s="128"/>
+      <c r="N31" s="128" t="s">
+        <v>205</v>
+      </c>
+      <c r="O31" s="128"/>
       <c r="P31" s="55"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="56"/>
+      <c r="B32" s="128"/>
+      <c r="C32" s="128"/>
+      <c r="D32" s="128"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="128"/>
+      <c r="G32" s="128"/>
+      <c r="H32" s="128"/>
+      <c r="I32" s="128"/>
+      <c r="J32" s="128"/>
+      <c r="K32" s="128"/>
+      <c r="L32" s="128"/>
+      <c r="M32" s="128"/>
+      <c r="N32" s="128"/>
+      <c r="O32" s="128"/>
       <c r="P32" s="55"/>
     </row>
     <row r="33" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
@@ -4901,107 +4939,110 @@
     </row>
     <row r="34" spans="1:27" ht="18" x14ac:dyDescent="0.3">
       <c r="A34" s="71" t="s">
-        <v>180</v>
-      </c>
-      <c r="B34" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B34" s="130" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="72">
+      <c r="C34" s="155">
+        <v>7</v>
+      </c>
+      <c r="D34" s="156">
+        <f>C34+1</f>
         <v>8</v>
       </c>
-      <c r="D34" s="73">
-        <f>C34+1</f>
+      <c r="E34" s="155">
+        <f t="shared" ref="E34:L34" si="2">D34+1</f>
         <v>9</v>
       </c>
-      <c r="E34" s="72">
-        <f t="shared" ref="E34:L34" si="2">D34+1</f>
+      <c r="F34" s="156">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="F34" s="73">
+      <c r="G34" s="155">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="G34" s="72">
+      <c r="H34" s="156">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="H34" s="73">
+      <c r="I34" s="155">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="I34" s="72">
+      <c r="J34" s="156">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="J34" s="73">
+      <c r="K34" s="155">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="K34" s="72">
+      <c r="L34" s="156">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="L34" s="73">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
       <c r="M34" s="106" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="N34" s="106"/>
+      <c r="O34" s="128" t="s">
+        <v>209</v>
+      </c>
       <c r="P34" s="55"/>
     </row>
     <row r="35" spans="1:27" ht="18" x14ac:dyDescent="0.3">
       <c r="A35" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="130" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="72">
+      <c r="C35" s="155">
+        <v>7</v>
+      </c>
+      <c r="D35" s="156">
+        <f t="shared" ref="D35:L36" si="3">C35+1</f>
         <v>8</v>
       </c>
-      <c r="D35" s="73">
-        <f t="shared" ref="D35:L36" si="3">C35+1</f>
+      <c r="E35" s="155">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="E35" s="72">
+      <c r="F35" s="156">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="F35" s="73">
+      <c r="G35" s="155">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="G35" s="72">
+      <c r="H35" s="156">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="H35" s="73">
+      <c r="I35" s="155">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="I35" s="72">
+      <c r="J35" s="156">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="J35" s="73">
+      <c r="K35" s="155">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="K35" s="72">
+      <c r="L35" s="156">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="L35" s="73">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="M35" s="107" t="s">
-        <v>110</v>
-      </c>
-      <c r="N35" s="107"/>
-      <c r="O35" s="3" t="s">
+      <c r="M35" s="157" t="s">
+        <v>208</v>
+      </c>
+      <c r="N35" s="157"/>
+      <c r="O35" s="127" t="s">
         <v>147</v>
       </c>
       <c r="P35" s="55"/>
@@ -5011,46 +5052,46 @@
         <v>181</v>
       </c>
       <c r="B36" s="75" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="C36" s="76">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D36" s="77">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E36" s="76">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F36" s="77">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G36" s="76">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H36" s="77">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I36" s="76">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J36" s="77">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K36" s="76">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L36" s="77">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M36" s="108" t="s">
         <v>28</v>
@@ -5088,11 +5129,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23066C9D-052A-4A0F-9F62-A1EE62475AEE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E67570B-E252-4754-963B-16F0C4F39BE1}">
   <dimension ref="A1:AA36"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5110,14 +5151,14 @@
         <v>0</v>
       </c>
       <c r="B1" s="82" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="C1" s="82"/>
       <c r="D1" s="83"/>
       <c r="E1" s="99"/>
       <c r="F1" s="84"/>
       <c r="G1" s="101" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="H1" s="82"/>
       <c r="I1" s="84"/>
@@ -5147,11 +5188,11 @@
       </c>
       <c r="F2" s="93"/>
       <c r="G2" s="93" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="H2" s="93"/>
       <c r="I2" s="100" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="J2" s="91"/>
       <c r="K2" s="94" t="s">
@@ -5186,7 +5227,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="47">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="48" t="s">
@@ -5194,10 +5235,10 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="49">
-        <v>18</v>
-      </c>
-      <c r="G4" s="49">
-        <v>5</v>
+        <v>20</v>
+      </c>
+      <c r="G4" s="102" t="s">
+        <v>88</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -5207,14 +5248,14 @@
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="48" t="s">
         <v>9</v>
       </c>
       <c r="P4" s="98">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -5234,13 +5275,13 @@
     </row>
     <row r="6" spans="1:16" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="80">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="50" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="109" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="D6" s="109"/>
       <c r="E6" s="109"/>
@@ -5249,7 +5290,7 @@
       <c r="H6" s="109"/>
       <c r="I6" s="109"/>
       <c r="J6" s="49">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="49"/>
       <c r="M6" s="110" t="s">
@@ -5258,18 +5299,18 @@
       <c r="N6" s="110"/>
       <c r="O6" s="110"/>
       <c r="P6" s="54">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="80">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B7" s="50" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="109" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="D7" s="109"/>
       <c r="E7" s="109"/>
@@ -5278,7 +5319,7 @@
       <c r="H7" s="109"/>
       <c r="I7" s="109"/>
       <c r="J7" s="49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K7" s="49"/>
       <c r="M7" s="110" t="s">
@@ -5287,7 +5328,7 @@
       <c r="N7" s="110"/>
       <c r="O7" s="110"/>
       <c r="P7" s="54">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -5316,12 +5357,12 @@
       <c r="N8" s="110"/>
       <c r="O8" s="110"/>
       <c r="P8" s="54">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="80">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" s="50" t="s">
         <v>5</v>
@@ -5336,7 +5377,7 @@
       <c r="H9" s="109"/>
       <c r="I9" s="109"/>
       <c r="J9" s="49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K9" s="49"/>
       <c r="M9" s="110" t="s">
@@ -5350,13 +5391,13 @@
     </row>
     <row r="10" spans="1:16" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="80">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" s="50" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="109" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="D10" s="109"/>
       <c r="E10" s="109"/>
@@ -5365,7 +5406,7 @@
       <c r="H10" s="109"/>
       <c r="I10" s="109"/>
       <c r="J10" s="49">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K10" s="49"/>
       <c r="M10" s="110" t="s">
@@ -5374,18 +5415,18 @@
       <c r="N10" s="110"/>
       <c r="O10" s="110"/>
       <c r="P10" s="54">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="80">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B11" s="50" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="109" t="s">
-        <v>163</v>
+        <v>116</v>
       </c>
       <c r="D11" s="109"/>
       <c r="E11" s="109"/>
@@ -5394,7 +5435,7 @@
       <c r="H11" s="109"/>
       <c r="I11" s="109"/>
       <c r="J11" s="49">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="49"/>
       <c r="P11" s="55"/>
@@ -5432,7 +5473,7 @@
     </row>
     <row r="14" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="111" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="B14" s="112"/>
       <c r="E14" s="41" t="s">
@@ -5454,7 +5495,7 @@
         <v>8</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="P14" s="45"/>
     </row>
@@ -5509,7 +5550,7 @@
         <v>24</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>83</v>
+        <v>184</v>
       </c>
       <c r="P16" s="45"/>
     </row>
@@ -5537,7 +5578,7 @@
         <v>4</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>168</v>
+        <v>83</v>
       </c>
       <c r="P17" s="45"/>
     </row>
@@ -5562,6 +5603,9 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="N18" s="3" t="s">
+        <v>185</v>
+      </c>
       <c r="P18" s="45"/>
     </row>
     <row r="19" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -5584,6 +5628,9 @@
         <v>164</v>
       </c>
       <c r="K19" s="66"/>
+      <c r="N19" s="3" t="s">
+        <v>186</v>
+      </c>
       <c r="P19" s="45"/>
     </row>
     <row r="20" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -5593,7 +5640,9 @@
       <c r="B20" s="67">
         <v>0</v>
       </c>
-      <c r="N20" s="103"/>
+      <c r="N20" s="103" t="s">
+        <v>149</v>
+      </c>
       <c r="O20" s="103"/>
       <c r="P20" s="104"/>
     </row>
@@ -5611,7 +5660,7 @@
         <v>48</v>
       </c>
       <c r="P21" s="69">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -5656,36 +5705,40 @@
       <c r="P24" s="55"/>
     </row>
     <row r="25" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="56"/>
+      <c r="A25" s="121" t="s">
+        <v>189</v>
+      </c>
+      <c r="C25" s="123">
+        <v>0.45</v>
+      </c>
       <c r="E25" s="2" t="s">
         <v>123</v>
       </c>
       <c r="P25" s="55"/>
     </row>
     <row r="26" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="56"/>
+      <c r="A26" s="122" t="s">
+        <v>194</v>
+      </c>
+      <c r="C26" s="123">
+        <v>0.4</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="P26" s="55"/>
     </row>
     <row r="27" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="43" t="s">
-        <v>126</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="H27" s="6"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
+      <c r="A27" s="118" t="s">
+        <v>190</v>
+      </c>
+      <c r="B27" s="114"/>
+      <c r="C27" s="123">
+        <v>0.45</v>
+      </c>
+      <c r="E27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="I27" s="61"/>
       <c r="N27" s="4" t="s">
         <v>29</v>
       </c>
@@ -5693,11 +5746,15 @@
       <c r="P27" s="53"/>
     </row>
     <row r="28" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="97" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>173</v>
+      <c r="A28" s="116" t="s">
+        <v>191</v>
+      </c>
+      <c r="B28" s="117"/>
+      <c r="C28" s="123">
+        <v>0.45</v>
+      </c>
+      <c r="E28" s="120" t="s">
+        <v>196</v>
       </c>
       <c r="N28" s="2" t="s">
         <v>77</v>
@@ -5705,31 +5762,39 @@
       <c r="P28" s="55"/>
     </row>
     <row r="29" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="97" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>174</v>
+      <c r="A29" s="116" t="s">
+        <v>192</v>
+      </c>
+      <c r="B29" s="117"/>
+      <c r="C29" s="123">
+        <v>0.92</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>32</v>
+        <v>187</v>
       </c>
       <c r="P29" s="55"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="97" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>172</v>
+      <c r="A30" s="118" t="s">
+        <v>193</v>
+      </c>
+      <c r="B30" s="117"/>
+      <c r="C30" s="123">
+        <v>0.36</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="P30" s="55"/>
     </row>
     <row r="31" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="119"/>
+      <c r="A31" s="118" t="s">
+        <v>195</v>
+      </c>
+      <c r="B31" s="117"/>
+      <c r="C31" s="123">
+        <v>0.8</v>
+      </c>
       <c r="P31" s="55"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
@@ -5792,52 +5857,52 @@
     </row>
     <row r="34" spans="1:27" ht="18" x14ac:dyDescent="0.3">
       <c r="A34" s="71" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C34" s="72">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D34" s="73">
         <f>C34+1</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E34" s="72">
         <f t="shared" ref="E34:L34" si="2">D34+1</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F34" s="73">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G34" s="72">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H34" s="73">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I34" s="72">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J34" s="73">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K34" s="72">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L34" s="73">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M34" s="106" t="s">
-        <v>170</v>
+        <v>107</v>
       </c>
       <c r="N34" s="106"/>
       <c r="P34" s="55"/>
@@ -5850,102 +5915,106 @@
         <v>23</v>
       </c>
       <c r="C35" s="72">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D35" s="73">
         <f t="shared" ref="D35:L36" si="3">C35+1</f>
+        <v>9</v>
+      </c>
+      <c r="E35" s="72">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="F35" s="73">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="G35" s="72">
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="E35" s="72">
+      <c r="H35" s="73">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="F35" s="73">
+      <c r="I35" s="72">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="G35" s="72">
+      <c r="J35" s="73">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="H35" s="73">
+      <c r="K35" s="72">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="I35" s="72">
+      <c r="L35" s="73">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="J35" s="73">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="K35" s="72">
-        <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-      <c r="L35" s="73">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
       <c r="M35" s="107" t="s">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="N35" s="107"/>
-      <c r="O35" s="3"/>
+      <c r="O35" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="P35" s="55"/>
     </row>
     <row r="36" spans="1:27" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="74" t="s">
-        <v>24</v>
+        <v>181</v>
       </c>
       <c r="B36" s="75" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="C36" s="76">
+        <v>6</v>
+      </c>
+      <c r="D36" s="77">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="E36" s="76">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F36" s="77">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="G36" s="76">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="D36" s="77">
+      <c r="H36" s="77">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="E36" s="76">
+      <c r="I36" s="76">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="F36" s="77">
+      <c r="J36" s="77">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="G36" s="76">
+      <c r="K36" s="76">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="H36" s="77">
+      <c r="L36" s="77">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="I36" s="76">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="J36" s="77">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="K36" s="76">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="L36" s="77">
-        <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
       <c r="M36" s="108" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="N36" s="108"/>
-      <c r="O36" s="78"/>
+      <c r="O36" s="78" t="s">
+        <v>148</v>
+      </c>
       <c r="P36" s="79"/>
       <c r="AA36"/>
     </row>
@@ -5975,6 +6044,893 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23066C9D-052A-4A0F-9F62-A1EE62475AEE}">
+  <dimension ref="A1:AA36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" style="2" customWidth="1"/>
+    <col min="3" max="12" width="4.77734375" style="2" customWidth="1"/>
+    <col min="13" max="14" width="4.6640625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="82" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="82"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="101" t="s">
+        <v>175</v>
+      </c>
+      <c r="H1" s="82"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="86" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="87" t="s">
+        <v>121</v>
+      </c>
+      <c r="O1" s="82"/>
+      <c r="P1" s="88"/>
+    </row>
+    <row r="2" spans="1:16" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="89" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="90" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="90"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93" t="s">
+        <v>157</v>
+      </c>
+      <c r="H2" s="93"/>
+      <c r="I2" s="100" t="s">
+        <v>158</v>
+      </c>
+      <c r="J2" s="91"/>
+      <c r="K2" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="90" t="s">
+        <v>72</v>
+      </c>
+      <c r="O2" s="90"/>
+      <c r="P2" s="96"/>
+    </row>
+    <row r="3" spans="1:16" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="44"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="45"/>
+    </row>
+    <row r="4" spans="1:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="47">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="49">
+        <v>18</v>
+      </c>
+      <c r="G4" s="49">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="51">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="98">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="J5" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="53"/>
+    </row>
+    <row r="6" spans="1:16" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="80">
+        <v>8</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="109" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="49">
+        <v>-1</v>
+      </c>
+      <c r="K6" s="49"/>
+      <c r="M6" s="110" t="s">
+        <v>73</v>
+      </c>
+      <c r="N6" s="110"/>
+      <c r="O6" s="110"/>
+      <c r="P6" s="54">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="80">
+        <v>10</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="109" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="109"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="49">
+        <v>0</v>
+      </c>
+      <c r="K7" s="49"/>
+      <c r="M7" s="110" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="110"/>
+      <c r="O7" s="110"/>
+      <c r="P7" s="54">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="80">
+        <v>13</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="109" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="49">
+        <v>1</v>
+      </c>
+      <c r="K8" s="49"/>
+      <c r="M8" s="110" t="s">
+        <v>14</v>
+      </c>
+      <c r="N8" s="110"/>
+      <c r="O8" s="110"/>
+      <c r="P8" s="54">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="80">
+        <v>16</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="109" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" s="109"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="109"/>
+      <c r="J9" s="49">
+        <v>2</v>
+      </c>
+      <c r="K9" s="49"/>
+      <c r="M9" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="110"/>
+      <c r="O9" s="110"/>
+      <c r="P9" s="54">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="80">
+        <v>9</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="109" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="49">
+        <v>0</v>
+      </c>
+      <c r="K10" s="49"/>
+      <c r="M10" s="110" t="s">
+        <v>13</v>
+      </c>
+      <c r="N10" s="110"/>
+      <c r="O10" s="110"/>
+      <c r="P10" s="54">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="80">
+        <v>8</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="109" t="s">
+        <v>163</v>
+      </c>
+      <c r="D11" s="109"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="49">
+        <v>-1</v>
+      </c>
+      <c r="K11" s="49"/>
+      <c r="P11" s="55"/>
+    </row>
+    <row r="12" spans="1:16" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="56"/>
+      <c r="P12" s="55"/>
+    </row>
+    <row r="13" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="41"/>
+      <c r="E13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="J13" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="K13" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="O13" s="5"/>
+      <c r="P13" s="59"/>
+    </row>
+    <row r="14" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="111" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" s="112"/>
+      <c r="E14" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="41"/>
+      <c r="H14" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="I14" s="61">
+        <v>40</v>
+      </c>
+      <c r="J14" s="1">
+        <f>K14*1.5</f>
+        <v>12</v>
+      </c>
+      <c r="K14" s="1">
+        <f>I14/5</f>
+        <v>8</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="P14" s="45"/>
+    </row>
+    <row r="15" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="111"/>
+      <c r="B15" s="112"/>
+      <c r="E15" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="62"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="I15" s="65">
+        <f>I14*3</f>
+        <v>120</v>
+      </c>
+      <c r="J15" s="65">
+        <f>K15*1.5</f>
+        <v>36</v>
+      </c>
+      <c r="K15" s="65">
+        <f t="shared" ref="K15:K18" si="0">I15/5</f>
+        <v>24</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="P15" s="45"/>
+    </row>
+    <row r="16" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="111"/>
+      <c r="B16" s="112"/>
+      <c r="E16" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="41"/>
+      <c r="H16" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="I16" s="61">
+        <f>I14*3</f>
+        <v>120</v>
+      </c>
+      <c r="J16" s="1">
+        <f>K16*1.5</f>
+        <v>36</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="P16" s="45"/>
+    </row>
+    <row r="17" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="111"/>
+      <c r="B17" s="112"/>
+      <c r="E17" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="62"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="I17" s="65">
+        <f>I14/2</f>
+        <v>20</v>
+      </c>
+      <c r="J17" s="65">
+        <f>K17*1.5</f>
+        <v>6</v>
+      </c>
+      <c r="K17" s="65">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P17" s="45"/>
+    </row>
+    <row r="18" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="44"/>
+      <c r="E18" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="41"/>
+      <c r="H18" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="I18" s="61">
+        <f>I14/2</f>
+        <v>20</v>
+      </c>
+      <c r="J18" s="1">
+        <f>K18*1.5</f>
+        <v>6</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="P18" s="45"/>
+    </row>
+    <row r="19" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="E19" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="62"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="I19" s="66" t="s">
+        <v>165</v>
+      </c>
+      <c r="J19" s="66" t="s">
+        <v>164</v>
+      </c>
+      <c r="K19" s="66"/>
+      <c r="P19" s="45"/>
+    </row>
+    <row r="20" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="67">
+        <v>0</v>
+      </c>
+      <c r="N20" s="103"/>
+      <c r="O20" s="103"/>
+      <c r="P20" s="104"/>
+    </row>
+    <row r="21" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="67">
+        <v>500</v>
+      </c>
+      <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="O21" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="P21" s="69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="67">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N22" s="3"/>
+      <c r="O22" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="P22" s="69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="67">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M23" s="41"/>
+      <c r="N23" s="42"/>
+      <c r="P23" s="55"/>
+    </row>
+    <row r="24" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="56"/>
+      <c r="E24" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="P24" s="55"/>
+    </row>
+    <row r="25" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="56"/>
+      <c r="E25" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="P25" s="55"/>
+    </row>
+    <row r="26" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="56"/>
+      <c r="P26" s="55"/>
+    </row>
+    <row r="27" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="H27" s="6"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="N27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O27" s="6"/>
+      <c r="P27" s="53"/>
+    </row>
+    <row r="28" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="97" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="P28" s="55"/>
+    </row>
+    <row r="29" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P29" s="55"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="97" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P30" s="55"/>
+    </row>
+    <row r="31" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="119"/>
+      <c r="P31" s="55"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="56"/>
+      <c r="P32" s="55"/>
+    </row>
+    <row r="33" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="9">
+        <v>8</v>
+      </c>
+      <c r="E33" s="10">
+        <f>D33-1</f>
+        <v>7</v>
+      </c>
+      <c r="F33" s="9">
+        <f t="shared" ref="F33:L33" si="1">E33-1</f>
+        <v>6</v>
+      </c>
+      <c r="G33" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H33" s="9">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I33" s="10">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J33" s="9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K33" s="10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L33" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="N33" s="105"/>
+      <c r="O33" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P33" s="53"/>
+    </row>
+    <row r="34" spans="1:27" ht="18" x14ac:dyDescent="0.3">
+      <c r="A34" s="71" t="s">
+        <v>169</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="72">
+        <v>11</v>
+      </c>
+      <c r="D34" s="73">
+        <f>C34+1</f>
+        <v>12</v>
+      </c>
+      <c r="E34" s="72">
+        <f t="shared" ref="E34:L34" si="2">D34+1</f>
+        <v>13</v>
+      </c>
+      <c r="F34" s="73">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="G34" s="72">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="H34" s="73">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="I34" s="72">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="J34" s="73">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="K34" s="72">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="L34" s="73">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="M34" s="106" t="s">
+        <v>170</v>
+      </c>
+      <c r="N34" s="106"/>
+      <c r="P34" s="55"/>
+    </row>
+    <row r="35" spans="1:27" ht="18" x14ac:dyDescent="0.3">
+      <c r="A35" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="72">
+        <v>11</v>
+      </c>
+      <c r="D35" s="73">
+        <f t="shared" ref="D35:L36" si="3">C35+1</f>
+        <v>12</v>
+      </c>
+      <c r="E35" s="72">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="F35" s="73">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="G35" s="72">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="H35" s="73">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="I35" s="72">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="J35" s="73">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="K35" s="72">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="L35" s="73">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="M35" s="107" t="s">
+        <v>170</v>
+      </c>
+      <c r="N35" s="107"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="55"/>
+    </row>
+    <row r="36" spans="1:27" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="75" t="s">
+        <v>171</v>
+      </c>
+      <c r="C36" s="76">
+        <v>10</v>
+      </c>
+      <c r="D36" s="77">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="E36" s="76">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="F36" s="77">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="G36" s="76">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="H36" s="77">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="I36" s="76">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="J36" s="77">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="K36" s="76">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="L36" s="77">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="M36" s="108" t="s">
+        <v>110</v>
+      </c>
+      <c r="N36" s="108"/>
+      <c r="O36" s="78"/>
+      <c r="P36" s="79"/>
+      <c r="AA36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="A14:B17"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="M8:O8"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D6BBBE-C9DF-4D21-98BF-29E96594E7D0}">
   <dimension ref="A1:AA36"/>
   <sheetViews>
@@ -6874,12 +7830,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{263CECC3-3302-44DA-8376-3DD3643BBD45}">
   <dimension ref="A1:AA36"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7780,7 +8736,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7F733B-4F29-4CC7-8875-78DA591CD6C7}">
   <dimension ref="A1:J76"/>
   <sheetViews>

--- a/Strumenti/Schede_DnD_BX91.xlsx
+++ b/Strumenti/Schede_DnD_BX91.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Public\_Clienti\Maruga\Giochi\Vampiri\Vault\Vampiri\Strumenti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13FF9D7-CFD2-4699-8AD5-DE74D9AD05F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042CB0E5-FAA0-4539-935C-DDD191052179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10560" yWindow="0" windowWidth="27396" windowHeight="16656" xr2:uid="{FC328CB3-F1C2-4520-956D-C4D288DB9EEB}"/>
+    <workbookView xWindow="9888" yWindow="0" windowWidth="27396" windowHeight="16656" xr2:uid="{FC328CB3-F1C2-4520-956D-C4D288DB9EEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Halfling A" sheetId="8" r:id="rId1"/>
@@ -2466,7 +2466,7 @@
   <dimension ref="A1:AA40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Strumenti/Schede_DnD_BX91.xlsx
+++ b/Strumenti/Schede_DnD_BX91.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Public\_Clienti\Maruga\Giochi\Vampiri\Vault\Vampiri\Strumenti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785E4C04-EE58-447A-AE63-01E31F193E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FF27FC-1539-4027-B7CD-5AC961E36CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12216" yWindow="0" windowWidth="24120" windowHeight="16656" activeTab="8" xr2:uid="{FC328CB3-F1C2-4520-956D-C4D288DB9EEB}"/>
+    <workbookView xWindow="12216" yWindow="0" windowWidth="24120" windowHeight="16656" activeTab="5" xr2:uid="{FC328CB3-F1C2-4520-956D-C4D288DB9EEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Halfling A" sheetId="8" r:id="rId1"/>
@@ -760,9 +760,6 @@
     <t>Trasportati</t>
   </si>
   <si>
-    <t>Copertura: Parziale -2 TxC | Totale -4 TxC</t>
-  </si>
-  <si>
     <t>Prone: +2 TxC nemici, metà mov per alzarsi</t>
   </si>
   <si>
@@ -1103,6 +1100,9 @@
   </si>
   <si>
     <t>"Compra ora, pentiti dopo. Se torni vivo, sconto del 10%."</t>
+  </si>
+  <si>
+    <t>Copertura: Parziale -2 TxC | Quasi Totale -4 TxC</t>
   </si>
 </sst>
 </file>
@@ -3367,7 +3367,7 @@
     </row>
     <row r="20" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="68" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B20" s="42"/>
       <c r="N20" s="179" t="s">
@@ -3378,7 +3378,7 @@
     </row>
     <row r="21" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="67" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B21" s="28"/>
       <c r="E21" s="138" t="str">
@@ -3390,7 +3390,7 @@
     </row>
     <row r="22" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="70" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B22" s="43"/>
       <c r="E22" s="138" t="str">
@@ -3407,7 +3407,7 @@
     </row>
     <row r="23" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="67" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B23" s="28"/>
       <c r="E23" s="138" t="str">
@@ -3421,7 +3421,7 @@
     </row>
     <row r="24" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="70" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B24" s="43"/>
       <c r="E24" s="138" t="str">
@@ -3439,7 +3439,7 @@
     </row>
     <row r="25" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="67" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B25" s="28"/>
       <c r="C25" s="170"/>
@@ -3473,12 +3473,12 @@
     </row>
     <row r="27" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="75" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B27" s="23"/>
       <c r="E27" s="138" t="str">
         <f>'Cleric A'!E27</f>
-        <v>Copertura: Parziale -2 TxC | Totale -4 TxC</v>
+        <v>Copertura: Parziale -2 TxC | Quasi Totale -4 TxC</v>
       </c>
       <c r="N27" s="172" t="s">
         <v>43</v>
@@ -4333,7 +4333,7 @@
     </row>
     <row r="20" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="68" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B20" s="42"/>
       <c r="N20" s="179" t="s">
@@ -4344,7 +4344,7 @@
     </row>
     <row r="21" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="67" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B21" s="28"/>
       <c r="E21" s="138" t="str">
@@ -4358,7 +4358,7 @@
     </row>
     <row r="22" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="70" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B22" s="43"/>
       <c r="E22" s="138" t="str">
@@ -4376,7 +4376,7 @@
     </row>
     <row r="23" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="67" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B23" s="28"/>
       <c r="E23" s="138" t="str">
@@ -4390,7 +4390,7 @@
     </row>
     <row r="24" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="70" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B24" s="43"/>
       <c r="E24" s="138" t="str">
@@ -4408,7 +4408,7 @@
     </row>
     <row r="25" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="67" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B25" s="28"/>
       <c r="E25" s="138" t="str">
@@ -4440,12 +4440,12 @@
     </row>
     <row r="27" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="75" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B27" s="23"/>
       <c r="E27" s="138" t="str">
         <f>'Cleric A'!E27</f>
-        <v>Copertura: Parziale -2 TxC | Totale -4 TxC</v>
+        <v>Copertura: Parziale -2 TxC | Quasi Totale -4 TxC</v>
       </c>
       <c r="N27" s="141" t="s">
         <v>43</v>
@@ -5309,7 +5309,7 @@
     </row>
     <row r="20" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="68" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B20" s="42"/>
       <c r="N20" s="179" t="s">
@@ -5320,7 +5320,7 @@
     </row>
     <row r="21" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="67" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B21" s="28"/>
       <c r="E21" s="138" t="str">
@@ -5332,7 +5332,7 @@
     </row>
     <row r="22" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="70" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B22" s="43"/>
       <c r="E22" s="138" t="str">
@@ -5349,7 +5349,7 @@
     </row>
     <row r="23" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="67" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B23" s="28"/>
       <c r="E23" s="138" t="str">
@@ -5363,7 +5363,7 @@
     </row>
     <row r="24" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="70" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B24" s="43"/>
       <c r="E24" s="138" t="str">
@@ -5381,7 +5381,7 @@
     </row>
     <row r="25" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="67" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B25" s="28"/>
       <c r="E25" s="138" t="str">
@@ -5413,12 +5413,12 @@
     </row>
     <row r="27" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="75" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B27" s="23"/>
       <c r="E27" s="138" t="str">
         <f>'Cleric A'!E27</f>
-        <v>Copertura: Parziale -2 TxC | Totale -4 TxC</v>
+        <v>Copertura: Parziale -2 TxC | Quasi Totale -4 TxC</v>
       </c>
       <c r="N27" s="141" t="s">
         <v>43</v>
@@ -6295,7 +6295,7 @@
     </row>
     <row r="20" spans="1:21" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="68" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B20" s="42"/>
       <c r="N20" s="179" t="s">
@@ -6306,7 +6306,7 @@
     </row>
     <row r="21" spans="1:21" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="67" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B21" s="28"/>
       <c r="E21" s="138" t="str">
@@ -6318,7 +6318,7 @@
     </row>
     <row r="22" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="70" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B22" s="43"/>
       <c r="E22" s="138" t="str">
@@ -6336,7 +6336,7 @@
     </row>
     <row r="23" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="67" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B23" s="28"/>
       <c r="E23" s="138" t="str">
@@ -6351,7 +6351,7 @@
     </row>
     <row r="24" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="70" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B24" s="43"/>
       <c r="E24" s="138" t="str">
@@ -6371,7 +6371,7 @@
     </row>
     <row r="25" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="67" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B25" s="28"/>
       <c r="E25" s="138" t="str">
@@ -6407,12 +6407,12 @@
     </row>
     <row r="27" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="75" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B27" s="23"/>
       <c r="E27" s="138" t="str">
         <f>'Cleric A'!E27</f>
-        <v>Copertura: Parziale -2 TxC | Totale -4 TxC</v>
+        <v>Copertura: Parziale -2 TxC | Quasi Totale -4 TxC</v>
       </c>
       <c r="N27" s="141" t="s">
         <v>43</v>
@@ -6903,7 +6903,7 @@
         <v>18</v>
       </c>
       <c r="G4" s="168" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -7299,7 +7299,7 @@
     </row>
     <row r="20" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="68" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B20" s="42"/>
       <c r="N20" s="179"/>
@@ -7308,7 +7308,7 @@
     </row>
     <row r="21" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="67" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B21" s="28"/>
       <c r="E21" s="138" t="str">
@@ -7320,7 +7320,7 @@
     </row>
     <row r="22" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="70" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B22" s="43"/>
       <c r="E22" s="138" t="str">
@@ -7337,7 +7337,7 @@
     </row>
     <row r="23" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="67" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B23" s="28"/>
       <c r="E23" s="138" t="str">
@@ -7351,7 +7351,7 @@
     </row>
     <row r="24" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="70" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B24" s="43"/>
       <c r="E24" s="138" t="str">
@@ -7369,7 +7369,7 @@
     </row>
     <row r="25" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="67" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B25" s="28"/>
       <c r="E25" s="138" t="str">
@@ -7401,12 +7401,12 @@
     </row>
     <row r="27" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="75" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B27" s="23"/>
       <c r="E27" s="138" t="str">
         <f>'Cleric A'!E27</f>
-        <v>Copertura: Parziale -2 TxC | Totale -4 TxC</v>
+        <v>Copertura: Parziale -2 TxC | Quasi Totale -4 TxC</v>
       </c>
       <c r="N27" s="141" t="s">
         <v>43</v>
@@ -7765,8 +7765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D6BBBE-C9DF-4D21-98BF-29E96594E7D0}">
   <dimension ref="A1:AA40"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8269,7 +8269,7 @@
     </row>
     <row r="20" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="68" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B20" s="42"/>
       <c r="E20" s="138"/>
@@ -8281,7 +8281,7 @@
     </row>
     <row r="21" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="67" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B21" s="28"/>
       <c r="E21" s="138" t="str">
@@ -8293,7 +8293,7 @@
     </row>
     <row r="22" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="70" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B22" s="43"/>
       <c r="E22" s="138" t="str">
@@ -8311,7 +8311,7 @@
     </row>
     <row r="23" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="67" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B23" s="28"/>
       <c r="E23" s="138" t="str">
@@ -8324,7 +8324,7 @@
     </row>
     <row r="24" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="70" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B24" s="43"/>
       <c r="E24" s="138" t="str">
@@ -8342,7 +8342,7 @@
     </row>
     <row r="25" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="67" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B25" s="28"/>
       <c r="E25" s="138" t="str">
@@ -8374,12 +8374,12 @@
     </row>
     <row r="27" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="75" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B27" s="23"/>
       <c r="E27" s="138" t="str">
         <f>'Cleric A'!E27</f>
-        <v>Copertura: Parziale -2 TxC | Totale -4 TxC</v>
+        <v>Copertura: Parziale -2 TxC | Quasi Totale -4 TxC</v>
       </c>
       <c r="N27" s="141" t="s">
         <v>43</v>
@@ -8748,8 +8748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{263CECC3-3302-44DA-8376-3DD3643BBD45}">
   <dimension ref="A1:AA40"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L50" sqref="L50"/>
+    <sheetView topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9257,7 +9257,7 @@
     </row>
     <row r="20" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="93" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B20" s="92"/>
       <c r="N20" s="185" t="s">
@@ -9268,7 +9268,7 @@
     </row>
     <row r="21" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="94" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B21" s="28"/>
       <c r="E21" s="138" t="s">
@@ -9280,7 +9280,7 @@
     </row>
     <row r="22" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="95" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B22" s="43"/>
       <c r="E22" s="138" t="s">
@@ -9296,7 +9296,7 @@
     </row>
     <row r="23" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="94" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B23" s="28"/>
       <c r="E23" s="138" t="s">
@@ -9309,7 +9309,7 @@
     </row>
     <row r="24" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="95" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B24" s="43"/>
       <c r="E24" s="138" t="s">
@@ -9326,7 +9326,7 @@
     </row>
     <row r="25" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="94" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B25" s="28"/>
       <c r="E25" s="138" t="s">
@@ -9344,7 +9344,7 @@
       </c>
       <c r="B26" s="43"/>
       <c r="E26" s="142" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N26" s="141" t="s">
         <v>39</v>
@@ -9356,11 +9356,11 @@
     </row>
     <row r="27" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="96" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B27" s="23"/>
       <c r="E27" s="142" t="s">
-        <v>238</v>
+        <v>352</v>
       </c>
       <c r="N27" s="141" t="s">
         <v>43</v>
@@ -9371,7 +9371,7 @@
     <row r="28" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="63"/>
       <c r="E28" s="143" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N28" s="141" t="s">
         <v>40</v>
@@ -9383,7 +9383,7 @@
       <c r="A29" s="75"/>
       <c r="B29" s="23"/>
       <c r="E29" s="143" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N29" s="144"/>
       <c r="O29" s="139" t="s">
@@ -11012,7 +11012,7 @@
         <v>0</v>
       </c>
       <c r="B37" s="100" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K37" s="98" t="s">
         <v>209</v>
@@ -11036,10 +11036,10 @@
     </row>
     <row r="38" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="99" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B38" s="110" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C38" s="111"/>
       <c r="D38" s="111"/>
@@ -11050,7 +11050,7 @@
       <c r="I38" s="111"/>
       <c r="J38" s="111"/>
       <c r="K38" s="107" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L38" s="108"/>
       <c r="M38" s="109">
@@ -11071,10 +11071,10 @@
     </row>
     <row r="39" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="99" t="s">
+        <v>251</v>
+      </c>
+      <c r="B39" s="112" t="s">
         <v>252</v>
-      </c>
-      <c r="B39" s="112" t="s">
-        <v>253</v>
       </c>
       <c r="K39" s="98" t="s">
         <v>210</v>
@@ -11101,7 +11101,7 @@
         <v>1</v>
       </c>
       <c r="B40" s="110" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C40" s="110"/>
       <c r="D40" s="110"/>
@@ -11136,7 +11136,7 @@
         <v>2</v>
       </c>
       <c r="B41" s="112" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K41" s="98" t="s">
         <v>212</v>
@@ -11163,7 +11163,7 @@
         <v>3</v>
       </c>
       <c r="B42" s="110" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C42" s="110"/>
       <c r="D42" s="110"/>
@@ -11225,7 +11225,7 @@
     </row>
     <row r="44" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B44" s="113"/>
       <c r="C44" s="19"/>
@@ -11237,7 +11237,7 @@
       <c r="I44" s="19"/>
       <c r="J44" s="3"/>
       <c r="K44" s="107" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L44" s="108"/>
       <c r="M44" s="109">
@@ -11258,7 +11258,7 @@
     </row>
     <row r="45" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B45" s="113"/>
       <c r="C45" s="19"/>
@@ -11285,7 +11285,7 @@
     </row>
     <row r="46" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B46" s="113"/>
       <c r="C46" s="19"/>
@@ -11297,7 +11297,7 @@
       <c r="I46" s="19"/>
       <c r="J46" s="3"/>
       <c r="K46" s="107" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L46" s="108"/>
       <c r="M46" s="109">
@@ -11307,14 +11307,14 @@
         <v>3</v>
       </c>
       <c r="O46" s="109" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P46" s="109"/>
       <c r="Q46" s="109"/>
     </row>
     <row r="47" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B47" s="19"/>
       <c r="C47" s="19"/>
@@ -11388,8 +11388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E7B6F9D-3ED0-4BE0-8E31-DC32197F8094}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11408,10 +11408,10 @@
         <v>45</v>
       </c>
       <c r="C1" s="198" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1" s="198" t="s">
         <v>266</v>
-      </c>
-      <c r="D1" s="198" t="s">
-        <v>267</v>
       </c>
       <c r="E1" s="198" t="s">
         <v>46</v>
@@ -11425,13 +11425,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="199" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C2" s="196">
         <v>6</v>
       </c>
       <c r="D2" s="196" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E2" s="196">
         <v>1</v>
@@ -11443,19 +11443,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="199" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C3" s="196">
         <v>4</v>
       </c>
       <c r="D3" s="196" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E3" s="196">
         <v>1</v>
       </c>
       <c r="F3" s="195" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -11464,19 +11464,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="199" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C4" s="196">
         <v>10</v>
       </c>
       <c r="D4" s="196" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E4" s="196">
         <v>1</v>
       </c>
       <c r="F4" s="195" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -11485,19 +11485,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="199" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C5" s="196">
         <v>6</v>
       </c>
       <c r="D5" s="196" t="s">
+        <v>274</v>
+      </c>
+      <c r="E5" s="196" t="s">
+        <v>330</v>
+      </c>
+      <c r="F5" s="195" t="s">
         <v>275</v>
-      </c>
-      <c r="E5" s="196" t="s">
-        <v>331</v>
-      </c>
-      <c r="F5" s="195" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -11506,19 +11506,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="199" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C6" s="196">
         <v>4</v>
       </c>
       <c r="D6" s="196" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E6" s="196">
         <v>1</v>
       </c>
       <c r="F6" s="195" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -11527,19 +11527,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="199" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C7" s="196">
         <v>6</v>
       </c>
       <c r="D7" s="196" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E7" s="196">
         <v>0</v>
       </c>
       <c r="F7" s="195" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -11548,19 +11548,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="199" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C8" s="196">
         <v>6</v>
       </c>
       <c r="D8" s="196" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E8" s="196">
         <v>1</v>
       </c>
       <c r="F8" s="195" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -11569,13 +11569,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="199" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C9" s="196">
         <v>4</v>
       </c>
       <c r="D9" s="196" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E9" s="196">
         <v>1</v>
@@ -11587,19 +11587,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="199" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C10" s="196">
         <v>2</v>
       </c>
       <c r="D10" s="196" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E10" s="196">
         <v>1</v>
       </c>
       <c r="F10" s="195" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -11608,19 +11608,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="199" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C11" s="196">
         <v>10</v>
       </c>
       <c r="D11" s="196" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E11" s="196">
         <v>0</v>
       </c>
       <c r="F11" s="195" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -11629,19 +11629,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="199" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C12" s="196">
         <v>12</v>
       </c>
       <c r="D12" s="196" t="s">
+        <v>290</v>
+      </c>
+      <c r="E12" s="196" t="s">
+        <v>329</v>
+      </c>
+      <c r="F12" s="195" t="s">
         <v>291</v>
-      </c>
-      <c r="E12" s="196" t="s">
-        <v>330</v>
-      </c>
-      <c r="F12" s="195" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -11650,13 +11650,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="199" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C13" s="196">
         <v>8</v>
       </c>
       <c r="D13" s="196" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E13" s="196">
         <v>1</v>
@@ -11668,13 +11668,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="199" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C14" s="196">
         <v>6</v>
       </c>
       <c r="D14" s="196" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E14" s="196">
         <v>1</v>
@@ -11686,7 +11686,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="199" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C15" s="196">
         <v>10</v>
@@ -11704,19 +11704,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="199" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C16" s="196">
         <v>10</v>
       </c>
       <c r="D16" s="196" t="s">
+        <v>296</v>
+      </c>
+      <c r="E16" s="196" t="s">
+        <v>329</v>
+      </c>
+      <c r="F16" s="195" t="s">
         <v>297</v>
-      </c>
-      <c r="E16" s="196" t="s">
-        <v>330</v>
-      </c>
-      <c r="F16" s="195" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -11725,19 +11725,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="199" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C17" s="196">
         <v>6</v>
       </c>
       <c r="D17" s="196" t="s">
+        <v>299</v>
+      </c>
+      <c r="E17" s="196" t="s">
+        <v>329</v>
+      </c>
+      <c r="F17" s="195" t="s">
         <v>300</v>
-      </c>
-      <c r="E17" s="196" t="s">
-        <v>330</v>
-      </c>
-      <c r="F17" s="195" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -11746,19 +11746,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="199" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C18" s="196">
         <v>2</v>
       </c>
       <c r="D18" s="196" t="s">
+        <v>302</v>
+      </c>
+      <c r="E18" s="196" t="s">
+        <v>329</v>
+      </c>
+      <c r="F18" s="195" t="s">
         <v>303</v>
-      </c>
-      <c r="E18" s="196" t="s">
-        <v>330</v>
-      </c>
-      <c r="F18" s="195" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -11767,19 +11767,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="199" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C19" s="196">
         <v>2</v>
       </c>
       <c r="D19" s="196" t="s">
+        <v>305</v>
+      </c>
+      <c r="E19" s="196" t="s">
+        <v>329</v>
+      </c>
+      <c r="F19" s="195" t="s">
         <v>306</v>
-      </c>
-      <c r="E19" s="196" t="s">
-        <v>330</v>
-      </c>
-      <c r="F19" s="195" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -11788,19 +11788,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="199" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C20" s="196">
         <v>3</v>
       </c>
       <c r="D20" s="196" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E20" s="196" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F20" s="195" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -11809,16 +11809,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="199" t="s">
+        <v>335</v>
+      </c>
+      <c r="D21" s="196" t="s">
+        <v>302</v>
+      </c>
+      <c r="E21" s="196" t="s">
+        <v>329</v>
+      </c>
+      <c r="F21" s="195" t="s">
         <v>336</v>
-      </c>
-      <c r="D21" s="196" t="s">
-        <v>303</v>
-      </c>
-      <c r="E21" s="196" t="s">
-        <v>330</v>
-      </c>
-      <c r="F21" s="195" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -11827,19 +11827,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="199" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C22" s="196">
         <v>4</v>
       </c>
       <c r="D22" s="196" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E22" s="196" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F22" s="195" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -11848,19 +11848,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="199" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C23" s="196">
         <v>2</v>
       </c>
       <c r="D23" s="196" t="s">
+        <v>338</v>
+      </c>
+      <c r="E23" s="196" t="s">
+        <v>329</v>
+      </c>
+      <c r="F23" s="195" t="s">
         <v>339</v>
-      </c>
-      <c r="E23" s="196" t="s">
-        <v>330</v>
-      </c>
-      <c r="F23" s="195" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -11869,19 +11869,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="199" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C24" s="196">
         <v>3</v>
       </c>
       <c r="D24" s="196" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E24" s="196">
         <v>0</v>
       </c>
       <c r="F24" s="195" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -11890,19 +11890,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="199" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C25" s="196">
         <v>2</v>
       </c>
       <c r="D25" s="196" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E25" s="196">
         <v>0</v>
       </c>
       <c r="F25" s="195" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -11911,19 +11911,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="199" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C26" s="196">
         <v>2</v>
       </c>
       <c r="D26" s="196" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E26" s="196">
         <v>0</v>
       </c>
       <c r="F26" s="195" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -11932,19 +11932,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="199" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C27" s="196">
         <v>2</v>
       </c>
       <c r="D27" s="196" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E27" s="196">
         <v>0</v>
       </c>
       <c r="F27" s="195" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -11953,19 +11953,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="199" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C28" s="196">
         <v>1</v>
       </c>
       <c r="D28" s="196" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E28" s="196">
         <v>0</v>
       </c>
       <c r="F28" s="195" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -11974,19 +11974,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="199" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C29" s="196">
         <v>1</v>
       </c>
       <c r="D29" s="196" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E29" s="196">
         <v>0</v>
       </c>
       <c r="F29" s="195" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -11995,19 +11995,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="199" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C30" s="196">
         <v>4</v>
       </c>
       <c r="D30" s="196" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E30" s="196">
         <v>0</v>
       </c>
       <c r="F30" s="195" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -12016,19 +12016,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="199" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C31" s="196">
         <v>2</v>
       </c>
       <c r="D31" s="196" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E31" s="196">
         <v>0</v>
       </c>
       <c r="F31" s="195" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -12037,19 +12037,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="199" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C32" s="196">
         <v>3</v>
       </c>
       <c r="D32" s="196" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E32" s="196">
         <v>0</v>
       </c>
       <c r="F32" s="195" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -12058,19 +12058,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="199" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C33" s="196">
         <v>2</v>
       </c>
       <c r="D33" s="196" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E33" s="196">
         <v>0</v>
       </c>
       <c r="F33" s="195" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -12079,19 +12079,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="199" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C34" s="196">
         <v>2</v>
       </c>
       <c r="D34" s="196" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E34" s="196">
         <v>0</v>
       </c>
       <c r="F34" s="195" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="8.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12100,19 +12100,19 @@
         <v>40</v>
       </c>
       <c r="B36" s="201" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C36" s="202">
         <v>3</v>
       </c>
       <c r="D36" s="202" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E36" s="202">
         <v>0</v>
       </c>
       <c r="F36" s="203" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -12120,19 +12120,19 @@
         <v>41</v>
       </c>
       <c r="B37" s="199" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C37" s="196">
         <v>2</v>
       </c>
       <c r="D37" s="196" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E37" s="196">
         <v>0</v>
       </c>
       <c r="F37" s="195" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -12140,19 +12140,19 @@
         <v>42</v>
       </c>
       <c r="B38" s="201" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C38" s="202">
         <v>4</v>
       </c>
       <c r="D38" s="202" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E38" s="202">
         <v>0</v>
       </c>
       <c r="F38" s="203" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -12160,25 +12160,25 @@
         <v>43</v>
       </c>
       <c r="B39" s="199" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C39" s="196">
         <v>3</v>
       </c>
       <c r="D39" s="196" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E39" s="196">
         <v>1</v>
       </c>
       <c r="F39" s="195" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="5.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B41" s="200" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C41" s="200"/>
       <c r="D41" s="200"/>

--- a/Strumenti/Schede_DnD_BX91.xlsx
+++ b/Strumenti/Schede_DnD_BX91.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Public\_Clienti\Maruga\Giochi\Vampiri\Vault\Vampiri\Strumenti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FF27FC-1539-4027-B7CD-5AC961E36CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EDC8A7-DE2C-4A6E-950A-A3D2E2F2B60E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12216" yWindow="0" windowWidth="24120" windowHeight="16656" activeTab="5" xr2:uid="{FC328CB3-F1C2-4520-956D-C4D288DB9EEB}"/>
+    <workbookView xWindow="12156" yWindow="0" windowWidth="29712" windowHeight="16656" firstSheet="2" activeTab="8" xr2:uid="{FC328CB3-F1C2-4520-956D-C4D288DB9EEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Halfling A" sheetId="8" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Cleric A" sheetId="1" r:id="rId7"/>
     <sheet name="Oggetti" sheetId="2" r:id="rId8"/>
     <sheet name="Emporio" sheetId="9" r:id="rId9"/>
+    <sheet name="Foglio1" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="376">
   <si>
     <t>Giocatore</t>
   </si>
@@ -856,72 +857,45 @@
     <t>Asta 10 piedi</t>
   </si>
   <si>
-    <t>Attiva trappole a distanza</t>
-  </si>
-  <si>
     <t>Torce (6)</t>
   </si>
   <si>
-    <t>Luce 30', durata 1 ora, 1d4 danni</t>
-  </si>
-  <si>
     <t>Olio (fiasca)</t>
   </si>
   <si>
     <t>1 mo</t>
   </si>
   <si>
-    <t>Lanciato: 1d8 danni per 2 round; a terra: 3' diametro, 1d8 a chi attraversa</t>
-  </si>
-  <si>
     <t>Lanterna</t>
   </si>
   <si>
     <t>5 mo</t>
   </si>
   <si>
-    <t>Luce 30', durata 4 ore per fiasca olio</t>
-  </si>
-  <si>
     <t>Specchio (piccolo)</t>
   </si>
   <si>
     <t>2 mo</t>
   </si>
   <si>
-    <t>Guardare angoli, riflettere sguardi</t>
-  </si>
-  <si>
     <t>Chiodi ferro (12)</t>
   </si>
   <si>
-    <t>Bloccare/aprire porte</t>
-  </si>
-  <si>
     <t>Martello</t>
   </si>
   <si>
     <t>Sacco (grande)</t>
   </si>
   <si>
-    <t>Contiene +3 slot, oggetti non fragili, 1 round per estrarre</t>
-  </si>
-  <si>
     <t>Gesso (12 pezzi)</t>
   </si>
   <si>
-    <t>Segnare percorso</t>
-  </si>
-  <si>
     <t>Acqua Santa (fiala)</t>
   </si>
   <si>
     <t>12 mo</t>
   </si>
   <si>
-    <t>1d8 danni a non-morti, ignora armatura</t>
-  </si>
-  <si>
     <t>Frecce (20)</t>
   </si>
   <si>
@@ -937,57 +911,36 @@
     <t>150 mo</t>
   </si>
   <si>
-    <t>Cura 1d6+1 PF</t>
-  </si>
-  <si>
     <t>Pozione Cura Grave</t>
   </si>
   <si>
     <t>300 mo</t>
   </si>
   <si>
-    <t>Cura 2d6+2 PF</t>
-  </si>
-  <si>
     <t>Pozione Velocità</t>
   </si>
   <si>
     <t>250 mo</t>
   </si>
   <si>
-    <t>Movimento x2, durata 1 turno</t>
-  </si>
-  <si>
     <t>Pozione Invisibilità</t>
   </si>
   <si>
     <t>200 mo</t>
   </si>
   <si>
-    <t>Invisibile finché non attacca</t>
-  </si>
-  <si>
     <t>Pozione Levitazione</t>
   </si>
   <si>
-    <t>Muove verticalmente 6'/round, durata 6 turni</t>
-  </si>
-  <si>
     <t>Pergamena: Dardo Incantato</t>
   </si>
   <si>
     <t>50 mo</t>
   </si>
   <si>
-    <t>1d6+1 danni, colpo automatico</t>
-  </si>
-  <si>
     <t>Pergamena: Scudo</t>
   </si>
   <si>
-    <t>CA 2 vs missili, CA 4 vs mischia, durata 2 turni</t>
-  </si>
-  <si>
     <t>Pergamena: Invisibilità</t>
   </si>
   <si>
@@ -997,75 +950,42 @@
     <t>Pergamena: Ragnatela</t>
   </si>
   <si>
-    <t>10'x10'x10', blocca movimento, FOR per liberarsi</t>
-  </si>
-  <si>
     <t>Pergamena: Palla di Fuoco</t>
   </si>
   <si>
-    <t>6d6 danni, raggio 20' (4□), TS dimezza</t>
-  </si>
-  <si>
     <t>Pergamena: Fulmine</t>
   </si>
   <si>
-    <t>6d6 danni, linea 60'x5' (12□x1□), rimbalza su muri, TS dimezza</t>
-  </si>
-  <si>
     <t>Pergamena: Cura Ferite Leggere</t>
   </si>
   <si>
     <t>Pergamena: Protezione dal Male</t>
   </si>
   <si>
-    <t>-1 TxC nemici, +1 TS, durata 12 turni</t>
-  </si>
-  <si>
     <t>Pergamena: Luce</t>
   </si>
   <si>
-    <t>Luce 15' raggio, durata 12 turni</t>
-  </si>
-  <si>
     <t>Pergamena: Benedizione</t>
   </si>
   <si>
-    <t>Alleati +1 TxC e morale, durata 6 turni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⅓ </t>
-  </si>
-  <si>
     <t>½</t>
   </si>
   <si>
     <t>Pergamena: Rimuovi Maledizione</t>
   </si>
   <si>
-    <t>Rimuove una maledizione. Solo Chierico</t>
-  </si>
-  <si>
     <t>Pozione Resistenza al Freddo</t>
   </si>
   <si>
-    <t>Immune danni freddo, 1 turno</t>
-  </si>
-  <si>
     <t>Pozione Forza Gigante</t>
   </si>
   <si>
-    <t>FOR 18 (+3 TxC/danni), 1 turno</t>
-  </si>
-  <si>
     <t>Pozione Volo</t>
   </si>
   <si>
     <t>400 mo</t>
   </si>
   <si>
-    <t>Vola 120', 1d6 turni</t>
-  </si>
-  <si>
     <t>Calzini della Zia Elfica</t>
   </si>
   <si>
@@ -1087,9 +1007,6 @@
     <t>30 mo</t>
   </si>
   <si>
-    <t>"Li ho fatti io, caro." Profumano di biscotti e senso di colpa.</t>
-  </si>
-  <si>
     <t>Brutto. Caldo. Impossibile da togliere senza offendere qualcuno.</t>
   </si>
   <si>
@@ -1099,10 +1016,163 @@
     <t>Comprato di corsa, donato con amore. Non finisce mai, come i sensi di colpa.</t>
   </si>
   <si>
-    <t>"Compra ora, pentiti dopo. Se torni vivo, sconto del 10%."</t>
-  </si>
-  <si>
     <t>Copertura: Parziale -2 TxC | Quasi Totale -4 TxC</t>
+  </si>
+  <si>
+    <t>Supporta 3 persone/500 lb. Arrampicata senza tiro se non sotto stress. Sotto attacco: DES per non cadere.</t>
+  </si>
+  <si>
+    <t>Attiva trappole a 10' (2□). Sondare pavimenti/soffitti. Due mani.</t>
+  </si>
+  <si>
+    <t>Luce 30' (6□), 1 ora ciascuna. Una mano. Come arma: 1d4 fuoco. Accendere: 1 round.</t>
+  </si>
+  <si>
+    <t>Lanciato acceso (10'): TxC vs CA 9 a terra, CA normale su creatura. 1d8 fuoco, brucia 2 round (1d8/round). Pozza: 3' diametro, 1d8 a chi attraversa, 1 turno.</t>
+  </si>
+  <si>
+    <t>Luce 30' (6□), 4 ore per fiasca olio. Una mano. Appendibile. Vento non la spegne.</t>
+  </si>
+  <si>
+    <t>Guardare angoli senza esporsi. Riflette sguardo pietrificante: mostro TS Pietrificazione o subisce effetto.</t>
+  </si>
+  <si>
+    <t>Blocca porta: nemico deve sfondare (FOR o 2d6 alla porta). Rimuovere: 1 turno senza martello, 1 round con.</t>
+  </si>
+  <si>
+    <t>Piantare/rimuovere chiodi (1 round). Arma improvvisata: 1d4.</t>
+  </si>
+  <si>
+    <t>+3 slot extra. Solo non fragili. Estrarre: 1 round (azione completa).</t>
+  </si>
+  <si>
+    <t>Segnare percorso, pareti, porte.</t>
+  </si>
+  <si>
+    <t>⅓</t>
+  </si>
+  <si>
+    <t>Lanciata (10'): TxC normale. 1d8 vs non-morti/infernali. Ignora armatura (CA 9). Si rompe all'impatto.</t>
+  </si>
+  <si>
+    <t>Per arco corto/lungo. Recuperabili 50% (1-3 su d6).</t>
+  </si>
+  <si>
+    <t>Per balestra. Recuperabili 50%.</t>
+  </si>
+  <si>
+    <t>—</t>
+  </si>
+  <si>
+    <t>Per fionda. Gratuite se raccolte. Recuperabili 50%.</t>
+  </si>
+  <si>
+    <t>Cura 1d6+1 HP. Bere = azione (no attacco, sì movimento). Da zaino: 1 round estrarre + 1 round bere.</t>
+  </si>
+  <si>
+    <t>Cura 2d6+2 HP. Stesse regole Cura Leggera.</t>
+  </si>
+  <si>
+    <t>Durata 1 turno (10 round). Movimento x2, 2 attacchi/round. Non cumulabile.</t>
+  </si>
+  <si>
+    <t>Durata: fino a interruzione. Termina se attacchi/lanci incantesimo/tocchi nemico. Nemici -4 TxC. Infravisione non rileva.</t>
+  </si>
+  <si>
+    <t>Durata 1 turno (10 round). Immune a tutti i danni freddo.</t>
+  </si>
+  <si>
+    <t>Durata 1 turno (10 round). FOR 18 (+3 TxC/danni mischia). Non vale per distanza.</t>
+  </si>
+  <si>
+    <t>Durata 6 turni (60 round). Solo verticale 6'/round (20' senza carico). No movimento orizzontale autonomo.</t>
+  </si>
+  <si>
+    <t>Durata 1d6 turni (tirare quando bevi). Movimento 120' (40' combattimento). Se termina in volo: 1d6/10' caduta.</t>
+  </si>
+  <si>
+    <t>Solo Mago/Elfo. Liv.5: 1 dardo, 1d6+1 danni. Colpo automatico. Gittata 150'. Azione: leggere.</t>
+  </si>
+  <si>
+    <t>Solo Mago/Elfo. Durata 2 turni (20 round). CA 2 vs distanza, CA 4 vs mischia. Blocca Dardo Incantato.</t>
+  </si>
+  <si>
+    <t>Solo Mago/Elfo. Bersaglio: sé o 1 toccato. Durata: fino a interruzione. Nemici -4 TxC.</t>
+  </si>
+  <si>
+    <t>Solo Mago/Elfo. Area 10'x10'x10' (2x2x2□). Gittata 10'. Liberarsi: FOR ogni round (1 nat. FOR norm, 1-2 FOR 13-17, 1-3 FOR 18). Fuoco brucia in 2 round (1d6 a intrappolati).</t>
+  </si>
+  <si>
+    <t>Solo Mago/Elfo. Liv.5: 5d6 fuoco. TS Incantesimi dimezza. Sfera 20' raggio (4□). Gittata 240'. Espande in spazi chiusi.</t>
+  </si>
+  <si>
+    <t>Solo Mago/Elfo. Liv.5: 5d6 fulmine. TS Incantesimi dimezza. Linea 60'x5' (12x1□). Rimbalza su muri (tot. 60'). Colpisce tutti inclusi alleati.</t>
+  </si>
+  <si>
+    <t>Solo Chierico. Cura 1d6+1 HP. Tocco. Alternativa: 1d6+1 danni a non-morti (TxC richiesto).</t>
+  </si>
+  <si>
+    <t>Mago/Elfo/Chierico. Durata 12 turni (120 round). Creature malvagie -1 TxC, +1 tuoi TS. Evocati non ti toccano.</t>
+  </si>
+  <si>
+    <t>Mago/Elfo/Chierico. Durata 12 turni. Luce 15' (3□). Su oggetto o punto fisso. Su occhi nemico: TS Incantesimi o accecato (-4 TxC, nemici +4). Gittata 120'.</t>
+  </si>
+  <si>
+    <t>Solo Chierico. Durata 6 turni (60 round). Alleati entro 60': +1 TxC, +1 morale, +1 danni. Solo PRIMA del combattimento.</t>
+  </si>
+  <si>
+    <t>Solo Chierico. Rimuove 1 maledizione da creatura/oggetto toccato. Non funziona su licantropia.</t>
+  </si>
+  <si>
+    <t>Li ho fatti io, caro. Profumano di biscotti e senso di colpa.</t>
+  </si>
+  <si>
+    <t>Attiva trappole a 10'/3m/2□. Sondare pavimenti/soffitti. Due mani.</t>
+  </si>
+  <si>
+    <t>Luce 30'/9m/6□, 1 ora ciascuna. Una mano. Come arma: 1d4 fuoco. Accendere: 1 round.</t>
+  </si>
+  <si>
+    <t>Lanciato acceso (10'/3m/2□): TxC vs CA 9 a terra, CA normale su creatura. 1d8 fuoco, brucia 2 round (1d8/round). Pozza: 3'/1m diametro, 1d8 a chi attraversa, 1 turno.</t>
+  </si>
+  <si>
+    <t>Luce 30'/9m/6□, 4 ore per fiasca olio. Una mano. Appendibile. Vento non la spegne.</t>
+  </si>
+  <si>
+    <t>Lanciata (10'/3m/2□): TxC normale. 1d8 vs non-morti/infernali. Ignora armatura (CA 9). Si rompe all'impatto.</t>
+  </si>
+  <si>
+    <t>Durata 6 turni (60 round). Solo verticale 6'/1.8m/round (20'/6m senza carico). No movimento orizzontale autonomo.</t>
+  </si>
+  <si>
+    <t>Durata 1d6 turni (tirare quando bevi). Movimento 120'/36m/24□ (40'/12m/8□ combattimento). Se termina in volo: 1d6 per 10'/3m caduta.</t>
+  </si>
+  <si>
+    <t>Solo Mago/Elfo. Liv.5: 1 dardo, 1d6+1 danni. Colpo automatico. Gittata 150'/45m/30□. Azione: leggere.</t>
+  </si>
+  <si>
+    <t>Solo Mago/Elfo. Area 10'x10'x10'/3mx3mx3m/2□x2□x2□. Gittata 10'/3m/2□. Liberarsi: FOR ogni round (1 nat. FOR norm, 1-2 FOR 13-17, 1-3 FOR 18). Fuoco brucia in 2 round (1d6 a intrappolati).</t>
+  </si>
+  <si>
+    <t>Solo Mago/Elfo. Liv.5: 5d6 fuoco. TS Incantesimi dimezza. Sfera raggio 20'/6m/4□. Gittata 240'/72m/48□. Espande in spazi chiusi.</t>
+  </si>
+  <si>
+    <t>Solo Mago/Elfo. Liv.5: 5d6 fulmine. TS Incantesimi dimezza. Linea 60'x5'/18mx1.5m/12□x1□. Rimbalza su muri (tot. 60'/18m). Colpisce tutti inclusi alleati.</t>
+  </si>
+  <si>
+    <t>Mago/Elfo/Chierico. Durata 12 turni. Luce raggio 15'/4.5m/3□. Su oggetto o punto fisso. Su occhi nemico: TS Incantesimi o accecato (-4 TxC, nemici +4). Gittata 120'/36m/24□.</t>
+  </si>
+  <si>
+    <t>Solo Chierico. Durata 6 turni (60 round). Alleati entro 60'/18m/12□: +1 TxC, +1 morale, +1 danni. Solo PRIMA del combattimento.</t>
+  </si>
+  <si>
+    <t>Compra ora, pentiti dopo. Se torni vivo, sconto del 10%.</t>
+  </si>
+  <si>
+    <t>Pozioni Cura — "Bevi prima di morire!"</t>
+  </si>
+  <si>
+    <t>Pergamena Fulmine — "60 piedi di 'non mi hai sentito la prima volta'."</t>
   </si>
 </sst>
 </file>
@@ -1113,7 +1183,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1418,7 +1488,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Aptos"/>
       <family val="2"/>
@@ -1511,7 +1595,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.89999084444715716"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1774,7 +1858,7 @@
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="206">
+  <cellXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2276,6 +2360,27 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2342,38 +2447,23 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2393,7 +2483,26 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color theme="1"/>
         <name val="Aptos"/>
         <family val="2"/>
@@ -2431,26 +2540,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="14"/>
         <color theme="1"/>
         <name val="Aptos"/>
         <family val="2"/>
@@ -2529,13 +2619,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6CFC2B8A-D537-42C2-9576-BDC96890C46F}" name="Tabella1" displayName="Tabella1" ref="B1:F39" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6CFC2B8A-D537-42C2-9576-BDC96890C46F}" name="Tabella1" displayName="Tabella1" ref="A1:E40" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{BE96BCF5-334D-4F20-8722-3145ABDC81EA}" name="Oggetto" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{23DBEE6D-E19E-482F-A20A-3F3284C9D84B}" name="Qtà" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{23DBEE6D-E19E-482F-A20A-3F3284C9D84B}" name="Qt." dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{CE44C6FC-0DBC-4316-AC79-C083711A35A2}" name="Costo" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{13F2738A-AAED-4162-A6FC-D1A5B56EBD56}" name="Slot" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{C208413F-8AA4-49BE-A972-17EB9781744E}" name="Note" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{13F2738A-AAED-4162-A6FC-D1A5B56EBD56}" name="Slot" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{C208413F-8AA4-49BE-A972-17EB9781744E}" name="Note" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3006,24 +3096,24 @@
       <c r="B6" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="177" t="s">
+      <c r="C6" s="184" t="s">
         <v>169</v>
       </c>
-      <c r="D6" s="177"/>
-      <c r="E6" s="177"/>
-      <c r="F6" s="177"/>
-      <c r="G6" s="177"/>
-      <c r="H6" s="177"/>
-      <c r="I6" s="177"/>
+      <c r="D6" s="184"/>
+      <c r="E6" s="184"/>
+      <c r="F6" s="184"/>
+      <c r="G6" s="184"/>
+      <c r="H6" s="184"/>
+      <c r="I6" s="184"/>
       <c r="J6" s="127">
         <v>1</v>
       </c>
       <c r="K6" s="127"/>
-      <c r="M6" s="178" t="s">
+      <c r="M6" s="185" t="s">
         <v>51</v>
       </c>
-      <c r="N6" s="178"/>
-      <c r="O6" s="178"/>
+      <c r="N6" s="185"/>
+      <c r="O6" s="185"/>
       <c r="P6" s="61">
         <v>6</v>
       </c>
@@ -3035,24 +3125,24 @@
       <c r="B7" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="177" t="s">
+      <c r="C7" s="184" t="s">
         <v>116</v>
       </c>
-      <c r="D7" s="177"/>
-      <c r="E7" s="177"/>
-      <c r="F7" s="177"/>
-      <c r="G7" s="177"/>
-      <c r="H7" s="177"/>
-      <c r="I7" s="177"/>
+      <c r="D7" s="184"/>
+      <c r="E7" s="184"/>
+      <c r="F7" s="184"/>
+      <c r="G7" s="184"/>
+      <c r="H7" s="184"/>
+      <c r="I7" s="184"/>
       <c r="J7" s="127">
         <v>1</v>
       </c>
       <c r="K7" s="127"/>
-      <c r="M7" s="178" t="s">
+      <c r="M7" s="185" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="178"/>
-      <c r="O7" s="178"/>
+      <c r="N7" s="185"/>
+      <c r="O7" s="185"/>
       <c r="P7" s="61">
         <v>7</v>
       </c>
@@ -3064,24 +3154,24 @@
       <c r="B8" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="177" t="s">
+      <c r="C8" s="184" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="177"/>
-      <c r="E8" s="177"/>
-      <c r="F8" s="177"/>
-      <c r="G8" s="177"/>
-      <c r="H8" s="177"/>
-      <c r="I8" s="177"/>
+      <c r="D8" s="184"/>
+      <c r="E8" s="184"/>
+      <c r="F8" s="184"/>
+      <c r="G8" s="184"/>
+      <c r="H8" s="184"/>
+      <c r="I8" s="184"/>
       <c r="J8" s="127">
         <v>0</v>
       </c>
       <c r="K8" s="127"/>
-      <c r="M8" s="178" t="s">
+      <c r="M8" s="185" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="178"/>
-      <c r="O8" s="178"/>
+      <c r="N8" s="185"/>
+      <c r="O8" s="185"/>
       <c r="P8" s="61">
         <v>8</v>
       </c>
@@ -3093,24 +3183,24 @@
       <c r="B9" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="177" t="s">
+      <c r="C9" s="184" t="s">
         <v>131</v>
       </c>
-      <c r="D9" s="177"/>
-      <c r="E9" s="177"/>
-      <c r="F9" s="177"/>
-      <c r="G9" s="177"/>
-      <c r="H9" s="177"/>
-      <c r="I9" s="177"/>
+      <c r="D9" s="184"/>
+      <c r="E9" s="184"/>
+      <c r="F9" s="184"/>
+      <c r="G9" s="184"/>
+      <c r="H9" s="184"/>
+      <c r="I9" s="184"/>
       <c r="J9" s="127">
         <v>1</v>
       </c>
       <c r="K9" s="127"/>
-      <c r="M9" s="178" t="s">
+      <c r="M9" s="185" t="s">
         <v>12</v>
       </c>
-      <c r="N9" s="178"/>
-      <c r="O9" s="178"/>
+      <c r="N9" s="185"/>
+      <c r="O9" s="185"/>
       <c r="P9" s="61">
         <v>10</v>
       </c>
@@ -3122,24 +3212,24 @@
       <c r="B10" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="177" t="s">
+      <c r="C10" s="184" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="177"/>
-      <c r="E10" s="177"/>
-      <c r="F10" s="177"/>
-      <c r="G10" s="177"/>
-      <c r="H10" s="177"/>
-      <c r="I10" s="177"/>
+      <c r="D10" s="184"/>
+      <c r="E10" s="184"/>
+      <c r="F10" s="184"/>
+      <c r="G10" s="184"/>
+      <c r="H10" s="184"/>
+      <c r="I10" s="184"/>
       <c r="J10" s="127">
         <v>0</v>
       </c>
       <c r="K10" s="127"/>
-      <c r="M10" s="178" t="s">
+      <c r="M10" s="185" t="s">
         <v>13</v>
       </c>
-      <c r="N10" s="178"/>
-      <c r="O10" s="178"/>
+      <c r="N10" s="185"/>
+      <c r="O10" s="185"/>
       <c r="P10" s="61">
         <v>10</v>
       </c>
@@ -3151,15 +3241,15 @@
       <c r="B11" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="177" t="s">
+      <c r="C11" s="184" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="177"/>
-      <c r="E11" s="177"/>
-      <c r="F11" s="177"/>
-      <c r="G11" s="177"/>
-      <c r="H11" s="177"/>
-      <c r="I11" s="177"/>
+      <c r="D11" s="184"/>
+      <c r="E11" s="184"/>
+      <c r="F11" s="184"/>
+      <c r="G11" s="184"/>
+      <c r="H11" s="184"/>
+      <c r="I11" s="184"/>
       <c r="J11" s="127">
         <v>0</v>
       </c>
@@ -3201,10 +3291,10 @@
       <c r="P13" s="65"/>
     </row>
     <row r="14" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="173" t="s">
+      <c r="A14" s="180" t="s">
         <v>172</v>
       </c>
-      <c r="B14" s="174"/>
+      <c r="B14" s="181"/>
       <c r="E14" s="128" t="s">
         <v>21</v>
       </c>
@@ -3229,8 +3319,8 @@
       <c r="P14" s="57"/>
     </row>
     <row r="15" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="175"/>
-      <c r="B15" s="176"/>
+      <c r="A15" s="182"/>
+      <c r="B15" s="183"/>
       <c r="E15" s="131" t="s">
         <v>37</v>
       </c>
@@ -3257,8 +3347,8 @@
       <c r="P15" s="57"/>
     </row>
     <row r="16" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="175"/>
-      <c r="B16" s="176"/>
+      <c r="A16" s="182"/>
+      <c r="B16" s="183"/>
       <c r="E16" s="128" t="s">
         <v>18</v>
       </c>
@@ -3370,11 +3460,11 @@
         <v>241</v>
       </c>
       <c r="B20" s="42"/>
-      <c r="N20" s="179" t="s">
+      <c r="N20" s="186" t="s">
         <v>179</v>
       </c>
-      <c r="O20" s="179"/>
-      <c r="P20" s="180"/>
+      <c r="O20" s="186"/>
+      <c r="P20" s="187"/>
     </row>
     <row r="21" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="67" t="s">
@@ -3625,10 +3715,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M37" s="181" t="s">
+      <c r="M37" s="188" t="s">
         <v>26</v>
       </c>
-      <c r="N37" s="181"/>
+      <c r="N37" s="188"/>
       <c r="O37" s="29" t="s">
         <v>27</v>
       </c>
@@ -3680,10 +3770,10 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="M38" s="182" t="s">
+      <c r="M38" s="189" t="s">
         <v>200</v>
       </c>
-      <c r="N38" s="182"/>
+      <c r="N38" s="189"/>
       <c r="P38" s="62"/>
     </row>
     <row r="39" spans="1:27" ht="18" x14ac:dyDescent="0.3">
@@ -3732,10 +3822,10 @@
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="M39" s="183" t="s">
+      <c r="M39" s="190" t="s">
         <v>176</v>
       </c>
-      <c r="N39" s="183"/>
+      <c r="N39" s="190"/>
       <c r="O39" s="3" t="s">
         <v>118</v>
       </c>
@@ -3788,10 +3878,10 @@
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="M40" s="184" t="s">
+      <c r="M40" s="191" t="s">
         <v>84</v>
       </c>
-      <c r="N40" s="184"/>
+      <c r="N40" s="191"/>
       <c r="O40" s="83" t="s">
         <v>201</v>
       </c>
@@ -3822,11 +3912,672 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD657F1-E336-410C-9241-AFD526F14E54}">
+  <dimension ref="A1:E38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D5" t="s">
+        <v>307</v>
+      </c>
+      <c r="E5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>274</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>275</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>277</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>268</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>278</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>272</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>279</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>272</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>280</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>268</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>281</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>282</v>
+      </c>
+      <c r="D12" t="s">
+        <v>334</v>
+      </c>
+      <c r="E12" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>283</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>276</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>284</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>274</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>285</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>338</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>286</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>287</v>
+      </c>
+      <c r="D16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E16" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>288</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>289</v>
+      </c>
+      <c r="D17" t="s">
+        <v>334</v>
+      </c>
+      <c r="E17" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>290</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>291</v>
+      </c>
+      <c r="D18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E18" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>292</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>293</v>
+      </c>
+      <c r="D19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E19" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>309</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>293</v>
+      </c>
+      <c r="D20" t="s">
+        <v>334</v>
+      </c>
+      <c r="E20" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>310</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>291</v>
+      </c>
+      <c r="D21" t="s">
+        <v>334</v>
+      </c>
+      <c r="E21" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>294</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>293</v>
+      </c>
+      <c r="D22" t="s">
+        <v>334</v>
+      </c>
+      <c r="E22" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>311</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>312</v>
+      </c>
+      <c r="D23" t="s">
+        <v>334</v>
+      </c>
+      <c r="E23" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>295</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>296</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>297</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>296</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>298</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>299</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>300</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>299</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>301</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>293</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>302</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>293</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>303</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>296</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>304</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>296</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>305</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>296</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>306</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>299</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>308</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>293</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>313</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>317</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>314</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>296</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>315</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>318</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>316</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>319</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>322</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF42BED5-6492-4A4B-BB83-28F0C7345C12}">
   <dimension ref="A1:AA40"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
@@ -3972,24 +4723,24 @@
       <c r="B6" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="177" t="s">
+      <c r="C6" s="184" t="s">
         <v>115</v>
       </c>
-      <c r="D6" s="177"/>
-      <c r="E6" s="177"/>
-      <c r="F6" s="177"/>
-      <c r="G6" s="177"/>
-      <c r="H6" s="177"/>
-      <c r="I6" s="177"/>
+      <c r="D6" s="184"/>
+      <c r="E6" s="184"/>
+      <c r="F6" s="184"/>
+      <c r="G6" s="184"/>
+      <c r="H6" s="184"/>
+      <c r="I6" s="184"/>
       <c r="J6" s="127">
         <v>2</v>
       </c>
       <c r="K6" s="127"/>
-      <c r="M6" s="178" t="s">
+      <c r="M6" s="185" t="s">
         <v>51</v>
       </c>
-      <c r="N6" s="178"/>
-      <c r="O6" s="178"/>
+      <c r="N6" s="185"/>
+      <c r="O6" s="185"/>
       <c r="P6" s="61">
         <v>10</v>
       </c>
@@ -4001,24 +4752,24 @@
       <c r="B7" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="177" t="s">
+      <c r="C7" s="184" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="177"/>
-      <c r="E7" s="177"/>
-      <c r="F7" s="177"/>
-      <c r="G7" s="177"/>
-      <c r="H7" s="177"/>
-      <c r="I7" s="177"/>
+      <c r="D7" s="184"/>
+      <c r="E7" s="184"/>
+      <c r="F7" s="184"/>
+      <c r="G7" s="184"/>
+      <c r="H7" s="184"/>
+      <c r="I7" s="184"/>
       <c r="J7" s="127">
         <v>0</v>
       </c>
       <c r="K7" s="127"/>
-      <c r="M7" s="178" t="s">
+      <c r="M7" s="185" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="178"/>
-      <c r="O7" s="178"/>
+      <c r="N7" s="185"/>
+      <c r="O7" s="185"/>
       <c r="P7" s="61">
         <v>11</v>
       </c>
@@ -4030,24 +4781,24 @@
       <c r="B8" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="177" t="s">
+      <c r="C8" s="184" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="177"/>
-      <c r="E8" s="177"/>
-      <c r="F8" s="177"/>
-      <c r="G8" s="177"/>
-      <c r="H8" s="177"/>
-      <c r="I8" s="177"/>
+      <c r="D8" s="184"/>
+      <c r="E8" s="184"/>
+      <c r="F8" s="184"/>
+      <c r="G8" s="184"/>
+      <c r="H8" s="184"/>
+      <c r="I8" s="184"/>
       <c r="J8" s="127">
         <v>1</v>
       </c>
       <c r="K8" s="127"/>
-      <c r="M8" s="178" t="s">
+      <c r="M8" s="185" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="178"/>
-      <c r="O8" s="178"/>
+      <c r="N8" s="185"/>
+      <c r="O8" s="185"/>
       <c r="P8" s="61">
         <v>11</v>
       </c>
@@ -4059,24 +4810,24 @@
       <c r="B9" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="177" t="s">
+      <c r="C9" s="184" t="s">
         <v>131</v>
       </c>
-      <c r="D9" s="177"/>
-      <c r="E9" s="177"/>
-      <c r="F9" s="177"/>
-      <c r="G9" s="177"/>
-      <c r="H9" s="177"/>
-      <c r="I9" s="177"/>
+      <c r="D9" s="184"/>
+      <c r="E9" s="184"/>
+      <c r="F9" s="184"/>
+      <c r="G9" s="184"/>
+      <c r="H9" s="184"/>
+      <c r="I9" s="184"/>
       <c r="J9" s="127">
         <v>2</v>
       </c>
       <c r="K9" s="127"/>
-      <c r="M9" s="178" t="s">
+      <c r="M9" s="185" t="s">
         <v>12</v>
       </c>
-      <c r="N9" s="178"/>
-      <c r="O9" s="178"/>
+      <c r="N9" s="185"/>
+      <c r="O9" s="185"/>
       <c r="P9" s="61">
         <v>13</v>
       </c>
@@ -4088,24 +4839,24 @@
       <c r="B10" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="177" t="s">
+      <c r="C10" s="184" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="177"/>
-      <c r="E10" s="177"/>
-      <c r="F10" s="177"/>
-      <c r="G10" s="177"/>
-      <c r="H10" s="177"/>
-      <c r="I10" s="177"/>
+      <c r="D10" s="184"/>
+      <c r="E10" s="184"/>
+      <c r="F10" s="184"/>
+      <c r="G10" s="184"/>
+      <c r="H10" s="184"/>
+      <c r="I10" s="184"/>
       <c r="J10" s="127">
         <v>0</v>
       </c>
       <c r="K10" s="127"/>
-      <c r="M10" s="178" t="s">
+      <c r="M10" s="185" t="s">
         <v>13</v>
       </c>
-      <c r="N10" s="178"/>
-      <c r="O10" s="178"/>
+      <c r="N10" s="185"/>
+      <c r="O10" s="185"/>
       <c r="P10" s="61">
         <v>12</v>
       </c>
@@ -4117,15 +4868,15 @@
       <c r="B11" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="177" t="s">
+      <c r="C11" s="184" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="177"/>
-      <c r="E11" s="177"/>
-      <c r="F11" s="177"/>
-      <c r="G11" s="177"/>
-      <c r="H11" s="177"/>
-      <c r="I11" s="177"/>
+      <c r="D11" s="184"/>
+      <c r="E11" s="184"/>
+      <c r="F11" s="184"/>
+      <c r="G11" s="184"/>
+      <c r="H11" s="184"/>
+      <c r="I11" s="184"/>
       <c r="J11" s="127">
         <v>0</v>
       </c>
@@ -4167,10 +4918,10 @@
       <c r="P13" s="65"/>
     </row>
     <row r="14" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="173" t="s">
+      <c r="A14" s="180" t="s">
         <v>172</v>
       </c>
-      <c r="B14" s="174"/>
+      <c r="B14" s="181"/>
       <c r="E14" s="128" t="s">
         <v>21</v>
       </c>
@@ -4195,8 +4946,8 @@
       <c r="P14" s="57"/>
     </row>
     <row r="15" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="175"/>
-      <c r="B15" s="176"/>
+      <c r="A15" s="182"/>
+      <c r="B15" s="183"/>
       <c r="E15" s="131" t="s">
         <v>37</v>
       </c>
@@ -4223,8 +4974,8 @@
       <c r="P15" s="57"/>
     </row>
     <row r="16" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="175"/>
-      <c r="B16" s="176"/>
+      <c r="A16" s="182"/>
+      <c r="B16" s="183"/>
       <c r="E16" s="128" t="s">
         <v>18</v>
       </c>
@@ -4336,11 +5087,11 @@
         <v>241</v>
       </c>
       <c r="B20" s="42"/>
-      <c r="N20" s="179" t="s">
+      <c r="N20" s="186" t="s">
         <v>120</v>
       </c>
-      <c r="O20" s="179"/>
-      <c r="P20" s="180"/>
+      <c r="O20" s="186"/>
+      <c r="P20" s="187"/>
     </row>
     <row r="21" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="67" t="s">
@@ -4609,10 +5360,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M37" s="181" t="s">
+      <c r="M37" s="188" t="s">
         <v>26</v>
       </c>
-      <c r="N37" s="181"/>
+      <c r="N37" s="188"/>
       <c r="O37" s="29" t="s">
         <v>27</v>
       </c>
@@ -4664,10 +5415,10 @@
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="M38" s="182" t="s">
+      <c r="M38" s="189" t="s">
         <v>186</v>
       </c>
-      <c r="N38" s="182"/>
+      <c r="N38" s="189"/>
       <c r="P38" s="62"/>
     </row>
     <row r="39" spans="1:27" ht="18" x14ac:dyDescent="0.3">
@@ -4716,10 +5467,10 @@
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="M39" s="183" t="s">
+      <c r="M39" s="190" t="s">
         <v>108</v>
       </c>
-      <c r="N39" s="183"/>
+      <c r="N39" s="190"/>
       <c r="O39" s="3"/>
       <c r="P39" s="62"/>
       <c r="AA39"/>
@@ -4770,10 +5521,10 @@
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="M40" s="184" t="s">
+      <c r="M40" s="191" t="s">
         <v>28</v>
       </c>
-      <c r="N40" s="184"/>
+      <c r="N40" s="191"/>
       <c r="O40" s="83"/>
       <c r="P40" s="84"/>
     </row>
@@ -4952,24 +5703,24 @@
       <c r="B6" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="177" t="s">
+      <c r="C6" s="184" t="s">
         <v>169</v>
       </c>
-      <c r="D6" s="177"/>
-      <c r="E6" s="177"/>
-      <c r="F6" s="177"/>
-      <c r="G6" s="177"/>
-      <c r="H6" s="177"/>
-      <c r="I6" s="177"/>
+      <c r="D6" s="184"/>
+      <c r="E6" s="184"/>
+      <c r="F6" s="184"/>
+      <c r="G6" s="184"/>
+      <c r="H6" s="184"/>
+      <c r="I6" s="184"/>
       <c r="J6" s="127">
         <v>1</v>
       </c>
       <c r="K6" s="127"/>
-      <c r="M6" s="178" t="s">
+      <c r="M6" s="185" t="s">
         <v>51</v>
       </c>
-      <c r="N6" s="178"/>
-      <c r="O6" s="178"/>
+      <c r="N6" s="185"/>
+      <c r="O6" s="185"/>
       <c r="P6" s="61">
         <v>6</v>
       </c>
@@ -4981,24 +5732,24 @@
       <c r="B7" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="177" t="s">
+      <c r="C7" s="184" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="177"/>
-      <c r="E7" s="177"/>
-      <c r="F7" s="177"/>
-      <c r="G7" s="177"/>
-      <c r="H7" s="177"/>
-      <c r="I7" s="177"/>
+      <c r="D7" s="184"/>
+      <c r="E7" s="184"/>
+      <c r="F7" s="184"/>
+      <c r="G7" s="184"/>
+      <c r="H7" s="184"/>
+      <c r="I7" s="184"/>
       <c r="J7" s="127">
         <v>0</v>
       </c>
       <c r="K7" s="127"/>
-      <c r="M7" s="178" t="s">
+      <c r="M7" s="185" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="178"/>
-      <c r="O7" s="178"/>
+      <c r="N7" s="185"/>
+      <c r="O7" s="185"/>
       <c r="P7" s="61">
         <v>6</v>
       </c>
@@ -5010,24 +5761,24 @@
       <c r="B8" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="177" t="s">
+      <c r="C8" s="184" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="177"/>
-      <c r="E8" s="177"/>
-      <c r="F8" s="177"/>
-      <c r="G8" s="177"/>
-      <c r="H8" s="177"/>
-      <c r="I8" s="177"/>
+      <c r="D8" s="184"/>
+      <c r="E8" s="184"/>
+      <c r="F8" s="184"/>
+      <c r="G8" s="184"/>
+      <c r="H8" s="184"/>
+      <c r="I8" s="184"/>
       <c r="J8" s="127">
         <v>2</v>
       </c>
       <c r="K8" s="127"/>
-      <c r="M8" s="178" t="s">
+      <c r="M8" s="185" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="178"/>
-      <c r="O8" s="178"/>
+      <c r="N8" s="185"/>
+      <c r="O8" s="185"/>
       <c r="P8" s="61">
         <v>7</v>
       </c>
@@ -5039,24 +5790,24 @@
       <c r="B9" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="177" t="s">
+      <c r="C9" s="184" t="s">
         <v>170</v>
       </c>
-      <c r="D9" s="177"/>
-      <c r="E9" s="177"/>
-      <c r="F9" s="177"/>
-      <c r="G9" s="177"/>
-      <c r="H9" s="177"/>
-      <c r="I9" s="177"/>
+      <c r="D9" s="184"/>
+      <c r="E9" s="184"/>
+      <c r="F9" s="184"/>
+      <c r="G9" s="184"/>
+      <c r="H9" s="184"/>
+      <c r="I9" s="184"/>
       <c r="J9" s="127">
         <v>0</v>
       </c>
       <c r="K9" s="127"/>
-      <c r="M9" s="178" t="s">
+      <c r="M9" s="185" t="s">
         <v>12</v>
       </c>
-      <c r="N9" s="178"/>
-      <c r="O9" s="178"/>
+      <c r="N9" s="185"/>
+      <c r="O9" s="185"/>
       <c r="P9" s="61">
         <v>10</v>
       </c>
@@ -5068,24 +5819,24 @@
       <c r="B10" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="177" t="s">
+      <c r="C10" s="184" t="s">
         <v>171</v>
       </c>
-      <c r="D10" s="177"/>
-      <c r="E10" s="177"/>
-      <c r="F10" s="177"/>
-      <c r="G10" s="177"/>
-      <c r="H10" s="177"/>
-      <c r="I10" s="177"/>
+      <c r="D10" s="184"/>
+      <c r="E10" s="184"/>
+      <c r="F10" s="184"/>
+      <c r="G10" s="184"/>
+      <c r="H10" s="184"/>
+      <c r="I10" s="184"/>
       <c r="J10" s="127">
         <v>1</v>
       </c>
       <c r="K10" s="127"/>
-      <c r="M10" s="178" t="s">
+      <c r="M10" s="185" t="s">
         <v>13</v>
       </c>
-      <c r="N10" s="178"/>
-      <c r="O10" s="178"/>
+      <c r="N10" s="185"/>
+      <c r="O10" s="185"/>
       <c r="P10" s="61">
         <v>9</v>
       </c>
@@ -5097,15 +5848,15 @@
       <c r="B11" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="177" t="s">
+      <c r="C11" s="184" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="177"/>
-      <c r="E11" s="177"/>
-      <c r="F11" s="177"/>
-      <c r="G11" s="177"/>
-      <c r="H11" s="177"/>
-      <c r="I11" s="177"/>
+      <c r="D11" s="184"/>
+      <c r="E11" s="184"/>
+      <c r="F11" s="184"/>
+      <c r="G11" s="184"/>
+      <c r="H11" s="184"/>
+      <c r="I11" s="184"/>
       <c r="J11" s="127">
         <v>0</v>
       </c>
@@ -5147,10 +5898,10 @@
       <c r="P13" s="65"/>
     </row>
     <row r="14" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="173" t="s">
+      <c r="A14" s="180" t="s">
         <v>172</v>
       </c>
-      <c r="B14" s="174"/>
+      <c r="B14" s="181"/>
       <c r="E14" s="128" t="s">
         <v>21</v>
       </c>
@@ -5175,8 +5926,8 @@
       <c r="P14" s="57"/>
     </row>
     <row r="15" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="175"/>
-      <c r="B15" s="176"/>
+      <c r="A15" s="182"/>
+      <c r="B15" s="183"/>
       <c r="E15" s="131" t="s">
         <v>37</v>
       </c>
@@ -5202,8 +5953,8 @@
       <c r="P15" s="57"/>
     </row>
     <row r="16" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="175"/>
-      <c r="B16" s="176"/>
+      <c r="A16" s="182"/>
+      <c r="B16" s="183"/>
       <c r="E16" s="128" t="s">
         <v>18</v>
       </c>
@@ -5312,11 +6063,11 @@
         <v>241</v>
       </c>
       <c r="B20" s="42"/>
-      <c r="N20" s="179" t="s">
+      <c r="N20" s="186" t="s">
         <v>120</v>
       </c>
-      <c r="O20" s="179"/>
-      <c r="P20" s="180"/>
+      <c r="O20" s="186"/>
+      <c r="P20" s="187"/>
     </row>
     <row r="21" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="67" t="s">
@@ -5584,10 +6335,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M37" s="181" t="s">
+      <c r="M37" s="188" t="s">
         <v>26</v>
       </c>
-      <c r="N37" s="181"/>
+      <c r="N37" s="188"/>
       <c r="O37" s="29" t="s">
         <v>27</v>
       </c>
@@ -5639,10 +6390,10 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="M38" s="182" t="s">
+      <c r="M38" s="189" t="s">
         <v>174</v>
       </c>
-      <c r="N38" s="182"/>
+      <c r="N38" s="189"/>
       <c r="O38" s="2" t="s">
         <v>177</v>
       </c>
@@ -5694,10 +6445,10 @@
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="M39" s="183" t="s">
+      <c r="M39" s="190" t="s">
         <v>176</v>
       </c>
-      <c r="N39" s="183"/>
+      <c r="N39" s="190"/>
       <c r="O39" s="3" t="s">
         <v>118</v>
       </c>
@@ -5750,10 +6501,10 @@
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="M40" s="184" t="s">
+      <c r="M40" s="191" t="s">
         <v>28</v>
       </c>
-      <c r="N40" s="184"/>
+      <c r="N40" s="191"/>
       <c r="O40" s="83" t="s">
         <v>119</v>
       </c>
@@ -5934,24 +6685,24 @@
       <c r="B6" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="177" t="s">
+      <c r="C6" s="184" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="177"/>
-      <c r="E6" s="177"/>
-      <c r="F6" s="177"/>
-      <c r="G6" s="177"/>
-      <c r="H6" s="177"/>
-      <c r="I6" s="177"/>
+      <c r="D6" s="184"/>
+      <c r="E6" s="184"/>
+      <c r="F6" s="184"/>
+      <c r="G6" s="184"/>
+      <c r="H6" s="184"/>
+      <c r="I6" s="184"/>
       <c r="J6" s="127">
         <v>0</v>
       </c>
       <c r="K6" s="127"/>
-      <c r="M6" s="178" t="s">
+      <c r="M6" s="185" t="s">
         <v>51</v>
       </c>
-      <c r="N6" s="178"/>
-      <c r="O6" s="178"/>
+      <c r="N6" s="185"/>
+      <c r="O6" s="185"/>
       <c r="P6" s="61">
         <v>12</v>
       </c>
@@ -5963,24 +6714,24 @@
       <c r="B7" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="177" t="s">
+      <c r="C7" s="184" t="s">
         <v>116</v>
       </c>
-      <c r="D7" s="177"/>
-      <c r="E7" s="177"/>
-      <c r="F7" s="177"/>
-      <c r="G7" s="177"/>
-      <c r="H7" s="177"/>
-      <c r="I7" s="177"/>
+      <c r="D7" s="184"/>
+      <c r="E7" s="184"/>
+      <c r="F7" s="184"/>
+      <c r="G7" s="184"/>
+      <c r="H7" s="184"/>
+      <c r="I7" s="184"/>
       <c r="J7" s="127">
         <v>2</v>
       </c>
       <c r="K7" s="127"/>
-      <c r="M7" s="178" t="s">
+      <c r="M7" s="185" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="178"/>
-      <c r="O7" s="178"/>
+      <c r="N7" s="185"/>
+      <c r="O7" s="185"/>
       <c r="P7" s="61">
         <v>14</v>
       </c>
@@ -5992,24 +6743,24 @@
       <c r="B8" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="177" t="s">
+      <c r="C8" s="184" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="177"/>
-      <c r="E8" s="177"/>
-      <c r="F8" s="177"/>
-      <c r="G8" s="177"/>
-      <c r="H8" s="177"/>
-      <c r="I8" s="177"/>
+      <c r="D8" s="184"/>
+      <c r="E8" s="184"/>
+      <c r="F8" s="184"/>
+      <c r="G8" s="184"/>
+      <c r="H8" s="184"/>
+      <c r="I8" s="184"/>
       <c r="J8" s="127">
         <v>1</v>
       </c>
       <c r="K8" s="127"/>
-      <c r="M8" s="178" t="s">
+      <c r="M8" s="185" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="178"/>
-      <c r="O8" s="178"/>
+      <c r="N8" s="185"/>
+      <c r="O8" s="185"/>
       <c r="P8" s="61">
         <v>12</v>
       </c>
@@ -6021,24 +6772,24 @@
       <c r="B9" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="177" t="s">
+      <c r="C9" s="184" t="s">
         <v>131</v>
       </c>
-      <c r="D9" s="177"/>
-      <c r="E9" s="177"/>
-      <c r="F9" s="177"/>
-      <c r="G9" s="177"/>
-      <c r="H9" s="177"/>
-      <c r="I9" s="177"/>
+      <c r="D9" s="184"/>
+      <c r="E9" s="184"/>
+      <c r="F9" s="184"/>
+      <c r="G9" s="184"/>
+      <c r="H9" s="184"/>
+      <c r="I9" s="184"/>
       <c r="J9" s="127">
         <v>1</v>
       </c>
       <c r="K9" s="127"/>
-      <c r="M9" s="178" t="s">
+      <c r="M9" s="185" t="s">
         <v>12</v>
       </c>
-      <c r="N9" s="178"/>
-      <c r="O9" s="178"/>
+      <c r="N9" s="185"/>
+      <c r="O9" s="185"/>
       <c r="P9" s="61">
         <v>16</v>
       </c>
@@ -6050,24 +6801,24 @@
       <c r="B10" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="177" t="s">
+      <c r="C10" s="184" t="s">
         <v>117</v>
       </c>
-      <c r="D10" s="177"/>
-      <c r="E10" s="177"/>
-      <c r="F10" s="177"/>
-      <c r="G10" s="177"/>
-      <c r="H10" s="177"/>
-      <c r="I10" s="177"/>
+      <c r="D10" s="184"/>
+      <c r="E10" s="184"/>
+      <c r="F10" s="184"/>
+      <c r="G10" s="184"/>
+      <c r="H10" s="184"/>
+      <c r="I10" s="184"/>
       <c r="J10" s="127">
         <v>-1</v>
       </c>
       <c r="K10" s="127"/>
-      <c r="M10" s="178" t="s">
+      <c r="M10" s="185" t="s">
         <v>13</v>
       </c>
-      <c r="N10" s="178"/>
-      <c r="O10" s="178"/>
+      <c r="N10" s="185"/>
+      <c r="O10" s="185"/>
       <c r="P10" s="61">
         <v>14</v>
       </c>
@@ -6079,15 +6830,15 @@
       <c r="B11" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="177" t="s">
+      <c r="C11" s="184" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="177"/>
-      <c r="E11" s="177"/>
-      <c r="F11" s="177"/>
-      <c r="G11" s="177"/>
-      <c r="H11" s="177"/>
-      <c r="I11" s="177"/>
+      <c r="D11" s="184"/>
+      <c r="E11" s="184"/>
+      <c r="F11" s="184"/>
+      <c r="G11" s="184"/>
+      <c r="H11" s="184"/>
+      <c r="I11" s="184"/>
       <c r="J11" s="127">
         <v>0</v>
       </c>
@@ -6129,10 +6880,10 @@
       <c r="P13" s="65"/>
     </row>
     <row r="14" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="173" t="s">
+      <c r="A14" s="180" t="s">
         <v>172</v>
       </c>
-      <c r="B14" s="174"/>
+      <c r="B14" s="181"/>
       <c r="E14" s="128" t="s">
         <v>21</v>
       </c>
@@ -6157,8 +6908,8 @@
       <c r="P14" s="57"/>
     </row>
     <row r="15" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="175"/>
-      <c r="B15" s="176"/>
+      <c r="A15" s="182"/>
+      <c r="B15" s="183"/>
       <c r="E15" s="131" t="s">
         <v>37</v>
       </c>
@@ -6185,8 +6936,8 @@
       <c r="P15" s="57"/>
     </row>
     <row r="16" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="175"/>
-      <c r="B16" s="176"/>
+      <c r="A16" s="182"/>
+      <c r="B16" s="183"/>
       <c r="E16" s="128" t="s">
         <v>18</v>
       </c>
@@ -6298,11 +7049,11 @@
         <v>241</v>
       </c>
       <c r="B20" s="42"/>
-      <c r="N20" s="179" t="s">
+      <c r="N20" s="186" t="s">
         <v>120</v>
       </c>
-      <c r="O20" s="179"/>
-      <c r="P20" s="180"/>
+      <c r="O20" s="186"/>
+      <c r="P20" s="187"/>
     </row>
     <row r="21" spans="1:21" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="67" t="s">
@@ -6597,10 +7348,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M37" s="181" t="s">
+      <c r="M37" s="188" t="s">
         <v>26</v>
       </c>
-      <c r="N37" s="181"/>
+      <c r="N37" s="188"/>
       <c r="O37" s="29" t="s">
         <v>27</v>
       </c>
@@ -6652,10 +7403,10 @@
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="M38" s="182" t="s">
+      <c r="M38" s="189" t="s">
         <v>82</v>
       </c>
-      <c r="N38" s="182"/>
+      <c r="N38" s="189"/>
       <c r="P38" s="62"/>
     </row>
     <row r="39" spans="1:27" ht="18" x14ac:dyDescent="0.3">
@@ -6704,10 +7455,10 @@
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="M39" s="183" t="s">
+      <c r="M39" s="190" t="s">
         <v>84</v>
       </c>
-      <c r="N39" s="183"/>
+      <c r="N39" s="190"/>
       <c r="O39" s="3" t="s">
         <v>118</v>
       </c>
@@ -6760,10 +7511,10 @@
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="M40" s="184" t="s">
+      <c r="M40" s="191" t="s">
         <v>28</v>
       </c>
-      <c r="N40" s="184"/>
+      <c r="N40" s="191"/>
       <c r="O40" s="83" t="s">
         <v>119</v>
       </c>
@@ -6798,7 +7549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23066C9D-052A-4A0F-9F62-A1EE62475AEE}">
   <dimension ref="A1:AA40"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
@@ -6944,24 +7695,24 @@
       <c r="B6" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="177" t="s">
+      <c r="C6" s="184" t="s">
         <v>129</v>
       </c>
-      <c r="D6" s="177"/>
-      <c r="E6" s="177"/>
-      <c r="F6" s="177"/>
-      <c r="G6" s="177"/>
-      <c r="H6" s="177"/>
-      <c r="I6" s="177"/>
+      <c r="D6" s="184"/>
+      <c r="E6" s="184"/>
+      <c r="F6" s="184"/>
+      <c r="G6" s="184"/>
+      <c r="H6" s="184"/>
+      <c r="I6" s="184"/>
       <c r="J6" s="127">
         <v>-1</v>
       </c>
       <c r="K6" s="127"/>
-      <c r="M6" s="178" t="s">
+      <c r="M6" s="185" t="s">
         <v>51</v>
       </c>
-      <c r="N6" s="178"/>
-      <c r="O6" s="178"/>
+      <c r="N6" s="185"/>
+      <c r="O6" s="185"/>
       <c r="P6" s="61">
         <v>13</v>
       </c>
@@ -6973,24 +7724,24 @@
       <c r="B7" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="177" t="s">
+      <c r="C7" s="184" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="177"/>
-      <c r="E7" s="177"/>
-      <c r="F7" s="177"/>
-      <c r="G7" s="177"/>
-      <c r="H7" s="177"/>
-      <c r="I7" s="177"/>
+      <c r="D7" s="184"/>
+      <c r="E7" s="184"/>
+      <c r="F7" s="184"/>
+      <c r="G7" s="184"/>
+      <c r="H7" s="184"/>
+      <c r="I7" s="184"/>
       <c r="J7" s="127">
         <v>0</v>
       </c>
       <c r="K7" s="127"/>
-      <c r="M7" s="178" t="s">
+      <c r="M7" s="185" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="178"/>
-      <c r="O7" s="178"/>
+      <c r="N7" s="185"/>
+      <c r="O7" s="185"/>
       <c r="P7" s="61">
         <v>14</v>
       </c>
@@ -7002,24 +7753,24 @@
       <c r="B8" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="177" t="s">
+      <c r="C8" s="184" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="177"/>
-      <c r="E8" s="177"/>
-      <c r="F8" s="177"/>
-      <c r="G8" s="177"/>
-      <c r="H8" s="177"/>
-      <c r="I8" s="177"/>
+      <c r="D8" s="184"/>
+      <c r="E8" s="184"/>
+      <c r="F8" s="184"/>
+      <c r="G8" s="184"/>
+      <c r="H8" s="184"/>
+      <c r="I8" s="184"/>
       <c r="J8" s="127">
         <v>1</v>
       </c>
       <c r="K8" s="127"/>
-      <c r="M8" s="178" t="s">
+      <c r="M8" s="185" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="178"/>
-      <c r="O8" s="178"/>
+      <c r="N8" s="185"/>
+      <c r="O8" s="185"/>
       <c r="P8" s="61">
         <v>13</v>
       </c>
@@ -7031,24 +7782,24 @@
       <c r="B9" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="177" t="s">
+      <c r="C9" s="184" t="s">
         <v>131</v>
       </c>
-      <c r="D9" s="177"/>
-      <c r="E9" s="177"/>
-      <c r="F9" s="177"/>
-      <c r="G9" s="177"/>
-      <c r="H9" s="177"/>
-      <c r="I9" s="177"/>
+      <c r="D9" s="184"/>
+      <c r="E9" s="184"/>
+      <c r="F9" s="184"/>
+      <c r="G9" s="184"/>
+      <c r="H9" s="184"/>
+      <c r="I9" s="184"/>
       <c r="J9" s="127">
         <v>2</v>
       </c>
       <c r="K9" s="127"/>
-      <c r="M9" s="178" t="s">
+      <c r="M9" s="185" t="s">
         <v>12</v>
       </c>
-      <c r="N9" s="178"/>
-      <c r="O9" s="178"/>
+      <c r="N9" s="185"/>
+      <c r="O9" s="185"/>
       <c r="P9" s="61">
         <v>16</v>
       </c>
@@ -7060,24 +7811,24 @@
       <c r="B10" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="177" t="s">
+      <c r="C10" s="184" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="177"/>
-      <c r="E10" s="177"/>
-      <c r="F10" s="177"/>
-      <c r="G10" s="177"/>
-      <c r="H10" s="177"/>
-      <c r="I10" s="177"/>
+      <c r="D10" s="184"/>
+      <c r="E10" s="184"/>
+      <c r="F10" s="184"/>
+      <c r="G10" s="184"/>
+      <c r="H10" s="184"/>
+      <c r="I10" s="184"/>
       <c r="J10" s="127">
         <v>0</v>
       </c>
       <c r="K10" s="127"/>
-      <c r="M10" s="178" t="s">
+      <c r="M10" s="185" t="s">
         <v>13</v>
       </c>
-      <c r="N10" s="178"/>
-      <c r="O10" s="178"/>
+      <c r="N10" s="185"/>
+      <c r="O10" s="185"/>
       <c r="P10" s="61">
         <v>15</v>
       </c>
@@ -7089,15 +7840,15 @@
       <c r="B11" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="177" t="s">
+      <c r="C11" s="184" t="s">
         <v>132</v>
       </c>
-      <c r="D11" s="177"/>
-      <c r="E11" s="177"/>
-      <c r="F11" s="177"/>
-      <c r="G11" s="177"/>
-      <c r="H11" s="177"/>
-      <c r="I11" s="177"/>
+      <c r="D11" s="184"/>
+      <c r="E11" s="184"/>
+      <c r="F11" s="184"/>
+      <c r="G11" s="184"/>
+      <c r="H11" s="184"/>
+      <c r="I11" s="184"/>
       <c r="J11" s="127">
         <v>-1</v>
       </c>
@@ -7139,10 +7890,10 @@
       <c r="P13" s="65"/>
     </row>
     <row r="14" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="173" t="s">
+      <c r="A14" s="180" t="s">
         <v>172</v>
       </c>
-      <c r="B14" s="174"/>
+      <c r="B14" s="181"/>
       <c r="E14" s="128" t="s">
         <v>21</v>
       </c>
@@ -7167,8 +7918,8 @@
       <c r="P14" s="57"/>
     </row>
     <row r="15" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="175"/>
-      <c r="B15" s="176"/>
+      <c r="A15" s="182"/>
+      <c r="B15" s="183"/>
       <c r="E15" s="131" t="s">
         <v>37</v>
       </c>
@@ -7195,8 +7946,8 @@
       <c r="P15" s="57"/>
     </row>
     <row r="16" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="175"/>
-      <c r="B16" s="176"/>
+      <c r="A16" s="182"/>
+      <c r="B16" s="183"/>
       <c r="E16" s="128" t="s">
         <v>18</v>
       </c>
@@ -7302,9 +8053,9 @@
         <v>241</v>
       </c>
       <c r="B20" s="42"/>
-      <c r="N20" s="179"/>
-      <c r="O20" s="179"/>
-      <c r="P20" s="180"/>
+      <c r="N20" s="186"/>
+      <c r="O20" s="186"/>
+      <c r="P20" s="187"/>
     </row>
     <row r="21" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="67" t="s">
@@ -7568,10 +8319,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M37" s="181" t="s">
+      <c r="M37" s="188" t="s">
         <v>26</v>
       </c>
-      <c r="N37" s="181"/>
+      <c r="N37" s="188"/>
       <c r="O37" s="29" t="s">
         <v>27</v>
       </c>
@@ -7623,10 +8374,10 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="M38" s="182" t="s">
+      <c r="M38" s="189" t="s">
         <v>139</v>
       </c>
-      <c r="N38" s="182"/>
+      <c r="N38" s="189"/>
       <c r="P38" s="62"/>
     </row>
     <row r="39" spans="1:27" ht="18" x14ac:dyDescent="0.3">
@@ -7675,10 +8426,10 @@
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="M39" s="183" t="s">
+      <c r="M39" s="190" t="s">
         <v>139</v>
       </c>
-      <c r="N39" s="183"/>
+      <c r="N39" s="190"/>
       <c r="O39" s="3"/>
       <c r="P39" s="62"/>
       <c r="AA39"/>
@@ -7729,10 +8480,10 @@
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="M40" s="184" t="s">
+      <c r="M40" s="191" t="s">
         <v>84</v>
       </c>
-      <c r="N40" s="184"/>
+      <c r="N40" s="191"/>
       <c r="O40" s="83"/>
       <c r="P40" s="84"/>
     </row>
@@ -7765,7 +8516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D6BBBE-C9DF-4D21-98BF-29E96594E7D0}">
   <dimension ref="A1:AA40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
@@ -7912,24 +8663,24 @@
       <c r="B6" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="177" t="s">
+      <c r="C6" s="184" t="s">
         <v>115</v>
       </c>
-      <c r="D6" s="177"/>
-      <c r="E6" s="177"/>
-      <c r="F6" s="177"/>
-      <c r="G6" s="177"/>
-      <c r="H6" s="177"/>
-      <c r="I6" s="177"/>
+      <c r="D6" s="184"/>
+      <c r="E6" s="184"/>
+      <c r="F6" s="184"/>
+      <c r="G6" s="184"/>
+      <c r="H6" s="184"/>
+      <c r="I6" s="184"/>
       <c r="J6" s="127">
         <v>2</v>
       </c>
       <c r="K6" s="127"/>
-      <c r="M6" s="178" t="s">
+      <c r="M6" s="185" t="s">
         <v>51</v>
       </c>
-      <c r="N6" s="178"/>
-      <c r="O6" s="178"/>
+      <c r="N6" s="185"/>
+      <c r="O6" s="185"/>
       <c r="P6" s="61">
         <v>10</v>
       </c>
@@ -7941,24 +8692,24 @@
       <c r="B7" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="177" t="s">
+      <c r="C7" s="184" t="s">
         <v>116</v>
       </c>
-      <c r="D7" s="177"/>
-      <c r="E7" s="177"/>
-      <c r="F7" s="177"/>
-      <c r="G7" s="177"/>
-      <c r="H7" s="177"/>
-      <c r="I7" s="177"/>
+      <c r="D7" s="184"/>
+      <c r="E7" s="184"/>
+      <c r="F7" s="184"/>
+      <c r="G7" s="184"/>
+      <c r="H7" s="184"/>
+      <c r="I7" s="184"/>
       <c r="J7" s="127">
         <v>1</v>
       </c>
       <c r="K7" s="127"/>
-      <c r="M7" s="178" t="s">
+      <c r="M7" s="185" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="178"/>
-      <c r="O7" s="178"/>
+      <c r="N7" s="185"/>
+      <c r="O7" s="185"/>
       <c r="P7" s="61">
         <v>13</v>
       </c>
@@ -7970,24 +8721,24 @@
       <c r="B8" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="177" t="s">
+      <c r="C8" s="184" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="177"/>
-      <c r="E8" s="177"/>
-      <c r="F8" s="177"/>
-      <c r="G8" s="177"/>
-      <c r="H8" s="177"/>
-      <c r="I8" s="177"/>
+      <c r="D8" s="184"/>
+      <c r="E8" s="184"/>
+      <c r="F8" s="184"/>
+      <c r="G8" s="184"/>
+      <c r="H8" s="184"/>
+      <c r="I8" s="184"/>
       <c r="J8" s="127">
         <v>0</v>
       </c>
       <c r="K8" s="127"/>
-      <c r="M8" s="178" t="s">
+      <c r="M8" s="185" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="178"/>
-      <c r="O8" s="178"/>
+      <c r="N8" s="185"/>
+      <c r="O8" s="185"/>
       <c r="P8" s="61">
         <v>14</v>
       </c>
@@ -7999,24 +8750,24 @@
       <c r="B9" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="177" t="s">
+      <c r="C9" s="184" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="177"/>
-      <c r="E9" s="177"/>
-      <c r="F9" s="177"/>
-      <c r="G9" s="177"/>
-      <c r="H9" s="177"/>
-      <c r="I9" s="177"/>
+      <c r="D9" s="184"/>
+      <c r="E9" s="184"/>
+      <c r="F9" s="184"/>
+      <c r="G9" s="184"/>
+      <c r="H9" s="184"/>
+      <c r="I9" s="184"/>
       <c r="J9" s="127">
         <v>-1</v>
       </c>
       <c r="K9" s="127"/>
-      <c r="M9" s="178" t="s">
+      <c r="M9" s="185" t="s">
         <v>12</v>
       </c>
-      <c r="N9" s="178"/>
-      <c r="O9" s="178"/>
+      <c r="N9" s="185"/>
+      <c r="O9" s="185"/>
       <c r="P9" s="61">
         <v>13</v>
       </c>
@@ -8028,24 +8779,24 @@
       <c r="B10" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="177" t="s">
+      <c r="C10" s="184" t="s">
         <v>117</v>
       </c>
-      <c r="D10" s="177"/>
-      <c r="E10" s="177"/>
-      <c r="F10" s="177"/>
-      <c r="G10" s="177"/>
-      <c r="H10" s="177"/>
-      <c r="I10" s="177"/>
+      <c r="D10" s="184"/>
+      <c r="E10" s="184"/>
+      <c r="F10" s="184"/>
+      <c r="G10" s="184"/>
+      <c r="H10" s="184"/>
+      <c r="I10" s="184"/>
       <c r="J10" s="127">
         <v>-2</v>
       </c>
       <c r="K10" s="127"/>
-      <c r="M10" s="178" t="s">
+      <c r="M10" s="185" t="s">
         <v>13</v>
       </c>
-      <c r="N10" s="178"/>
-      <c r="O10" s="178"/>
+      <c r="N10" s="185"/>
+      <c r="O10" s="185"/>
       <c r="P10" s="61">
         <v>16</v>
       </c>
@@ -8057,15 +8808,15 @@
       <c r="B11" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="177" t="s">
+      <c r="C11" s="184" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="177"/>
-      <c r="E11" s="177"/>
-      <c r="F11" s="177"/>
-      <c r="G11" s="177"/>
-      <c r="H11" s="177"/>
-      <c r="I11" s="177"/>
+      <c r="D11" s="184"/>
+      <c r="E11" s="184"/>
+      <c r="F11" s="184"/>
+      <c r="G11" s="184"/>
+      <c r="H11" s="184"/>
+      <c r="I11" s="184"/>
       <c r="J11" s="127">
         <v>0</v>
       </c>
@@ -8107,10 +8858,10 @@
       <c r="P13" s="65"/>
     </row>
     <row r="14" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="173" t="s">
+      <c r="A14" s="180" t="s">
         <v>172</v>
       </c>
-      <c r="B14" s="174"/>
+      <c r="B14" s="181"/>
       <c r="E14" s="128" t="s">
         <v>21</v>
       </c>
@@ -8135,8 +8886,8 @@
       <c r="P14" s="57"/>
     </row>
     <row r="15" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="175"/>
-      <c r="B15" s="176"/>
+      <c r="A15" s="182"/>
+      <c r="B15" s="183"/>
       <c r="E15" s="131" t="s">
         <v>37</v>
       </c>
@@ -8162,8 +8913,8 @@
       <c r="P15" s="57"/>
     </row>
     <row r="16" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="175"/>
-      <c r="B16" s="176"/>
+      <c r="A16" s="182"/>
+      <c r="B16" s="183"/>
       <c r="E16" s="128" t="s">
         <v>18</v>
       </c>
@@ -8273,11 +9024,11 @@
       </c>
       <c r="B20" s="42"/>
       <c r="E20" s="138"/>
-      <c r="N20" s="179" t="s">
+      <c r="N20" s="186" t="s">
         <v>120</v>
       </c>
-      <c r="O20" s="179"/>
-      <c r="P20" s="180"/>
+      <c r="O20" s="186"/>
+      <c r="P20" s="187"/>
     </row>
     <row r="21" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="67" t="s">
@@ -8544,10 +9295,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M37" s="181" t="s">
+      <c r="M37" s="188" t="s">
         <v>26</v>
       </c>
-      <c r="N37" s="181"/>
+      <c r="N37" s="188"/>
       <c r="O37" s="29" t="s">
         <v>27</v>
       </c>
@@ -8599,10 +9350,10 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="M38" s="182" t="s">
+      <c r="M38" s="189" t="s">
         <v>107</v>
       </c>
-      <c r="N38" s="182"/>
+      <c r="N38" s="189"/>
       <c r="O38" s="2" t="s">
         <v>111</v>
       </c>
@@ -8654,10 +9405,10 @@
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="M39" s="183" t="s">
+      <c r="M39" s="190" t="s">
         <v>108</v>
       </c>
-      <c r="N39" s="183"/>
+      <c r="N39" s="190"/>
       <c r="O39" s="3" t="s">
         <v>118</v>
       </c>
@@ -8710,10 +9461,10 @@
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="M40" s="184" t="s">
+      <c r="M40" s="191" t="s">
         <v>28</v>
       </c>
-      <c r="N40" s="184"/>
+      <c r="N40" s="191"/>
       <c r="O40" s="83" t="s">
         <v>119</v>
       </c>
@@ -8748,8 +9499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{263CECC3-3302-44DA-8376-3DD3643BBD45}">
   <dimension ref="A1:AA40"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8894,24 +9645,24 @@
       <c r="B6" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="177" t="s">
+      <c r="C6" s="184" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="177"/>
-      <c r="E6" s="177"/>
-      <c r="F6" s="177"/>
-      <c r="G6" s="177"/>
-      <c r="H6" s="177"/>
-      <c r="I6" s="177"/>
+      <c r="D6" s="184"/>
+      <c r="E6" s="184"/>
+      <c r="F6" s="184"/>
+      <c r="G6" s="184"/>
+      <c r="H6" s="184"/>
+      <c r="I6" s="184"/>
       <c r="J6" s="127">
         <v>0</v>
       </c>
       <c r="K6" s="127"/>
-      <c r="M6" s="178" t="s">
+      <c r="M6" s="185" t="s">
         <v>51</v>
       </c>
-      <c r="N6" s="178"/>
-      <c r="O6" s="178"/>
+      <c r="N6" s="185"/>
+      <c r="O6" s="185"/>
       <c r="P6" s="61">
         <v>9</v>
       </c>
@@ -8923,24 +9674,24 @@
       <c r="B7" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="177" t="s">
+      <c r="C7" s="184" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="177"/>
-      <c r="E7" s="177"/>
-      <c r="F7" s="177"/>
-      <c r="G7" s="177"/>
-      <c r="H7" s="177"/>
-      <c r="I7" s="177"/>
+      <c r="D7" s="184"/>
+      <c r="E7" s="184"/>
+      <c r="F7" s="184"/>
+      <c r="G7" s="184"/>
+      <c r="H7" s="184"/>
+      <c r="I7" s="184"/>
       <c r="J7" s="127">
         <v>-1</v>
       </c>
       <c r="K7" s="127"/>
-      <c r="M7" s="178" t="s">
+      <c r="M7" s="185" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="178"/>
-      <c r="O7" s="178"/>
+      <c r="N7" s="185"/>
+      <c r="O7" s="185"/>
       <c r="P7" s="61">
         <v>9</v>
       </c>
@@ -8952,24 +9703,24 @@
       <c r="B8" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="177" t="s">
+      <c r="C8" s="184" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="177"/>
-      <c r="E8" s="177"/>
-      <c r="F8" s="177"/>
-      <c r="G8" s="177"/>
-      <c r="H8" s="177"/>
-      <c r="I8" s="177"/>
+      <c r="D8" s="184"/>
+      <c r="E8" s="184"/>
+      <c r="F8" s="184"/>
+      <c r="G8" s="184"/>
+      <c r="H8" s="184"/>
+      <c r="I8" s="184"/>
       <c r="J8" s="127">
         <v>0</v>
       </c>
       <c r="K8" s="127"/>
-      <c r="M8" s="178" t="s">
+      <c r="M8" s="185" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="178"/>
-      <c r="O8" s="178"/>
+      <c r="N8" s="185"/>
+      <c r="O8" s="185"/>
       <c r="P8" s="61">
         <v>11</v>
       </c>
@@ -8981,24 +9732,24 @@
       <c r="B9" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="177" t="s">
+      <c r="C9" s="184" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="177"/>
-      <c r="E9" s="177"/>
-      <c r="F9" s="177"/>
-      <c r="G9" s="177"/>
-      <c r="H9" s="177"/>
-      <c r="I9" s="177"/>
+      <c r="D9" s="184"/>
+      <c r="E9" s="184"/>
+      <c r="F9" s="184"/>
+      <c r="G9" s="184"/>
+      <c r="H9" s="184"/>
+      <c r="I9" s="184"/>
       <c r="J9" s="127">
         <v>-1</v>
       </c>
       <c r="K9" s="127"/>
-      <c r="M9" s="178" t="s">
+      <c r="M9" s="185" t="s">
         <v>12</v>
       </c>
-      <c r="N9" s="178"/>
-      <c r="O9" s="178"/>
+      <c r="N9" s="185"/>
+      <c r="O9" s="185"/>
       <c r="P9" s="61">
         <v>14</v>
       </c>
@@ -9010,24 +9761,24 @@
       <c r="B10" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="177" t="s">
+      <c r="C10" s="184" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="177"/>
-      <c r="E10" s="177"/>
-      <c r="F10" s="177"/>
-      <c r="G10" s="177"/>
-      <c r="H10" s="177"/>
-      <c r="I10" s="177"/>
+      <c r="D10" s="184"/>
+      <c r="E10" s="184"/>
+      <c r="F10" s="184"/>
+      <c r="G10" s="184"/>
+      <c r="H10" s="184"/>
+      <c r="I10" s="184"/>
       <c r="J10" s="127">
         <v>1</v>
       </c>
       <c r="K10" s="127"/>
-      <c r="M10" s="178" t="s">
+      <c r="M10" s="185" t="s">
         <v>13</v>
       </c>
-      <c r="N10" s="178"/>
-      <c r="O10" s="178"/>
+      <c r="N10" s="185"/>
+      <c r="O10" s="185"/>
       <c r="P10" s="61">
         <v>11</v>
       </c>
@@ -9039,15 +9790,15 @@
       <c r="B11" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="177" t="s">
+      <c r="C11" s="184" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="177"/>
-      <c r="E11" s="177"/>
-      <c r="F11" s="177"/>
-      <c r="G11" s="177"/>
-      <c r="H11" s="177"/>
-      <c r="I11" s="177"/>
+      <c r="D11" s="184"/>
+      <c r="E11" s="184"/>
+      <c r="F11" s="184"/>
+      <c r="G11" s="184"/>
+      <c r="H11" s="184"/>
+      <c r="I11" s="184"/>
       <c r="J11" s="127">
         <v>0</v>
       </c>
@@ -9089,10 +9840,10 @@
       <c r="P13" s="89"/>
     </row>
     <row r="14" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="173" t="s">
+      <c r="A14" s="180" t="s">
         <v>172</v>
       </c>
-      <c r="B14" s="174"/>
+      <c r="B14" s="181"/>
       <c r="E14" s="128" t="s">
         <v>21</v>
       </c>
@@ -9118,8 +9869,8 @@
       <c r="P14" s="90"/>
     </row>
     <row r="15" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="175"/>
-      <c r="B15" s="176"/>
+      <c r="A15" s="182"/>
+      <c r="B15" s="183"/>
       <c r="E15" s="131" t="s">
         <v>37</v>
       </c>
@@ -9146,8 +9897,8 @@
       <c r="P15" s="90"/>
     </row>
     <row r="16" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="175"/>
-      <c r="B16" s="176"/>
+      <c r="A16" s="182"/>
+      <c r="B16" s="183"/>
       <c r="E16" s="128" t="s">
         <v>18</v>
       </c>
@@ -9260,11 +10011,11 @@
         <v>241</v>
       </c>
       <c r="B20" s="92"/>
-      <c r="N20" s="185" t="s">
+      <c r="N20" s="192" t="s">
         <v>62</v>
       </c>
-      <c r="O20" s="185"/>
-      <c r="P20" s="186"/>
+      <c r="O20" s="192"/>
+      <c r="P20" s="193"/>
     </row>
     <row r="21" spans="1:16" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="94" t="s">
@@ -9360,7 +10111,7 @@
       </c>
       <c r="B27" s="23"/>
       <c r="E27" s="142" t="s">
-        <v>352</v>
+        <v>323</v>
       </c>
       <c r="N27" s="141" t="s">
         <v>43</v>
@@ -9528,10 +10279,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M37" s="181" t="s">
+      <c r="M37" s="188" t="s">
         <v>26</v>
       </c>
-      <c r="N37" s="181"/>
+      <c r="N37" s="188"/>
       <c r="O37" s="29" t="s">
         <v>27</v>
       </c>
@@ -9583,10 +10334,10 @@
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="M38" s="182" t="s">
+      <c r="M38" s="189" t="s">
         <v>28</v>
       </c>
-      <c r="N38" s="182"/>
+      <c r="N38" s="189"/>
       <c r="P38" s="62"/>
     </row>
     <row r="39" spans="1:27" ht="18" x14ac:dyDescent="0.3">
@@ -9635,10 +10386,10 @@
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="M39" s="183" t="s">
+      <c r="M39" s="190" t="s">
         <v>84</v>
       </c>
-      <c r="N39" s="183"/>
+      <c r="N39" s="190"/>
       <c r="O39" s="3" t="s">
         <v>83</v>
       </c>
@@ -9691,10 +10442,10 @@
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="M40" s="184" t="s">
+      <c r="M40" s="191" t="s">
         <v>82</v>
       </c>
-      <c r="N40" s="184"/>
+      <c r="N40" s="191"/>
       <c r="O40" s="148" t="s">
         <v>222</v>
       </c>
@@ -9730,7 +10481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7F733B-4F29-4CC7-8875-78DA591CD6C7}">
   <dimension ref="A1:U69"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
       <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
@@ -9779,16 +10530,16 @@
       <c r="I2" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="187" t="s">
+      <c r="J2" s="194" t="s">
         <v>208</v>
       </c>
-      <c r="K2" s="187"/>
-      <c r="L2" s="187"/>
-      <c r="M2" s="187"/>
-      <c r="N2" s="187"/>
-      <c r="O2" s="187"/>
-      <c r="P2" s="188"/>
-      <c r="Q2" s="187"/>
+      <c r="K2" s="194"/>
+      <c r="L2" s="194"/>
+      <c r="M2" s="194"/>
+      <c r="N2" s="194"/>
+      <c r="O2" s="194"/>
+      <c r="P2" s="195"/>
+      <c r="Q2" s="194"/>
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
       <c r="T2" s="7"/>
@@ -10242,10 +10993,10 @@
       </c>
     </row>
     <row r="24" spans="1:21" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="189" t="s">
+      <c r="A24" s="196" t="s">
         <v>206</v>
       </c>
-      <c r="B24" s="190"/>
+      <c r="B24" s="197"/>
       <c r="C24" s="17" t="s">
         <v>8</v>
       </c>
@@ -10360,10 +11111,10 @@
       <c r="U25" s="1"/>
     </row>
     <row r="26" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="191">
+      <c r="A26" s="198">
         <v>19</v>
       </c>
-      <c r="B26" s="192"/>
+      <c r="B26" s="199"/>
       <c r="C26" s="153">
         <f>$A26-C$25</f>
         <v>22</v>
@@ -10426,10 +11177,10 @@
       </c>
     </row>
     <row r="27" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="193">
+      <c r="A27" s="200">
         <v>18</v>
       </c>
-      <c r="B27" s="194"/>
+      <c r="B27" s="201"/>
       <c r="C27" s="154">
         <f t="shared" ref="C27:Q34" si="3">$A27-C$25</f>
         <v>21</v>
@@ -10492,10 +11243,10 @@
       </c>
     </row>
     <row r="28" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="192">
+      <c r="A28" s="199">
         <v>17</v>
       </c>
-      <c r="B28" s="192"/>
+      <c r="B28" s="199"/>
       <c r="C28" s="153">
         <f t="shared" si="3"/>
         <v>20</v>
@@ -10558,10 +11309,10 @@
       </c>
     </row>
     <row r="29" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="194">
+      <c r="A29" s="201">
         <v>16</v>
       </c>
-      <c r="B29" s="194"/>
+      <c r="B29" s="201"/>
       <c r="C29" s="154">
         <f t="shared" si="3"/>
         <v>19</v>
@@ -10624,10 +11375,10 @@
       </c>
     </row>
     <row r="30" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="192">
+      <c r="A30" s="199">
         <v>15</v>
       </c>
-      <c r="B30" s="192"/>
+      <c r="B30" s="199"/>
       <c r="C30" s="153">
         <f t="shared" si="3"/>
         <v>18</v>
@@ -10690,10 +11441,10 @@
       </c>
     </row>
     <row r="31" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="194">
+      <c r="A31" s="201">
         <v>14</v>
       </c>
-      <c r="B31" s="194"/>
+      <c r="B31" s="201"/>
       <c r="C31" s="154">
         <f t="shared" si="3"/>
         <v>17</v>
@@ -10756,10 +11507,10 @@
       </c>
     </row>
     <row r="32" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="192">
+      <c r="A32" s="199">
         <v>13</v>
       </c>
-      <c r="B32" s="192"/>
+      <c r="B32" s="199"/>
       <c r="C32" s="153">
         <f t="shared" si="3"/>
         <v>16</v>
@@ -10822,10 +11573,10 @@
       </c>
     </row>
     <row r="33" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="194">
+      <c r="A33" s="201">
         <v>12</v>
       </c>
-      <c r="B33" s="194"/>
+      <c r="B33" s="201"/>
       <c r="C33" s="154">
         <f t="shared" si="3"/>
         <v>15</v>
@@ -10888,10 +11639,10 @@
       </c>
     </row>
     <row r="34" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="192">
+      <c r="A34" s="199">
         <v>11</v>
       </c>
-      <c r="B34" s="192"/>
+      <c r="B34" s="199"/>
       <c r="C34" s="153">
         <f t="shared" si="3"/>
         <v>14</v>
@@ -11386,808 +12137,723 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E7B6F9D-3ED0-4BE0-8E31-DC32197F8094}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.109375" style="205" customWidth="1"/>
-    <col min="2" max="2" width="27.5546875" style="199" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.77734375" style="196" customWidth="1"/>
-    <col min="4" max="4" width="9" style="196" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" style="196" customWidth="1"/>
-    <col min="6" max="6" width="49.21875" style="195" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="195"/>
+    <col min="1" max="1" width="27.5546875" style="175" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.77734375" style="174" customWidth="1"/>
+    <col min="3" max="3" width="9" style="174" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" style="174" customWidth="1"/>
+    <col min="5" max="5" width="52.21875" style="173" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="173"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B1" s="204" t="s">
+    <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.3">
+      <c r="A1" s="177" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="198" t="s">
-        <v>265</v>
-      </c>
-      <c r="D1" s="198" t="s">
+      <c r="B1" s="176" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="176" t="s">
         <v>266</v>
       </c>
-      <c r="E1" s="198" t="s">
+      <c r="D1" s="176" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="197" t="s">
+      <c r="E1" s="174" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="205">
+      <c r="F1" s="202" t="s">
+        <v>373</v>
+      </c>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="202"/>
+      <c r="J1" s="202"/>
+      <c r="K1" s="202"/>
+      <c r="L1" s="202"/>
+      <c r="M1" s="202"/>
+      <c r="N1" s="202"/>
+      <c r="O1" s="202"/>
+      <c r="P1" s="202"/>
+    </row>
+    <row r="2" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="175" t="s">
+        <v>267</v>
+      </c>
+      <c r="B2" s="174">
+        <v>6</v>
+      </c>
+      <c r="C2" s="174" t="s">
+        <v>268</v>
+      </c>
+      <c r="D2" s="174">
         <v>1</v>
       </c>
-      <c r="B2" s="199" t="s">
-        <v>267</v>
-      </c>
-      <c r="C2" s="196">
+      <c r="E2" s="173" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="175" t="s">
+        <v>269</v>
+      </c>
+      <c r="B3" s="174">
+        <v>4</v>
+      </c>
+      <c r="C3" s="174" t="s">
+        <v>268</v>
+      </c>
+      <c r="D3" s="174">
+        <v>1</v>
+      </c>
+      <c r="E3" s="173" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="175" t="s">
+        <v>270</v>
+      </c>
+      <c r="B4" s="174">
+        <v>10</v>
+      </c>
+      <c r="C4" s="174" t="s">
+        <v>268</v>
+      </c>
+      <c r="D4" s="174">
+        <v>1</v>
+      </c>
+      <c r="E4" s="173" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="175" t="s">
+        <v>271</v>
+      </c>
+      <c r="B5" s="174">
         <v>6</v>
       </c>
-      <c r="D2" s="196" t="s">
+      <c r="C5" s="174" t="s">
+        <v>272</v>
+      </c>
+      <c r="D5" s="174" t="s">
+        <v>307</v>
+      </c>
+      <c r="E5" s="173" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="175" t="s">
+        <v>273</v>
+      </c>
+      <c r="B6" s="174">
+        <v>4</v>
+      </c>
+      <c r="C6" s="174" t="s">
+        <v>274</v>
+      </c>
+      <c r="D6" s="174">
+        <v>1</v>
+      </c>
+      <c r="E6" s="173" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="175" t="s">
+        <v>275</v>
+      </c>
+      <c r="B7" s="174">
+        <v>6</v>
+      </c>
+      <c r="C7" s="174" t="s">
+        <v>276</v>
+      </c>
+      <c r="D7" s="174">
+        <v>0</v>
+      </c>
+      <c r="E7" s="173" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="175" t="s">
+        <v>277</v>
+      </c>
+      <c r="B8" s="174">
+        <v>6</v>
+      </c>
+      <c r="C8" s="174" t="s">
         <v>268</v>
       </c>
-      <c r="E2" s="196">
+      <c r="D8" s="174">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="205">
-        <f>A2+1</f>
+      <c r="E8" s="173" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="175" t="s">
+        <v>278</v>
+      </c>
+      <c r="B9" s="174">
+        <v>4</v>
+      </c>
+      <c r="C9" s="174" t="s">
+        <v>272</v>
+      </c>
+      <c r="D9" s="174">
+        <v>1</v>
+      </c>
+      <c r="E9" s="173" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="175" t="s">
+        <v>279</v>
+      </c>
+      <c r="B10" s="174">
         <v>2</v>
       </c>
-      <c r="B3" s="199" t="s">
-        <v>269</v>
-      </c>
-      <c r="C3" s="196">
+      <c r="C10" s="174" t="s">
+        <v>272</v>
+      </c>
+      <c r="D10" s="174">
+        <v>1</v>
+      </c>
+      <c r="E10" s="173" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="175" t="s">
+        <v>280</v>
+      </c>
+      <c r="B11" s="174">
+        <v>10</v>
+      </c>
+      <c r="C11" s="174" t="s">
+        <v>268</v>
+      </c>
+      <c r="D11" s="174">
+        <v>0</v>
+      </c>
+      <c r="E11" s="173" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="175" t="s">
+        <v>281</v>
+      </c>
+      <c r="B12" s="174">
+        <v>12</v>
+      </c>
+      <c r="C12" s="174" t="s">
+        <v>282</v>
+      </c>
+      <c r="D12" s="174" t="s">
+        <v>334</v>
+      </c>
+      <c r="E12" s="173" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="175" t="s">
+        <v>283</v>
+      </c>
+      <c r="B13" s="174">
+        <v>8</v>
+      </c>
+      <c r="C13" s="174" t="s">
+        <v>276</v>
+      </c>
+      <c r="D13" s="174">
+        <v>1</v>
+      </c>
+      <c r="E13" s="173" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="175" t="s">
+        <v>284</v>
+      </c>
+      <c r="B14" s="174">
+        <v>6</v>
+      </c>
+      <c r="C14" s="174" t="s">
+        <v>274</v>
+      </c>
+      <c r="D14" s="174">
+        <v>1</v>
+      </c>
+      <c r="E14" s="173" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="175" t="s">
+        <v>285</v>
+      </c>
+      <c r="B15" s="174">
+        <v>10</v>
+      </c>
+      <c r="C15" s="174" t="s">
+        <v>338</v>
+      </c>
+      <c r="D15" s="174">
+        <v>1</v>
+      </c>
+      <c r="E15" s="173" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="175" t="s">
+        <v>286</v>
+      </c>
+      <c r="B16" s="174">
+        <v>10</v>
+      </c>
+      <c r="C16" s="174" t="s">
+        <v>287</v>
+      </c>
+      <c r="D16" s="174" t="s">
+        <v>334</v>
+      </c>
+      <c r="E16" s="173" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="175" t="s">
+        <v>288</v>
+      </c>
+      <c r="B17" s="174">
+        <v>6</v>
+      </c>
+      <c r="C17" s="174" t="s">
+        <v>289</v>
+      </c>
+      <c r="D17" s="174" t="s">
+        <v>334</v>
+      </c>
+      <c r="E17" s="173" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="175" t="s">
+        <v>290</v>
+      </c>
+      <c r="B18" s="174">
+        <v>2</v>
+      </c>
+      <c r="C18" s="174" t="s">
+        <v>291</v>
+      </c>
+      <c r="D18" s="174" t="s">
+        <v>334</v>
+      </c>
+      <c r="E18" s="173" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="175" t="s">
+        <v>292</v>
+      </c>
+      <c r="B19" s="174">
+        <v>2</v>
+      </c>
+      <c r="C19" s="174" t="s">
+        <v>293</v>
+      </c>
+      <c r="D19" s="174" t="s">
+        <v>334</v>
+      </c>
+      <c r="E19" s="173" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="175" t="s">
+        <v>309</v>
+      </c>
+      <c r="B20" s="174">
+        <v>3</v>
+      </c>
+      <c r="C20" s="174" t="s">
+        <v>293</v>
+      </c>
+      <c r="D20" s="174" t="s">
+        <v>334</v>
+      </c>
+      <c r="E20" s="173" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="175" t="s">
+        <v>310</v>
+      </c>
+      <c r="B21" s="174">
+        <v>2</v>
+      </c>
+      <c r="C21" s="174" t="s">
+        <v>291</v>
+      </c>
+      <c r="D21" s="174" t="s">
+        <v>334</v>
+      </c>
+      <c r="E21" s="173" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="175" t="s">
+        <v>294</v>
+      </c>
+      <c r="B22" s="174">
         <v>4</v>
       </c>
-      <c r="D3" s="196" t="s">
-        <v>268</v>
-      </c>
-      <c r="E3" s="196">
+      <c r="C22" s="174" t="s">
+        <v>293</v>
+      </c>
+      <c r="D22" s="174" t="s">
+        <v>334</v>
+      </c>
+      <c r="E22" s="173" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="175" t="s">
+        <v>311</v>
+      </c>
+      <c r="B23" s="174">
+        <v>2</v>
+      </c>
+      <c r="C23" s="174" t="s">
+        <v>312</v>
+      </c>
+      <c r="D23" s="174" t="s">
+        <v>334</v>
+      </c>
+      <c r="E23" s="173" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="175" t="s">
+        <v>295</v>
+      </c>
+      <c r="B24" s="174">
+        <v>3</v>
+      </c>
+      <c r="C24" s="174" t="s">
+        <v>296</v>
+      </c>
+      <c r="D24" s="174">
+        <v>0</v>
+      </c>
+      <c r="E24" s="173" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="175" t="s">
+        <v>297</v>
+      </c>
+      <c r="B25" s="174">
+        <v>2</v>
+      </c>
+      <c r="C25" s="174" t="s">
+        <v>296</v>
+      </c>
+      <c r="D25" s="174">
+        <v>0</v>
+      </c>
+      <c r="E25" s="173" t="s">
+        <v>349</v>
+      </c>
+      <c r="F25" s="205" t="s">
+        <v>374</v>
+      </c>
+      <c r="G25" s="206"/>
+      <c r="H25" s="206"/>
+      <c r="I25" s="206"/>
+      <c r="J25" s="206"/>
+      <c r="K25" s="206"/>
+      <c r="L25" s="206"/>
+      <c r="M25" s="206"/>
+      <c r="N25" s="206"/>
+      <c r="O25" s="206"/>
+      <c r="P25" s="207" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="18" x14ac:dyDescent="0.3">
+      <c r="A26" s="178" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="179" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="179" t="s">
+        <v>266</v>
+      </c>
+      <c r="D26" s="179" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="204" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="175" t="s">
+        <v>298</v>
+      </c>
+      <c r="B27" s="174">
+        <v>2</v>
+      </c>
+      <c r="C27" s="174" t="s">
+        <v>299</v>
+      </c>
+      <c r="D27" s="174">
+        <v>0</v>
+      </c>
+      <c r="E27" s="173" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="175" t="s">
+        <v>300</v>
+      </c>
+      <c r="B28" s="174">
+        <v>2</v>
+      </c>
+      <c r="C28" s="174" t="s">
+        <v>299</v>
+      </c>
+      <c r="D28" s="174">
+        <v>0</v>
+      </c>
+      <c r="E28" s="173" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="175" t="s">
+        <v>301</v>
+      </c>
+      <c r="B29" s="174">
         <v>1</v>
       </c>
-      <c r="F3" s="195" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="205">
-        <f t="shared" ref="A4:A34" si="0">A3+1</f>
+      <c r="C29" s="174" t="s">
+        <v>293</v>
+      </c>
+      <c r="D29" s="174">
+        <v>0</v>
+      </c>
+      <c r="E29" s="173" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="175" t="s">
+        <v>302</v>
+      </c>
+      <c r="B30" s="174">
+        <v>1</v>
+      </c>
+      <c r="C30" s="174" t="s">
+        <v>293</v>
+      </c>
+      <c r="D30" s="174">
+        <v>0</v>
+      </c>
+      <c r="E30" s="173" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="175" t="s">
+        <v>303</v>
+      </c>
+      <c r="B31" s="174">
+        <v>4</v>
+      </c>
+      <c r="C31" s="174" t="s">
+        <v>296</v>
+      </c>
+      <c r="D31" s="174">
+        <v>0</v>
+      </c>
+      <c r="E31" s="173" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="175" t="s">
+        <v>304</v>
+      </c>
+      <c r="B32" s="174">
+        <v>2</v>
+      </c>
+      <c r="C32" s="174" t="s">
+        <v>296</v>
+      </c>
+      <c r="D32" s="174">
+        <v>0</v>
+      </c>
+      <c r="E32" s="173" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="175" t="s">
+        <v>305</v>
+      </c>
+      <c r="B33" s="174">
         <v>3</v>
       </c>
-      <c r="B4" s="199" t="s">
-        <v>271</v>
-      </c>
-      <c r="C4" s="196">
-        <v>10</v>
-      </c>
-      <c r="D4" s="196" t="s">
-        <v>268</v>
-      </c>
-      <c r="E4" s="196">
+      <c r="C33" s="174" t="s">
+        <v>296</v>
+      </c>
+      <c r="D33" s="174">
+        <v>0</v>
+      </c>
+      <c r="E33" s="173" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="175" t="s">
+        <v>306</v>
+      </c>
+      <c r="B34" s="174">
+        <v>2</v>
+      </c>
+      <c r="C34" s="174" t="s">
+        <v>299</v>
+      </c>
+      <c r="D34" s="174">
+        <v>0</v>
+      </c>
+      <c r="E34" s="173" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="175" t="s">
+        <v>308</v>
+      </c>
+      <c r="B35" s="174">
+        <v>2</v>
+      </c>
+      <c r="C35" s="174" t="s">
+        <v>293</v>
+      </c>
+      <c r="D35" s="174">
+        <v>0</v>
+      </c>
+      <c r="E35" s="173" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="203"/>
+      <c r="B36" s="203"/>
+      <c r="C36" s="203"/>
+      <c r="D36" s="203"/>
+      <c r="E36" s="203"/>
+    </row>
+    <row r="37" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="175" t="s">
+        <v>313</v>
+      </c>
+      <c r="B37" s="175">
+        <v>3</v>
+      </c>
+      <c r="C37" s="175" t="s">
+        <v>317</v>
+      </c>
+      <c r="D37" s="175">
+        <v>0</v>
+      </c>
+      <c r="E37" s="175" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="203" t="s">
+        <v>314</v>
+      </c>
+      <c r="B38" s="203">
+        <v>2</v>
+      </c>
+      <c r="C38" s="203" t="s">
+        <v>296</v>
+      </c>
+      <c r="D38" s="203">
         <v>1</v>
       </c>
-      <c r="F4" s="195" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="205">
-        <f t="shared" si="0"/>
+      <c r="E38" s="203" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="175" t="s">
+        <v>315</v>
+      </c>
+      <c r="B39" s="175">
         <v>4</v>
       </c>
-      <c r="B5" s="199" t="s">
-        <v>273</v>
-      </c>
-      <c r="C5" s="196">
-        <v>6</v>
-      </c>
-      <c r="D5" s="196" t="s">
-        <v>274</v>
-      </c>
-      <c r="E5" s="196" t="s">
-        <v>330</v>
-      </c>
-      <c r="F5" s="195" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="205">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="199" t="s">
-        <v>276</v>
-      </c>
-      <c r="C6" s="196">
-        <v>4</v>
-      </c>
-      <c r="D6" s="196" t="s">
-        <v>277</v>
-      </c>
-      <c r="E6" s="196">
+      <c r="C39" s="175" t="s">
+        <v>318</v>
+      </c>
+      <c r="D39" s="175">
+        <v>0</v>
+      </c>
+      <c r="E39" s="175" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="203" t="s">
+        <v>316</v>
+      </c>
+      <c r="B40" s="203">
+        <v>3</v>
+      </c>
+      <c r="C40" s="203" t="s">
+        <v>319</v>
+      </c>
+      <c r="D40" s="203">
         <v>1</v>
       </c>
-      <c r="F6" s="195" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="205">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="199" t="s">
-        <v>279</v>
-      </c>
-      <c r="C7" s="196">
-        <v>6</v>
-      </c>
-      <c r="D7" s="196" t="s">
-        <v>280</v>
-      </c>
-      <c r="E7" s="196">
-        <v>0</v>
-      </c>
-      <c r="F7" s="195" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="205">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="199" t="s">
-        <v>282</v>
-      </c>
-      <c r="C8" s="196">
-        <v>6</v>
-      </c>
-      <c r="D8" s="196" t="s">
-        <v>268</v>
-      </c>
-      <c r="E8" s="196">
-        <v>1</v>
-      </c>
-      <c r="F8" s="195" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="205">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="199" t="s">
-        <v>284</v>
-      </c>
-      <c r="C9" s="196">
-        <v>4</v>
-      </c>
-      <c r="D9" s="196" t="s">
-        <v>274</v>
-      </c>
-      <c r="E9" s="196">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="205">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="199" t="s">
-        <v>285</v>
-      </c>
-      <c r="C10" s="196">
-        <v>2</v>
-      </c>
-      <c r="D10" s="196" t="s">
-        <v>274</v>
-      </c>
-      <c r="E10" s="196">
-        <v>1</v>
-      </c>
-      <c r="F10" s="195" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="205">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B11" s="199" t="s">
-        <v>287</v>
-      </c>
-      <c r="C11" s="196">
-        <v>10</v>
-      </c>
-      <c r="D11" s="196" t="s">
-        <v>268</v>
-      </c>
-      <c r="E11" s="196">
-        <v>0</v>
-      </c>
-      <c r="F11" s="195" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="205">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B12" s="199" t="s">
-        <v>289</v>
-      </c>
-      <c r="C12" s="196">
-        <v>12</v>
-      </c>
-      <c r="D12" s="196" t="s">
-        <v>290</v>
-      </c>
-      <c r="E12" s="196" t="s">
-        <v>329</v>
-      </c>
-      <c r="F12" s="195" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="205">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B13" s="199" t="s">
-        <v>292</v>
-      </c>
-      <c r="C13" s="196">
-        <v>8</v>
-      </c>
-      <c r="D13" s="196" t="s">
-        <v>280</v>
-      </c>
-      <c r="E13" s="196">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="205">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B14" s="199" t="s">
-        <v>293</v>
-      </c>
-      <c r="C14" s="196">
-        <v>6</v>
-      </c>
-      <c r="D14" s="196" t="s">
-        <v>277</v>
-      </c>
-      <c r="E14" s="196">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="205">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B15" s="199" t="s">
-        <v>294</v>
-      </c>
-      <c r="C15" s="196">
-        <v>10</v>
-      </c>
-      <c r="D15" s="196">
-        <v>0</v>
-      </c>
-      <c r="E15" s="196">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="205">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B16" s="199" t="s">
-        <v>295</v>
-      </c>
-      <c r="C16" s="196">
-        <v>10</v>
-      </c>
-      <c r="D16" s="196" t="s">
-        <v>296</v>
-      </c>
-      <c r="E16" s="196" t="s">
-        <v>329</v>
-      </c>
-      <c r="F16" s="195" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="205">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B17" s="199" t="s">
-        <v>298</v>
-      </c>
-      <c r="C17" s="196">
-        <v>6</v>
-      </c>
-      <c r="D17" s="196" t="s">
-        <v>299</v>
-      </c>
-      <c r="E17" s="196" t="s">
-        <v>329</v>
-      </c>
-      <c r="F17" s="195" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="205">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B18" s="199" t="s">
-        <v>301</v>
-      </c>
-      <c r="C18" s="196">
-        <v>2</v>
-      </c>
-      <c r="D18" s="196" t="s">
-        <v>302</v>
-      </c>
-      <c r="E18" s="196" t="s">
-        <v>329</v>
-      </c>
-      <c r="F18" s="195" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="205">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B19" s="199" t="s">
-        <v>304</v>
-      </c>
-      <c r="C19" s="196">
-        <v>2</v>
-      </c>
-      <c r="D19" s="196" t="s">
-        <v>305</v>
-      </c>
-      <c r="E19" s="196" t="s">
-        <v>329</v>
-      </c>
-      <c r="F19" s="195" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="205">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B20" s="199" t="s">
-        <v>333</v>
-      </c>
-      <c r="C20" s="196">
-        <v>3</v>
-      </c>
-      <c r="D20" s="196" t="s">
-        <v>305</v>
-      </c>
-      <c r="E20" s="196" t="s">
-        <v>329</v>
-      </c>
-      <c r="F20" s="195" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="205">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B21" s="199" t="s">
-        <v>335</v>
-      </c>
-      <c r="D21" s="196" t="s">
-        <v>302</v>
-      </c>
-      <c r="E21" s="196" t="s">
-        <v>329</v>
-      </c>
-      <c r="F21" s="195" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="205">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B22" s="199" t="s">
-        <v>307</v>
-      </c>
-      <c r="C22" s="196">
-        <v>4</v>
-      </c>
-      <c r="D22" s="196" t="s">
-        <v>305</v>
-      </c>
-      <c r="E22" s="196" t="s">
-        <v>329</v>
-      </c>
-      <c r="F22" s="195" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="205">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B23" s="199" t="s">
-        <v>337</v>
-      </c>
-      <c r="C23" s="196">
-        <v>2</v>
-      </c>
-      <c r="D23" s="196" t="s">
-        <v>338</v>
-      </c>
-      <c r="E23" s="196" t="s">
-        <v>329</v>
-      </c>
-      <c r="F23" s="195" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="205">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B24" s="199" t="s">
-        <v>309</v>
-      </c>
-      <c r="C24" s="196">
-        <v>3</v>
-      </c>
-      <c r="D24" s="196" t="s">
-        <v>310</v>
-      </c>
-      <c r="E24" s="196">
-        <v>0</v>
-      </c>
-      <c r="F24" s="195" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="205">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B25" s="199" t="s">
-        <v>312</v>
-      </c>
-      <c r="C25" s="196">
-        <v>2</v>
-      </c>
-      <c r="D25" s="196" t="s">
-        <v>310</v>
-      </c>
-      <c r="E25" s="196">
-        <v>0</v>
-      </c>
-      <c r="F25" s="195" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="205">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B26" s="199" t="s">
-        <v>314</v>
-      </c>
-      <c r="C26" s="196">
-        <v>2</v>
-      </c>
-      <c r="D26" s="196" t="s">
-        <v>315</v>
-      </c>
-      <c r="E26" s="196">
-        <v>0</v>
-      </c>
-      <c r="F26" s="195" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="205">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B27" s="199" t="s">
-        <v>316</v>
-      </c>
-      <c r="C27" s="196">
-        <v>2</v>
-      </c>
-      <c r="D27" s="196" t="s">
-        <v>315</v>
-      </c>
-      <c r="E27" s="196">
-        <v>0</v>
-      </c>
-      <c r="F27" s="195" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="205">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B28" s="199" t="s">
-        <v>318</v>
-      </c>
-      <c r="C28" s="196">
-        <v>1</v>
-      </c>
-      <c r="D28" s="196" t="s">
-        <v>305</v>
-      </c>
-      <c r="E28" s="196">
-        <v>0</v>
-      </c>
-      <c r="F28" s="195" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="205">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B29" s="199" t="s">
-        <v>320</v>
-      </c>
-      <c r="C29" s="196">
-        <v>1</v>
-      </c>
-      <c r="D29" s="196" t="s">
-        <v>305</v>
-      </c>
-      <c r="E29" s="196">
-        <v>0</v>
-      </c>
-      <c r="F29" s="195" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="205">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B30" s="199" t="s">
+      <c r="E40" s="203" t="s">
         <v>322</v>
       </c>
-      <c r="C30" s="196">
-        <v>4</v>
-      </c>
-      <c r="D30" s="196" t="s">
-        <v>310</v>
-      </c>
-      <c r="E30" s="196">
-        <v>0</v>
-      </c>
-      <c r="F30" s="195" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="205">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B31" s="199" t="s">
-        <v>323</v>
-      </c>
-      <c r="C31" s="196">
-        <v>2</v>
-      </c>
-      <c r="D31" s="196" t="s">
-        <v>310</v>
-      </c>
-      <c r="E31" s="196">
-        <v>0</v>
-      </c>
-      <c r="F31" s="195" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="205">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B32" s="199" t="s">
-        <v>325</v>
-      </c>
-      <c r="C32" s="196">
-        <v>3</v>
-      </c>
-      <c r="D32" s="196" t="s">
-        <v>310</v>
-      </c>
-      <c r="E32" s="196">
-        <v>0</v>
-      </c>
-      <c r="F32" s="195" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="205">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B33" s="199" t="s">
-        <v>327</v>
-      </c>
-      <c r="C33" s="196">
-        <v>2</v>
-      </c>
-      <c r="D33" s="196" t="s">
-        <v>315</v>
-      </c>
-      <c r="E33" s="196">
-        <v>0</v>
-      </c>
-      <c r="F33" s="195" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="205">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B34" s="199" t="s">
-        <v>331</v>
-      </c>
-      <c r="C34" s="196">
-        <v>2</v>
-      </c>
-      <c r="D34" s="196" t="s">
-        <v>305</v>
-      </c>
-      <c r="E34" s="196">
-        <v>0</v>
-      </c>
-      <c r="F34" s="195" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="8.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="205">
-        <v>40</v>
-      </c>
-      <c r="B36" s="201" t="s">
-        <v>340</v>
-      </c>
-      <c r="C36" s="202">
-        <v>3</v>
-      </c>
-      <c r="D36" s="202" t="s">
-        <v>344</v>
-      </c>
-      <c r="E36" s="202">
-        <v>0</v>
-      </c>
-      <c r="F36" s="203" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="205">
-        <v>41</v>
-      </c>
-      <c r="B37" s="199" t="s">
-        <v>341</v>
-      </c>
-      <c r="C37" s="196">
-        <v>2</v>
-      </c>
-      <c r="D37" s="196" t="s">
-        <v>310</v>
-      </c>
-      <c r="E37" s="196">
-        <v>0</v>
-      </c>
-      <c r="F37" s="195" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="205">
-        <v>42</v>
-      </c>
-      <c r="B38" s="201" t="s">
-        <v>342</v>
-      </c>
-      <c r="C38" s="202">
-        <v>4</v>
-      </c>
-      <c r="D38" s="202" t="s">
-        <v>345</v>
-      </c>
-      <c r="E38" s="202">
-        <v>0</v>
-      </c>
-      <c r="F38" s="203" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="205">
-        <v>43</v>
-      </c>
-      <c r="B39" s="199" t="s">
-        <v>343</v>
-      </c>
-      <c r="C39" s="196">
-        <v>3</v>
-      </c>
-      <c r="D39" s="196" t="s">
-        <v>346</v>
-      </c>
-      <c r="E39" s="196">
-        <v>1</v>
-      </c>
-      <c r="F39" s="195" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="5.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B41" s="200" t="s">
-        <v>351</v>
-      </c>
-      <c r="C41" s="200"/>
-      <c r="D41" s="200"/>
-      <c r="E41" s="200"/>
-      <c r="F41" s="200"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="F1:P1"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.3543307086614173" bottom="0.3543307086614173" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
